--- a/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
+++ b/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\Bluesign\KEY 2022\Key 495\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Bluesign\KEY 2022\Key 495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9383566-B2E7-4754-BA97-DB7D172AC745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905599D-A717-44D9-8BFD-36BB44913E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="20115" windowHeight="7455" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="20115" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPURITIES&amp; T.REPORT-2018-2020" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="233">
   <si>
     <t>No.</t>
   </si>
@@ -853,9 +853,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>ýes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -989,6 +986,12 @@
   </si>
   <si>
     <t>12 months</t>
+  </si>
+  <si>
+    <t>Bluesign  certified material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluesign  certified material </t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,12 +1233,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1894,6 +1903,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1906,7 +1935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,9 +2327,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2427,295 +2453,371 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="26" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2728,6 +2830,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003399"/>
+      <color rgb="FF0037A4"/>
+      <color rgb="FF002D86"/>
       <color rgb="FFF6F9FC"/>
     </mruColors>
   </colors>
@@ -3133,7 +3238,7 @@
         <v>195</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>73</v>
@@ -3145,26 +3250,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="195" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="191" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
+    <row r="2" spans="1:17" s="194" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
     </row>
     <row r="3" spans="1:17" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="69">
@@ -6862,16 +6967,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="92" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="169" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="168" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="112" customWidth="1"/>
     <col min="5" max="5" width="19" style="112" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="112" customWidth="1"/>
@@ -6896,7 +7001,7 @@
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="169" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6933,7 +7038,7 @@
         <v>184</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>73</v>
@@ -6951,29 +7056,29 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="190" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A2" s="182" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
+    <row r="2" spans="1:20" s="189" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A2" s="181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1">
       <c r="A3" s="69">
@@ -6982,7 +7087,7 @@
       <c r="B3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="170" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="99"/>
@@ -6996,7 +7101,7 @@
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" s="117"/>
       <c r="L3" s="67"/>
@@ -7014,7 +7119,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="33"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="172"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="100"/>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -7040,7 +7145,7 @@
     <row r="5" spans="1:20" ht="22.5" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="172"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
@@ -7066,7 +7171,7 @@
     <row r="6" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
-      <c r="C6" s="173"/>
+      <c r="C6" s="172"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
@@ -7092,7 +7197,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="13"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="172"/>
+      <c r="C7" s="171"/>
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
@@ -7102,7 +7207,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>8</v>
@@ -7124,7 +7229,7 @@
     <row r="8" spans="1:20" ht="30">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="172"/>
+      <c r="C8" s="171"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100" t="s">
         <v>102</v>
@@ -7152,7 +7257,7 @@
     <row r="9" spans="1:20">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="172"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="100"/>
@@ -7182,7 +7287,7 @@
       <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="100"/>
@@ -7210,7 +7315,7 @@
     <row r="11" spans="1:20">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="172"/>
+      <c r="C11" s="171"/>
       <c r="D11" s="100"/>
       <c r="E11" s="100"/>
       <c r="F11" s="100"/>
@@ -7236,7 +7341,7 @@
     <row r="12" spans="1:20">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="172"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="100"/>
       <c r="E12" s="100"/>
       <c r="F12" s="100"/>
@@ -7262,7 +7367,7 @@
     <row r="13" spans="1:20">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="172"/>
+      <c r="C13" s="171"/>
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="100"/>
@@ -7288,7 +7393,7 @@
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="17"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="174"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="102"/>
       <c r="E14" s="102"/>
       <c r="F14" s="102"/>
@@ -7314,7 +7419,7 @@
     <row r="15" spans="1:20">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="175"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
       <c r="F15" s="103"/>
@@ -7324,7 +7429,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>8</v>
@@ -7348,7 +7453,7 @@
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="100"/>
@@ -7384,7 +7489,7 @@
     <row r="17" spans="1:20">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="172"/>
+      <c r="C17" s="171"/>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
       <c r="F17" s="114" t="s">
@@ -7412,7 +7517,7 @@
     <row r="18" spans="1:20" ht="15.75" thickBot="1">
       <c r="A18" s="17"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="174"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
@@ -7440,7 +7545,7 @@
     <row r="19" spans="1:20">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="175"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
       <c r="F19" s="103"/>
@@ -7450,7 +7555,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>8</v>
@@ -7470,7 +7575,7 @@
     <row r="20" spans="1:20" ht="45">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="172"/>
+      <c r="C20" s="171"/>
       <c r="D20" s="100"/>
       <c r="E20" s="100" t="s">
         <v>103</v>
@@ -7500,7 +7605,7 @@
     <row r="21" spans="1:20">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="172"/>
+      <c r="C21" s="171"/>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="100"/>
@@ -7530,7 +7635,7 @@
       <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="175" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="31"/>
@@ -7562,7 +7667,7 @@
     <row r="23" spans="1:20">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="172"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
       <c r="F23" s="114" t="s">
@@ -7590,7 +7695,7 @@
     <row r="24" spans="1:20">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="172"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100"/>
@@ -7616,7 +7721,7 @@
     <row r="25" spans="1:20" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="172"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100"/>
@@ -7642,7 +7747,7 @@
     <row r="26" spans="1:20">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="175"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="103"/>
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
@@ -7652,7 +7757,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>8</v>
@@ -7672,7 +7777,7 @@
     <row r="27" spans="1:20" ht="45">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="172"/>
+      <c r="C27" s="171"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100" t="s">
         <v>103</v>
@@ -7702,7 +7807,7 @@
     <row r="28" spans="1:20">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="172"/>
+      <c r="C28" s="171"/>
       <c r="D28" s="100"/>
       <c r="E28" s="100"/>
       <c r="F28" s="100"/>
@@ -7732,7 +7837,7 @@
       <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="175" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="31"/>
@@ -7764,7 +7869,7 @@
     <row r="30" spans="1:20">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="172"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>
       <c r="F30" s="114" t="s">
@@ -7792,7 +7897,7 @@
     <row r="31" spans="1:20">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="172"/>
+      <c r="C31" s="171"/>
       <c r="D31" s="100"/>
       <c r="E31" s="100"/>
       <c r="F31" s="100"/>
@@ -7818,7 +7923,7 @@
     <row r="32" spans="1:20">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="172"/>
+      <c r="C32" s="171"/>
       <c r="D32" s="100"/>
       <c r="E32" s="100"/>
       <c r="F32" s="100"/>
@@ -7846,7 +7951,7 @@
     <row r="33" spans="1:20" ht="15.75" thickBot="1">
       <c r="A33" s="17"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="174"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="102"/>
       <c r="E33" s="102"/>
       <c r="F33" s="102"/>
@@ -7872,7 +7977,7 @@
     <row r="34" spans="1:20">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="175"/>
+      <c r="C34" s="174"/>
       <c r="D34" s="103"/>
       <c r="E34" s="103"/>
       <c r="F34" s="103"/>
@@ -7912,7 +8017,7 @@
     <row r="35" spans="1:20" ht="30">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="172"/>
+      <c r="C35" s="171"/>
       <c r="D35" s="100"/>
       <c r="E35" s="100" t="s">
         <v>104</v>
@@ -7952,7 +8057,7 @@
     <row r="36" spans="1:20">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="172"/>
+      <c r="C36" s="171"/>
       <c r="D36" s="100"/>
       <c r="E36" s="100"/>
       <c r="F36" s="100"/>
@@ -7990,7 +8095,7 @@
       <c r="B37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="175" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="31"/>
@@ -8026,7 +8131,7 @@
     <row r="38" spans="1:20">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="172"/>
+      <c r="C38" s="171"/>
       <c r="D38" s="100"/>
       <c r="E38" s="100"/>
       <c r="F38" s="100"/>
@@ -8060,7 +8165,7 @@
     <row r="39" spans="1:20">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="172"/>
+      <c r="C39" s="171"/>
       <c r="D39" s="100"/>
       <c r="E39" s="100"/>
       <c r="F39" s="100"/>
@@ -8094,7 +8199,7 @@
     <row r="40" spans="1:20" ht="15.75" thickBot="1">
       <c r="A40" s="17"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="174"/>
+      <c r="C40" s="173"/>
       <c r="D40" s="102"/>
       <c r="E40" s="102"/>
       <c r="F40" s="102"/>
@@ -8128,7 +8233,7 @@
     <row r="41" spans="1:20">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="175"/>
+      <c r="C41" s="174"/>
       <c r="D41" s="103"/>
       <c r="E41" s="103"/>
       <c r="F41" s="103"/>
@@ -8168,7 +8273,7 @@
     <row r="42" spans="1:20" ht="30">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="172"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="100"/>
       <c r="E42" s="100" t="s">
         <v>104</v>
@@ -8202,7 +8307,7 @@
     <row r="43" spans="1:20">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="172"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="100"/>
       <c r="E43" s="100"/>
       <c r="F43" s="100"/>
@@ -8238,7 +8343,7 @@
       <c r="B44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="171" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="100"/>
@@ -8272,7 +8377,7 @@
     <row r="45" spans="1:20">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="172"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="100"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -8304,7 +8409,7 @@
     <row r="46" spans="1:20">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="172"/>
+      <c r="C46" s="171"/>
       <c r="D46" s="100"/>
       <c r="E46" s="100"/>
       <c r="F46" s="100"/>
@@ -8336,7 +8441,7 @@
     <row r="47" spans="1:20" ht="15.75" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="172"/>
+      <c r="C47" s="171"/>
       <c r="D47" s="100"/>
       <c r="E47" s="100"/>
       <c r="F47" s="100"/>
@@ -8368,7 +8473,7 @@
     <row r="48" spans="1:20">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="175"/>
+      <c r="C48" s="174"/>
       <c r="D48" s="103"/>
       <c r="E48" s="103"/>
       <c r="F48" s="103"/>
@@ -8404,7 +8509,7 @@
     <row r="49" spans="1:20" ht="30">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="172"/>
+      <c r="C49" s="171"/>
       <c r="D49" s="100"/>
       <c r="E49" s="100" t="s">
         <v>104</v>
@@ -8442,7 +8547,7 @@
     <row r="50" spans="1:20">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="172"/>
+      <c r="C50" s="171"/>
       <c r="D50" s="100"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
@@ -8478,7 +8583,7 @@
       <c r="B51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="175" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="31"/>
@@ -8512,7 +8617,7 @@
     <row r="52" spans="1:20">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="172"/>
+      <c r="C52" s="171"/>
       <c r="D52" s="100"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
@@ -8544,7 +8649,7 @@
     <row r="53" spans="1:20">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="172"/>
+      <c r="C53" s="171"/>
       <c r="D53" s="100"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
@@ -8576,7 +8681,7 @@
     <row r="54" spans="1:20" ht="15.75" thickBot="1">
       <c r="A54" s="17"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="174"/>
+      <c r="C54" s="173"/>
       <c r="D54" s="102"/>
       <c r="E54" s="102"/>
       <c r="F54" s="102"/>
@@ -8608,7 +8713,7 @@
     <row r="55" spans="1:20">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="175"/>
+      <c r="C55" s="174"/>
       <c r="D55" s="103"/>
       <c r="E55" s="103"/>
       <c r="F55" s="103"/>
@@ -8648,7 +8753,7 @@
     <row r="56" spans="1:20" ht="30">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="172"/>
+      <c r="C56" s="171"/>
       <c r="D56" s="100"/>
       <c r="E56" s="100" t="s">
         <v>104</v>
@@ -8682,7 +8787,7 @@
     <row r="57" spans="1:20">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="172"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="100"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
@@ -8718,7 +8823,7 @@
       <c r="B58" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="176" t="s">
+      <c r="C58" s="175" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="31"/>
@@ -8752,7 +8857,7 @@
     <row r="59" spans="1:20">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="172"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="100"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
@@ -8784,7 +8889,7 @@
     <row r="60" spans="1:20">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="172"/>
+      <c r="C60" s="171"/>
       <c r="D60" s="100"/>
       <c r="E60" s="100"/>
       <c r="F60" s="100"/>
@@ -8816,7 +8921,7 @@
     <row r="61" spans="1:20" ht="15.75" thickBot="1">
       <c r="A61" s="17"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="174"/>
+      <c r="C61" s="173"/>
       <c r="D61" s="102"/>
       <c r="E61" s="102"/>
       <c r="F61" s="102"/>
@@ -8852,7 +8957,7 @@
       <c r="B62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="175" t="s">
+      <c r="C62" s="174" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="103"/>
@@ -8882,7 +8987,7 @@
     <row r="63" spans="1:20">
       <c r="A63" s="87"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="172"/>
+      <c r="C63" s="171"/>
       <c r="D63" s="100"/>
       <c r="E63" s="100" t="s">
         <v>105</v>
@@ -8910,7 +9015,7 @@
     <row r="64" spans="1:20" ht="15.75" thickBot="1">
       <c r="A64" s="86"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="174"/>
+      <c r="C64" s="173"/>
       <c r="D64" s="102"/>
       <c r="E64" s="102"/>
       <c r="F64" s="102"/>
@@ -8936,7 +9041,7 @@
     <row r="65" spans="1:20">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="175"/>
+      <c r="C65" s="174"/>
       <c r="D65" s="103"/>
       <c r="E65" s="103"/>
       <c r="F65" s="103"/>
@@ -8964,7 +9069,7 @@
     <row r="66" spans="1:20" ht="30">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="172"/>
+      <c r="C66" s="171"/>
       <c r="D66" s="100"/>
       <c r="E66" s="100" t="s">
         <v>104</v>
@@ -8992,7 +9097,7 @@
     <row r="67" spans="1:20">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="172"/>
+      <c r="C67" s="171"/>
       <c r="D67" s="100"/>
       <c r="E67" s="100"/>
       <c r="F67" s="100"/>
@@ -9022,7 +9127,7 @@
       <c r="B68" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="176" t="s">
+      <c r="C68" s="175" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="31"/>
@@ -9050,7 +9155,7 @@
     <row r="69" spans="1:20">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="172"/>
+      <c r="C69" s="171"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
       <c r="F69" s="100"/>
@@ -9076,7 +9181,7 @@
     <row r="70" spans="1:20">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="172"/>
+      <c r="C70" s="171"/>
       <c r="D70" s="100"/>
       <c r="E70" s="100"/>
       <c r="F70" s="100"/>
@@ -9102,7 +9207,7 @@
     <row r="71" spans="1:20">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="172"/>
+      <c r="C71" s="171"/>
       <c r="D71" s="100"/>
       <c r="E71" s="100"/>
       <c r="F71" s="100"/>
@@ -9128,7 +9233,7 @@
     <row r="72" spans="1:20">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="172"/>
+      <c r="C72" s="171"/>
       <c r="D72" s="100"/>
       <c r="E72" s="100"/>
       <c r="F72" s="100"/>
@@ -9154,7 +9259,7 @@
     <row r="73" spans="1:20" ht="15.75" thickBot="1">
       <c r="A73" s="17"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="174"/>
+      <c r="C73" s="173"/>
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -9180,7 +9285,7 @@
     <row r="74" spans="1:20">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="175"/>
+      <c r="C74" s="174"/>
       <c r="D74" s="103"/>
       <c r="E74" s="103"/>
       <c r="F74" s="103"/>
@@ -9216,7 +9321,7 @@
     <row r="75" spans="1:20" ht="30">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="172"/>
+      <c r="C75" s="171"/>
       <c r="D75" s="100"/>
       <c r="E75" s="100" t="s">
         <v>104</v>
@@ -9254,7 +9359,7 @@
     <row r="76" spans="1:20">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="172"/>
+      <c r="C76" s="171"/>
       <c r="D76" s="100"/>
       <c r="E76" s="100"/>
       <c r="F76" s="100"/>
@@ -9290,7 +9395,7 @@
       <c r="B77" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="176" t="s">
+      <c r="C77" s="175" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="31"/>
@@ -9324,7 +9429,7 @@
     <row r="78" spans="1:20">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="172"/>
+      <c r="C78" s="171"/>
       <c r="D78" s="100"/>
       <c r="E78" s="100"/>
       <c r="F78" s="100"/>
@@ -9356,7 +9461,7 @@
     <row r="79" spans="1:20">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="172"/>
+      <c r="C79" s="171"/>
       <c r="D79" s="100"/>
       <c r="E79" s="100"/>
       <c r="F79" s="100"/>
@@ -9390,7 +9495,7 @@
     <row r="80" spans="1:20" ht="15.75" thickBot="1">
       <c r="A80" s="17"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="172"/>
+      <c r="C80" s="171"/>
       <c r="D80" s="100"/>
       <c r="E80" s="100"/>
       <c r="F80" s="100"/>
@@ -9422,7 +9527,7 @@
     <row r="81" spans="1:20">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="175"/>
+      <c r="C81" s="174"/>
       <c r="D81" s="103"/>
       <c r="E81" s="103"/>
       <c r="F81" s="103"/>
@@ -9466,7 +9571,7 @@
       <c r="B82" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="176" t="s">
+      <c r="C82" s="175" t="s">
         <v>41</v>
       </c>
       <c r="D82" s="31"/>
@@ -9502,7 +9607,7 @@
     <row r="83" spans="1:20">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="172"/>
+      <c r="C83" s="171"/>
       <c r="D83" s="100"/>
       <c r="E83" s="100"/>
       <c r="F83" s="100"/>
@@ -9534,7 +9639,7 @@
     <row r="84" spans="1:20" ht="15.75" thickBot="1">
       <c r="A84" s="17"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="174"/>
+      <c r="C84" s="173"/>
       <c r="D84" s="102"/>
       <c r="E84" s="102"/>
       <c r="F84" s="102"/>
@@ -9566,7 +9671,7 @@
     <row r="85" spans="1:20">
       <c r="A85" s="10"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="172"/>
+      <c r="C85" s="171"/>
       <c r="D85" s="100"/>
       <c r="E85" s="100"/>
       <c r="F85" s="100"/>
@@ -9594,7 +9699,7 @@
     <row r="86" spans="1:20" ht="30">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="172"/>
+      <c r="C86" s="171"/>
       <c r="D86" s="100"/>
       <c r="E86" s="100" t="s">
         <v>104</v>
@@ -9624,7 +9729,7 @@
     <row r="87" spans="1:20">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="172"/>
+      <c r="C87" s="171"/>
       <c r="D87" s="100"/>
       <c r="E87" s="100"/>
       <c r="F87" s="100"/>
@@ -9654,7 +9759,7 @@
       <c r="B88" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="172" t="s">
+      <c r="C88" s="171" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="100"/>
@@ -9682,7 +9787,7 @@
     <row r="89" spans="1:20">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="172"/>
+      <c r="C89" s="171"/>
       <c r="D89" s="100"/>
       <c r="E89" s="100"/>
       <c r="F89" s="100"/>
@@ -9708,7 +9813,7 @@
     <row r="90" spans="1:20">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="172"/>
+      <c r="C90" s="171"/>
       <c r="D90" s="100"/>
       <c r="E90" s="100"/>
       <c r="F90" s="100"/>
@@ -9734,7 +9839,7 @@
     <row r="91" spans="1:20">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="172"/>
+      <c r="C91" s="171"/>
       <c r="D91" s="100"/>
       <c r="E91" s="100"/>
       <c r="F91" s="100"/>
@@ -9762,7 +9867,7 @@
     <row r="92" spans="1:20">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="172"/>
+      <c r="C92" s="171"/>
       <c r="D92" s="100"/>
       <c r="E92" s="100"/>
       <c r="F92" s="100"/>
@@ -9788,7 +9893,7 @@
     <row r="93" spans="1:20" ht="15.75" thickBot="1">
       <c r="A93" s="17"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="174"/>
+      <c r="C93" s="173"/>
       <c r="D93" s="102"/>
       <c r="E93" s="102"/>
       <c r="F93" s="102"/>
@@ -9814,7 +9919,7 @@
     <row r="94" spans="1:20">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="175"/>
+      <c r="C94" s="174"/>
       <c r="D94" s="103"/>
       <c r="E94" s="103"/>
       <c r="F94" s="103"/>
@@ -9846,7 +9951,7 @@
       <c r="B95" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="176" t="s">
+      <c r="C95" s="175" t="s">
         <v>62</v>
       </c>
       <c r="D95" s="31"/>
@@ -9878,7 +9983,7 @@
     <row r="96" spans="1:20">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="172"/>
+      <c r="C96" s="171"/>
       <c r="D96" s="100"/>
       <c r="E96" s="100"/>
       <c r="F96" s="100"/>
@@ -9904,7 +10009,7 @@
     <row r="97" spans="1:20">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="172"/>
+      <c r="C97" s="171"/>
       <c r="D97" s="100"/>
       <c r="E97" s="100"/>
       <c r="F97" s="100"/>
@@ -9930,7 +10035,7 @@
     <row r="98" spans="1:20" ht="15.75" thickBot="1">
       <c r="A98" s="17"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="174"/>
+      <c r="C98" s="173"/>
       <c r="D98" s="102"/>
       <c r="E98" s="102"/>
       <c r="F98" s="102"/>
@@ -9960,7 +10065,7 @@
       <c r="B99" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="177" t="s">
+      <c r="C99" s="176" t="s">
         <v>45</v>
       </c>
       <c r="D99" s="104"/>
@@ -10006,7 +10111,7 @@
       <c r="B100" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="175" t="s">
+      <c r="C100" s="174" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="103"/>
@@ -10030,7 +10135,7 @@
     <row r="101" spans="1:20" ht="30">
       <c r="A101" s="87"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="172"/>
+      <c r="C101" s="171"/>
       <c r="D101" s="100"/>
       <c r="E101" s="100" t="s">
         <v>107</v>
@@ -10060,7 +10165,7 @@
     <row r="102" spans="1:20">
       <c r="A102" s="87"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="172"/>
+      <c r="C102" s="171"/>
       <c r="D102" s="100"/>
       <c r="E102" s="100"/>
       <c r="F102" s="100"/>
@@ -10086,7 +10191,7 @@
     <row r="103" spans="1:20" ht="21.75" customHeight="1" thickBot="1">
       <c r="A103" s="86"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="174"/>
+      <c r="C103" s="173"/>
       <c r="D103" s="102"/>
       <c r="E103" s="102"/>
       <c r="F103" s="102"/>
@@ -10111,15 +10216,15 @@
     </row>
     <row r="104" spans="1:20" ht="29.25" customHeight="1">
       <c r="A104" s="54"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="178"/>
+      <c r="B104" s="158"/>
+      <c r="C104" s="177"/>
       <c r="D104" s="105"/>
       <c r="E104" s="105"/>
       <c r="F104" s="105"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
-      <c r="J104" s="144">
+      <c r="J104" s="143">
         <v>44694</v>
       </c>
       <c r="K104" s="44" t="s">
@@ -10138,7 +10243,7 @@
       <c r="R104" s="77"/>
       <c r="S104" s="78"/>
       <c r="T104" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="30">
@@ -10148,7 +10253,7 @@
       <c r="B105" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="172" t="s">
+      <c r="C105" s="171" t="s">
         <v>64</v>
       </c>
       <c r="D105" s="100"/>
@@ -10176,7 +10281,7 @@
     <row r="106" spans="1:20">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="172"/>
+      <c r="C106" s="171"/>
       <c r="D106" s="106"/>
       <c r="E106" s="106"/>
       <c r="F106" s="106"/>
@@ -10198,7 +10303,7 @@
     <row r="107" spans="1:20">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="172"/>
+      <c r="C107" s="171"/>
       <c r="D107" s="106"/>
       <c r="E107" s="106"/>
       <c r="F107" s="106"/>
@@ -10220,7 +10325,7 @@
     <row r="108" spans="1:20" ht="15.75" thickBot="1">
       <c r="A108" s="17"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="174"/>
+      <c r="C108" s="173"/>
       <c r="D108" s="107"/>
       <c r="E108" s="107"/>
       <c r="F108" s="107"/>
@@ -10246,7 +10351,7 @@
       <c r="B109" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C109" s="179" t="s">
+      <c r="C109" s="178" t="s">
         <v>85</v>
       </c>
       <c r="D109" s="113"/>
@@ -10274,7 +10379,7 @@
     <row r="110" spans="1:20" ht="30">
       <c r="A110" s="64"/>
       <c r="B110" s="89"/>
-      <c r="C110" s="180"/>
+      <c r="C110" s="179"/>
       <c r="D110" s="110"/>
       <c r="E110" s="109" t="s">
         <v>104</v>
@@ -10306,7 +10411,7 @@
     <row r="111" spans="1:20">
       <c r="A111" s="64"/>
       <c r="B111" s="89"/>
-      <c r="C111" s="180"/>
+      <c r="C111" s="179"/>
       <c r="D111" s="110"/>
       <c r="E111" s="110"/>
       <c r="F111" s="110"/>
@@ -10332,7 +10437,7 @@
     <row r="112" spans="1:20">
       <c r="A112" s="64"/>
       <c r="B112" s="89"/>
-      <c r="C112" s="180"/>
+      <c r="C112" s="179"/>
       <c r="D112" s="110"/>
       <c r="E112" s="110"/>
       <c r="F112" s="110"/>
@@ -10358,7 +10463,7 @@
     <row r="113" spans="1:20">
       <c r="A113" s="64"/>
       <c r="B113" s="89"/>
-      <c r="C113" s="180"/>
+      <c r="C113" s="179"/>
       <c r="D113" s="110"/>
       <c r="E113" s="110"/>
       <c r="F113" s="110"/>
@@ -10386,7 +10491,7 @@
     <row r="114" spans="1:20">
       <c r="A114" s="64"/>
       <c r="B114" s="89"/>
-      <c r="C114" s="180"/>
+      <c r="C114" s="179"/>
       <c r="D114" s="110"/>
       <c r="E114" s="110"/>
       <c r="F114" s="110"/>
@@ -10412,7 +10517,7 @@
     <row r="115" spans="1:20">
       <c r="A115" s="64"/>
       <c r="B115" s="89"/>
-      <c r="C115" s="180"/>
+      <c r="C115" s="179"/>
       <c r="D115" s="110"/>
       <c r="E115" s="110"/>
       <c r="F115" s="110"/>
@@ -10437,8 +10542,8 @@
     </row>
     <row r="116" spans="1:20" ht="15.75" thickBot="1">
       <c r="A116" s="65"/>
-      <c r="B116" s="160"/>
-      <c r="C116" s="181"/>
+      <c r="B116" s="159"/>
+      <c r="C116" s="180"/>
       <c r="D116" s="111"/>
       <c r="E116" s="111"/>
       <c r="F116" s="111"/>
@@ -10464,7 +10569,7 @@
     <row r="117" spans="1:20">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
-      <c r="C117" s="175"/>
+      <c r="C117" s="174"/>
       <c r="D117" s="103"/>
       <c r="E117" s="103"/>
       <c r="F117" s="103"/>
@@ -10494,7 +10599,7 @@
       <c r="B118" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="172" t="s">
+      <c r="C118" s="171" t="s">
         <v>122</v>
       </c>
       <c r="D118" s="100"/>
@@ -10528,7 +10633,7 @@
     <row r="119" spans="1:20">
       <c r="A119" s="13"/>
       <c r="B119" s="16"/>
-      <c r="C119" s="172"/>
+      <c r="C119" s="171"/>
       <c r="D119" s="100"/>
       <c r="E119" s="100"/>
       <c r="F119" s="114" t="s">
@@ -10554,7 +10659,7 @@
     <row r="120" spans="1:20" ht="15.75" thickBot="1">
       <c r="A120" s="17"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="174"/>
+      <c r="C120" s="173"/>
       <c r="D120" s="102"/>
       <c r="E120" s="102"/>
       <c r="F120" s="102"/>
@@ -10575,27 +10680,27 @@
       <c r="S120" s="79"/>
       <c r="T120" s="79"/>
     </row>
-    <row r="121" spans="1:20" s="151" customFormat="1">
-      <c r="A121" s="147">
+    <row r="121" spans="1:20" s="150" customFormat="1">
+      <c r="A121" s="146">
         <v>21</v>
       </c>
-      <c r="B121" s="161" t="s">
+      <c r="B121" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="165" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" s="149"/>
-      <c r="E121" s="149" t="s">
-        <v>224</v>
-      </c>
-      <c r="F121" s="149"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="148"/>
       <c r="G121" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="148"/>
-      <c r="I121" s="148"/>
-      <c r="J121" s="145">
+      <c r="H121" s="147"/>
+      <c r="I121" s="147"/>
+      <c r="J121" s="144">
         <v>44694</v>
       </c>
       <c r="K121" s="44" t="s">
@@ -10613,14 +10718,14 @@
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
-      <c r="R121" s="148"/>
-      <c r="S121" s="148"/>
-      <c r="T121" s="150"/>
-    </row>
-    <row r="122" spans="1:20" s="151" customFormat="1">
-      <c r="A122" s="152"/>
-      <c r="B122" s="162"/>
-      <c r="C122" s="166"/>
+      <c r="R121" s="147"/>
+      <c r="S121" s="147"/>
+      <c r="T121" s="149"/>
+    </row>
+    <row r="122" spans="1:20" s="150" customFormat="1">
+      <c r="A122" s="151"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="165"/>
       <c r="D122" s="142"/>
       <c r="E122" s="142"/>
       <c r="F122" s="142"/>
@@ -10643,12 +10748,12 @@
       <c r="Q122" s="15"/>
       <c r="R122" s="75"/>
       <c r="S122" s="75"/>
-      <c r="T122" s="153"/>
-    </row>
-    <row r="123" spans="1:20" s="151" customFormat="1">
-      <c r="A123" s="152"/>
-      <c r="B123" s="162"/>
-      <c r="C123" s="166"/>
+      <c r="T122" s="152"/>
+    </row>
+    <row r="123" spans="1:20" s="150" customFormat="1">
+      <c r="A123" s="151"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="165"/>
       <c r="D123" s="142"/>
       <c r="E123" s="142"/>
       <c r="F123" s="142"/>
@@ -10671,12 +10776,12 @@
       <c r="Q123" s="15"/>
       <c r="R123" s="75"/>
       <c r="S123" s="75"/>
-      <c r="T123" s="153"/>
-    </row>
-    <row r="124" spans="1:20" s="151" customFormat="1">
-      <c r="A124" s="152"/>
-      <c r="B124" s="162"/>
-      <c r="C124" s="166"/>
+      <c r="T123" s="152"/>
+    </row>
+    <row r="124" spans="1:20" s="150" customFormat="1">
+      <c r="A124" s="151"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="165"/>
       <c r="D124" s="142"/>
       <c r="E124" s="142"/>
       <c r="F124" s="142"/>
@@ -10699,12 +10804,12 @@
       <c r="Q124" s="15"/>
       <c r="R124" s="75"/>
       <c r="S124" s="75"/>
-      <c r="T124" s="153"/>
-    </row>
-    <row r="125" spans="1:20" s="151" customFormat="1">
-      <c r="A125" s="152"/>
-      <c r="B125" s="162"/>
-      <c r="C125" s="166"/>
+      <c r="T124" s="152"/>
+    </row>
+    <row r="125" spans="1:20" s="150" customFormat="1">
+      <c r="A125" s="151"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="165"/>
       <c r="D125" s="142"/>
       <c r="E125" s="142"/>
       <c r="F125" s="142"/>
@@ -10727,12 +10832,12 @@
       <c r="Q125" s="15"/>
       <c r="R125" s="75"/>
       <c r="S125" s="75"/>
-      <c r="T125" s="153"/>
-    </row>
-    <row r="126" spans="1:20" s="151" customFormat="1">
-      <c r="A126" s="152"/>
-      <c r="B126" s="162"/>
-      <c r="C126" s="166"/>
+      <c r="T125" s="152"/>
+    </row>
+    <row r="126" spans="1:20" s="150" customFormat="1">
+      <c r="A126" s="151"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="165"/>
       <c r="D126" s="142"/>
       <c r="E126" s="142"/>
       <c r="F126" s="142"/>
@@ -10755,15 +10860,15 @@
       <c r="Q126" s="15"/>
       <c r="R126" s="75"/>
       <c r="S126" s="75"/>
-      <c r="T126" s="153"/>
-    </row>
-    <row r="127" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T126" s="152"/>
+    </row>
+    <row r="127" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A127" s="84"/>
-      <c r="B127" s="163"/>
-      <c r="C127" s="167"/>
-      <c r="D127" s="154"/>
-      <c r="E127" s="154"/>
-      <c r="F127" s="154"/>
+      <c r="B127" s="162"/>
+      <c r="C127" s="166"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="153"/>
+      <c r="F127" s="153"/>
       <c r="G127" s="79"/>
       <c r="H127" s="79"/>
       <c r="I127" s="79"/>
@@ -10783,29 +10888,29 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="79"/>
       <c r="S127" s="79"/>
-      <c r="T127" s="155"/>
-    </row>
-    <row r="128" spans="1:20" s="151" customFormat="1">
-      <c r="A128" s="147">
+      <c r="T127" s="154"/>
+    </row>
+    <row r="128" spans="1:20" s="150" customFormat="1">
+      <c r="A128" s="146">
         <v>22</v>
       </c>
-      <c r="B128" s="161" t="s">
+      <c r="B128" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="165" t="s">
-        <v>212</v>
-      </c>
-      <c r="D128" s="149"/>
-      <c r="E128" s="149" t="s">
-        <v>225</v>
-      </c>
-      <c r="F128" s="149"/>
+      <c r="D128" s="148"/>
+      <c r="E128" s="148" t="s">
+        <v>224</v>
+      </c>
+      <c r="F128" s="148"/>
       <c r="G128" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H128" s="148"/>
-      <c r="I128" s="148"/>
-      <c r="J128" s="145">
+      <c r="H128" s="147"/>
+      <c r="I128" s="147"/>
+      <c r="J128" s="144">
         <v>44694</v>
       </c>
       <c r="K128" s="44" t="s">
@@ -10823,14 +10928,14 @@
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
-      <c r="R128" s="148"/>
-      <c r="S128" s="148"/>
-      <c r="T128" s="150"/>
-    </row>
-    <row r="129" spans="1:20" s="151" customFormat="1">
-      <c r="A129" s="152"/>
-      <c r="B129" s="162"/>
-      <c r="C129" s="166"/>
+      <c r="R128" s="147"/>
+      <c r="S128" s="147"/>
+      <c r="T128" s="149"/>
+    </row>
+    <row r="129" spans="1:20" s="150" customFormat="1">
+      <c r="A129" s="151"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="165"/>
       <c r="D129" s="142"/>
       <c r="E129" s="142"/>
       <c r="F129" s="142"/>
@@ -10853,12 +10958,12 @@
       <c r="Q129" s="15"/>
       <c r="R129" s="75"/>
       <c r="S129" s="75"/>
-      <c r="T129" s="153"/>
-    </row>
-    <row r="130" spans="1:20" s="151" customFormat="1">
-      <c r="A130" s="152"/>
-      <c r="B130" s="162"/>
-      <c r="C130" s="166"/>
+      <c r="T129" s="152"/>
+    </row>
+    <row r="130" spans="1:20" s="150" customFormat="1">
+      <c r="A130" s="151"/>
+      <c r="B130" s="161"/>
+      <c r="C130" s="165"/>
       <c r="D130" s="142"/>
       <c r="E130" s="142"/>
       <c r="F130" s="142"/>
@@ -10881,12 +10986,12 @@
       <c r="Q130" s="15"/>
       <c r="R130" s="75"/>
       <c r="S130" s="75"/>
-      <c r="T130" s="153"/>
-    </row>
-    <row r="131" spans="1:20" s="151" customFormat="1">
-      <c r="A131" s="152"/>
-      <c r="B131" s="162"/>
-      <c r="C131" s="166"/>
+      <c r="T130" s="152"/>
+    </row>
+    <row r="131" spans="1:20" s="150" customFormat="1">
+      <c r="A131" s="151"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="165"/>
       <c r="D131" s="142"/>
       <c r="E131" s="142"/>
       <c r="F131" s="142"/>
@@ -10909,12 +11014,12 @@
       <c r="Q131" s="15"/>
       <c r="R131" s="75"/>
       <c r="S131" s="75"/>
-      <c r="T131" s="153"/>
-    </row>
-    <row r="132" spans="1:20" s="151" customFormat="1">
-      <c r="A132" s="152"/>
-      <c r="B132" s="162"/>
-      <c r="C132" s="166"/>
+      <c r="T131" s="152"/>
+    </row>
+    <row r="132" spans="1:20" s="150" customFormat="1">
+      <c r="A132" s="151"/>
+      <c r="B132" s="161"/>
+      <c r="C132" s="165"/>
       <c r="D132" s="142"/>
       <c r="E132" s="142"/>
       <c r="F132" s="142"/>
@@ -10937,12 +11042,12 @@
       <c r="Q132" s="15"/>
       <c r="R132" s="75"/>
       <c r="S132" s="75"/>
-      <c r="T132" s="153"/>
-    </row>
-    <row r="133" spans="1:20" s="151" customFormat="1">
-      <c r="A133" s="152"/>
-      <c r="B133" s="162"/>
-      <c r="C133" s="166"/>
+      <c r="T132" s="152"/>
+    </row>
+    <row r="133" spans="1:20" s="150" customFormat="1">
+      <c r="A133" s="151"/>
+      <c r="B133" s="161"/>
+      <c r="C133" s="165"/>
       <c r="D133" s="142"/>
       <c r="E133" s="142"/>
       <c r="F133" s="142"/>
@@ -10965,15 +11070,15 @@
       <c r="Q133" s="15"/>
       <c r="R133" s="75"/>
       <c r="S133" s="75"/>
-      <c r="T133" s="153"/>
-    </row>
-    <row r="134" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T133" s="152"/>
+    </row>
+    <row r="134" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="84"/>
-      <c r="B134" s="163"/>
-      <c r="C134" s="167"/>
-      <c r="D134" s="154"/>
-      <c r="E134" s="154"/>
-      <c r="F134" s="154"/>
+      <c r="B134" s="162"/>
+      <c r="C134" s="166"/>
+      <c r="D134" s="153"/>
+      <c r="E134" s="153"/>
+      <c r="F134" s="153"/>
       <c r="G134" s="79"/>
       <c r="H134" s="79"/>
       <c r="I134" s="79"/>
@@ -10993,29 +11098,29 @@
       <c r="Q134" s="9"/>
       <c r="R134" s="79"/>
       <c r="S134" s="79"/>
-      <c r="T134" s="155"/>
-    </row>
-    <row r="135" spans="1:20" s="151" customFormat="1" ht="45">
-      <c r="A135" s="147">
+      <c r="T134" s="154"/>
+    </row>
+    <row r="135" spans="1:20" s="150" customFormat="1" ht="45">
+      <c r="A135" s="146">
         <v>23</v>
       </c>
-      <c r="B135" s="161" t="s">
+      <c r="B135" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="C135" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="165" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" s="149"/>
+      <c r="D135" s="148"/>
       <c r="E135" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F135" s="149"/>
+      <c r="F135" s="148"/>
       <c r="G135" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H135" s="148"/>
-      <c r="I135" s="148"/>
-      <c r="J135" s="145">
+      <c r="H135" s="147"/>
+      <c r="I135" s="147"/>
+      <c r="J135" s="144">
         <v>44694</v>
       </c>
       <c r="K135" s="44" t="s">
@@ -11033,14 +11138,14 @@
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
-      <c r="R135" s="148"/>
-      <c r="S135" s="148"/>
-      <c r="T135" s="150"/>
-    </row>
-    <row r="136" spans="1:20" s="151" customFormat="1">
-      <c r="A136" s="152"/>
-      <c r="B136" s="162"/>
-      <c r="C136" s="166"/>
+      <c r="R135" s="147"/>
+      <c r="S135" s="147"/>
+      <c r="T135" s="149"/>
+    </row>
+    <row r="136" spans="1:20" s="150" customFormat="1">
+      <c r="A136" s="151"/>
+      <c r="B136" s="161"/>
+      <c r="C136" s="165"/>
       <c r="D136" s="142"/>
       <c r="E136" s="142"/>
       <c r="F136" s="142"/>
@@ -11063,12 +11168,12 @@
       <c r="Q136" s="15"/>
       <c r="R136" s="75"/>
       <c r="S136" s="75"/>
-      <c r="T136" s="153"/>
-    </row>
-    <row r="137" spans="1:20" s="151" customFormat="1">
-      <c r="A137" s="152"/>
-      <c r="B137" s="162"/>
-      <c r="C137" s="166"/>
+      <c r="T136" s="152"/>
+    </row>
+    <row r="137" spans="1:20" s="150" customFormat="1">
+      <c r="A137" s="151"/>
+      <c r="B137" s="161"/>
+      <c r="C137" s="165"/>
       <c r="D137" s="142"/>
       <c r="E137" s="142"/>
       <c r="F137" s="142"/>
@@ -11091,12 +11196,12 @@
       <c r="Q137" s="15"/>
       <c r="R137" s="75"/>
       <c r="S137" s="75"/>
-      <c r="T137" s="153"/>
-    </row>
-    <row r="138" spans="1:20" s="151" customFormat="1">
-      <c r="A138" s="152"/>
-      <c r="B138" s="162"/>
-      <c r="C138" s="166"/>
+      <c r="T137" s="152"/>
+    </row>
+    <row r="138" spans="1:20" s="150" customFormat="1">
+      <c r="A138" s="151"/>
+      <c r="B138" s="161"/>
+      <c r="C138" s="165"/>
       <c r="D138" s="142"/>
       <c r="E138" s="142"/>
       <c r="F138" s="142"/>
@@ -11119,12 +11224,12 @@
       <c r="Q138" s="15"/>
       <c r="R138" s="75"/>
       <c r="S138" s="75"/>
-      <c r="T138" s="153"/>
-    </row>
-    <row r="139" spans="1:20" s="151" customFormat="1">
-      <c r="A139" s="152"/>
-      <c r="B139" s="162"/>
-      <c r="C139" s="166"/>
+      <c r="T138" s="152"/>
+    </row>
+    <row r="139" spans="1:20" s="150" customFormat="1">
+      <c r="A139" s="151"/>
+      <c r="B139" s="161"/>
+      <c r="C139" s="165"/>
       <c r="D139" s="142"/>
       <c r="E139" s="142"/>
       <c r="F139" s="142"/>
@@ -11147,12 +11252,12 @@
       <c r="Q139" s="15"/>
       <c r="R139" s="75"/>
       <c r="S139" s="75"/>
-      <c r="T139" s="153"/>
-    </row>
-    <row r="140" spans="1:20" s="151" customFormat="1">
-      <c r="A140" s="152"/>
-      <c r="B140" s="162"/>
-      <c r="C140" s="166"/>
+      <c r="T139" s="152"/>
+    </row>
+    <row r="140" spans="1:20" s="150" customFormat="1">
+      <c r="A140" s="151"/>
+      <c r="B140" s="161"/>
+      <c r="C140" s="165"/>
       <c r="D140" s="142"/>
       <c r="E140" s="142"/>
       <c r="F140" s="142"/>
@@ -11175,15 +11280,15 @@
       <c r="Q140" s="15"/>
       <c r="R140" s="75"/>
       <c r="S140" s="75"/>
-      <c r="T140" s="153"/>
-    </row>
-    <row r="141" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T140" s="152"/>
+    </row>
+    <row r="141" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="84"/>
-      <c r="B141" s="163"/>
-      <c r="C141" s="167"/>
-      <c r="D141" s="154"/>
-      <c r="E141" s="154"/>
-      <c r="F141" s="154"/>
+      <c r="B141" s="162"/>
+      <c r="C141" s="166"/>
+      <c r="D141" s="153"/>
+      <c r="E141" s="153"/>
+      <c r="F141" s="153"/>
       <c r="G141" s="79"/>
       <c r="H141" s="79"/>
       <c r="I141" s="79"/>
@@ -11203,29 +11308,29 @@
       <c r="Q141" s="9"/>
       <c r="R141" s="79"/>
       <c r="S141" s="79"/>
-      <c r="T141" s="155"/>
-    </row>
-    <row r="142" spans="1:20" s="151" customFormat="1" ht="30">
-      <c r="A142" s="147">
+      <c r="T141" s="154"/>
+    </row>
+    <row r="142" spans="1:20" s="150" customFormat="1" ht="30">
+      <c r="A142" s="146">
         <v>24</v>
       </c>
-      <c r="B142" s="161" t="s">
+      <c r="B142" s="160" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="C142" s="165" t="s">
-        <v>216</v>
-      </c>
-      <c r="D142" s="149"/>
+      <c r="D142" s="148"/>
       <c r="E142" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="F142" s="149"/>
+      <c r="F142" s="148"/>
       <c r="G142" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H142" s="148"/>
-      <c r="I142" s="148"/>
-      <c r="J142" s="145">
+      <c r="H142" s="147"/>
+      <c r="I142" s="147"/>
+      <c r="J142" s="144">
         <v>44694</v>
       </c>
       <c r="K142" s="44" t="s">
@@ -11243,14 +11348,14 @@
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
-      <c r="R142" s="148"/>
-      <c r="S142" s="148"/>
-      <c r="T142" s="150"/>
-    </row>
-    <row r="143" spans="1:20" s="151" customFormat="1">
-      <c r="A143" s="152"/>
-      <c r="B143" s="162"/>
-      <c r="C143" s="166"/>
+      <c r="R142" s="147"/>
+      <c r="S142" s="147"/>
+      <c r="T142" s="149"/>
+    </row>
+    <row r="143" spans="1:20" s="150" customFormat="1">
+      <c r="A143" s="151"/>
+      <c r="B143" s="161"/>
+      <c r="C143" s="165"/>
       <c r="D143" s="142"/>
       <c r="E143" s="142"/>
       <c r="F143" s="142"/>
@@ -11273,12 +11378,12 @@
       <c r="Q143" s="15"/>
       <c r="R143" s="75"/>
       <c r="S143" s="75"/>
-      <c r="T143" s="153"/>
-    </row>
-    <row r="144" spans="1:20" s="151" customFormat="1">
-      <c r="A144" s="152"/>
-      <c r="B144" s="162"/>
-      <c r="C144" s="166"/>
+      <c r="T143" s="152"/>
+    </row>
+    <row r="144" spans="1:20" s="150" customFormat="1">
+      <c r="A144" s="151"/>
+      <c r="B144" s="161"/>
+      <c r="C144" s="165"/>
       <c r="D144" s="142"/>
       <c r="E144" s="142"/>
       <c r="F144" s="142"/>
@@ -11301,12 +11406,12 @@
       <c r="Q144" s="15"/>
       <c r="R144" s="75"/>
       <c r="S144" s="75"/>
-      <c r="T144" s="153"/>
-    </row>
-    <row r="145" spans="1:20" s="151" customFormat="1">
-      <c r="A145" s="152"/>
-      <c r="B145" s="162"/>
-      <c r="C145" s="166"/>
+      <c r="T144" s="152"/>
+    </row>
+    <row r="145" spans="1:20" s="150" customFormat="1">
+      <c r="A145" s="151"/>
+      <c r="B145" s="161"/>
+      <c r="C145" s="165"/>
       <c r="D145" s="142"/>
       <c r="E145" s="142"/>
       <c r="F145" s="142"/>
@@ -11329,12 +11434,12 @@
       <c r="Q145" s="15"/>
       <c r="R145" s="75"/>
       <c r="S145" s="75"/>
-      <c r="T145" s="153"/>
-    </row>
-    <row r="146" spans="1:20" s="151" customFormat="1">
-      <c r="A146" s="152"/>
-      <c r="B146" s="162"/>
-      <c r="C146" s="166"/>
+      <c r="T145" s="152"/>
+    </row>
+    <row r="146" spans="1:20" s="150" customFormat="1">
+      <c r="A146" s="151"/>
+      <c r="B146" s="161"/>
+      <c r="C146" s="165"/>
       <c r="D146" s="142"/>
       <c r="E146" s="142"/>
       <c r="F146" s="142"/>
@@ -11357,12 +11462,12 @@
       <c r="Q146" s="15"/>
       <c r="R146" s="75"/>
       <c r="S146" s="75"/>
-      <c r="T146" s="153"/>
-    </row>
-    <row r="147" spans="1:20" s="151" customFormat="1">
-      <c r="A147" s="152"/>
-      <c r="B147" s="162"/>
-      <c r="C147" s="166"/>
+      <c r="T146" s="152"/>
+    </row>
+    <row r="147" spans="1:20" s="150" customFormat="1">
+      <c r="A147" s="151"/>
+      <c r="B147" s="161"/>
+      <c r="C147" s="165"/>
       <c r="D147" s="142"/>
       <c r="E147" s="142"/>
       <c r="F147" s="142"/>
@@ -11385,15 +11490,15 @@
       <c r="Q147" s="15"/>
       <c r="R147" s="75"/>
       <c r="S147" s="75"/>
-      <c r="T147" s="153"/>
-    </row>
-    <row r="148" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T147" s="152"/>
+    </row>
+    <row r="148" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A148" s="84"/>
-      <c r="B148" s="163"/>
-      <c r="C148" s="167"/>
-      <c r="D148" s="154"/>
-      <c r="E148" s="154"/>
-      <c r="F148" s="154"/>
+      <c r="B148" s="162"/>
+      <c r="C148" s="166"/>
+      <c r="D148" s="153"/>
+      <c r="E148" s="153"/>
+      <c r="F148" s="153"/>
       <c r="G148" s="79"/>
       <c r="H148" s="79"/>
       <c r="I148" s="79"/>
@@ -11413,29 +11518,29 @@
       <c r="Q148" s="9"/>
       <c r="R148" s="79"/>
       <c r="S148" s="79"/>
-      <c r="T148" s="155"/>
-    </row>
-    <row r="149" spans="1:20" s="151" customFormat="1" ht="30">
-      <c r="A149" s="147">
+      <c r="T148" s="154"/>
+    </row>
+    <row r="149" spans="1:20" s="150" customFormat="1" ht="30">
+      <c r="A149" s="146">
         <v>25</v>
       </c>
-      <c r="B149" s="161" t="s">
+      <c r="B149" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="C149" s="165" t="s">
-        <v>218</v>
-      </c>
-      <c r="D149" s="149"/>
+      <c r="D149" s="148"/>
       <c r="E149" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="F149" s="149"/>
+      <c r="F149" s="148"/>
       <c r="G149" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H149" s="148"/>
-      <c r="I149" s="148"/>
-      <c r="J149" s="145">
+      <c r="H149" s="147"/>
+      <c r="I149" s="147"/>
+      <c r="J149" s="144">
         <v>44694</v>
       </c>
       <c r="K149" s="44" t="s">
@@ -11453,14 +11558,14 @@
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
-      <c r="R149" s="148"/>
-      <c r="S149" s="148"/>
-      <c r="T149" s="150"/>
-    </row>
-    <row r="150" spans="1:20" s="151" customFormat="1">
-      <c r="A150" s="152"/>
-      <c r="B150" s="162"/>
-      <c r="C150" s="166"/>
+      <c r="R149" s="147"/>
+      <c r="S149" s="147"/>
+      <c r="T149" s="149"/>
+    </row>
+    <row r="150" spans="1:20" s="150" customFormat="1">
+      <c r="A150" s="151"/>
+      <c r="B150" s="161"/>
+      <c r="C150" s="165"/>
       <c r="D150" s="142"/>
       <c r="E150" s="142"/>
       <c r="F150" s="142"/>
@@ -11483,12 +11588,12 @@
       <c r="Q150" s="15"/>
       <c r="R150" s="75"/>
       <c r="S150" s="75"/>
-      <c r="T150" s="153"/>
-    </row>
-    <row r="151" spans="1:20" s="151" customFormat="1">
-      <c r="A151" s="152"/>
-      <c r="B151" s="162"/>
-      <c r="C151" s="166"/>
+      <c r="T150" s="152"/>
+    </row>
+    <row r="151" spans="1:20" s="150" customFormat="1">
+      <c r="A151" s="151"/>
+      <c r="B151" s="161"/>
+      <c r="C151" s="165"/>
       <c r="D151" s="142"/>
       <c r="E151" s="142"/>
       <c r="F151" s="142"/>
@@ -11511,12 +11616,12 @@
       <c r="Q151" s="15"/>
       <c r="R151" s="75"/>
       <c r="S151" s="75"/>
-      <c r="T151" s="153"/>
-    </row>
-    <row r="152" spans="1:20" s="151" customFormat="1">
-      <c r="A152" s="152"/>
-      <c r="B152" s="162"/>
-      <c r="C152" s="166"/>
+      <c r="T151" s="152"/>
+    </row>
+    <row r="152" spans="1:20" s="150" customFormat="1">
+      <c r="A152" s="151"/>
+      <c r="B152" s="161"/>
+      <c r="C152" s="165"/>
       <c r="D152" s="142"/>
       <c r="E152" s="142"/>
       <c r="F152" s="142"/>
@@ -11539,12 +11644,12 @@
       <c r="Q152" s="15"/>
       <c r="R152" s="75"/>
       <c r="S152" s="75"/>
-      <c r="T152" s="153"/>
-    </row>
-    <row r="153" spans="1:20" s="151" customFormat="1">
-      <c r="A153" s="152"/>
-      <c r="B153" s="162"/>
-      <c r="C153" s="166"/>
+      <c r="T152" s="152"/>
+    </row>
+    <row r="153" spans="1:20" s="150" customFormat="1">
+      <c r="A153" s="151"/>
+      <c r="B153" s="161"/>
+      <c r="C153" s="165"/>
       <c r="D153" s="142"/>
       <c r="E153" s="142"/>
       <c r="F153" s="142"/>
@@ -11567,12 +11672,12 @@
       <c r="Q153" s="15"/>
       <c r="R153" s="75"/>
       <c r="S153" s="75"/>
-      <c r="T153" s="153"/>
-    </row>
-    <row r="154" spans="1:20" s="151" customFormat="1">
-      <c r="A154" s="152"/>
-      <c r="B154" s="162"/>
-      <c r="C154" s="166"/>
+      <c r="T153" s="152"/>
+    </row>
+    <row r="154" spans="1:20" s="150" customFormat="1">
+      <c r="A154" s="151"/>
+      <c r="B154" s="161"/>
+      <c r="C154" s="165"/>
       <c r="D154" s="142"/>
       <c r="E154" s="142"/>
       <c r="F154" s="142"/>
@@ -11595,15 +11700,15 @@
       <c r="Q154" s="15"/>
       <c r="R154" s="75"/>
       <c r="S154" s="75"/>
-      <c r="T154" s="153"/>
-    </row>
-    <row r="155" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T154" s="152"/>
+    </row>
+    <row r="155" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A155" s="84"/>
-      <c r="B155" s="163"/>
-      <c r="C155" s="167"/>
-      <c r="D155" s="154"/>
-      <c r="E155" s="154"/>
-      <c r="F155" s="154"/>
+      <c r="B155" s="162"/>
+      <c r="C155" s="166"/>
+      <c r="D155" s="153"/>
+      <c r="E155" s="153"/>
+      <c r="F155" s="153"/>
       <c r="G155" s="79"/>
       <c r="H155" s="79"/>
       <c r="I155" s="79"/>
@@ -11623,29 +11728,29 @@
       <c r="Q155" s="9"/>
       <c r="R155" s="79"/>
       <c r="S155" s="79"/>
-      <c r="T155" s="155"/>
-    </row>
-    <row r="156" spans="1:20" s="151" customFormat="1">
-      <c r="A156" s="147">
+      <c r="T155" s="154"/>
+    </row>
+    <row r="156" spans="1:20" s="150" customFormat="1">
+      <c r="A156" s="146">
         <v>26</v>
       </c>
-      <c r="B156" s="161" t="s">
+      <c r="B156" s="160" t="s">
+        <v>218</v>
+      </c>
+      <c r="C156" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="C156" s="165" t="s">
-        <v>220</v>
-      </c>
-      <c r="D156" s="149"/>
-      <c r="E156" s="165" t="s">
-        <v>226</v>
-      </c>
-      <c r="F156" s="149"/>
+      <c r="D156" s="148"/>
+      <c r="E156" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="F156" s="148"/>
       <c r="G156" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H156" s="148"/>
-      <c r="I156" s="148"/>
-      <c r="J156" s="145">
+      <c r="H156" s="147"/>
+      <c r="I156" s="147"/>
+      <c r="J156" s="144">
         <v>44694</v>
       </c>
       <c r="K156" s="44"/>
@@ -11655,14 +11760,14 @@
       <c r="O156" s="12"/>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
-      <c r="R156" s="148"/>
-      <c r="S156" s="148"/>
-      <c r="T156" s="150"/>
-    </row>
-    <row r="157" spans="1:20" s="151" customFormat="1">
-      <c r="A157" s="152"/>
-      <c r="B157" s="162"/>
-      <c r="C157" s="166"/>
+      <c r="R156" s="147"/>
+      <c r="S156" s="147"/>
+      <c r="T156" s="149"/>
+    </row>
+    <row r="157" spans="1:20" s="150" customFormat="1">
+      <c r="A157" s="151"/>
+      <c r="B157" s="161"/>
+      <c r="C157" s="165"/>
       <c r="D157" s="142"/>
       <c r="E157" s="142"/>
       <c r="F157" s="142"/>
@@ -11687,12 +11792,12 @@
       <c r="Q157" s="15"/>
       <c r="R157" s="75"/>
       <c r="S157" s="75"/>
-      <c r="T157" s="153"/>
-    </row>
-    <row r="158" spans="1:20" s="151" customFormat="1">
-      <c r="A158" s="152"/>
-      <c r="B158" s="162"/>
-      <c r="C158" s="166"/>
+      <c r="T157" s="152"/>
+    </row>
+    <row r="158" spans="1:20" s="150" customFormat="1">
+      <c r="A158" s="151"/>
+      <c r="B158" s="161"/>
+      <c r="C158" s="165"/>
       <c r="D158" s="142"/>
       <c r="E158" s="142"/>
       <c r="F158" s="142"/>
@@ -11715,12 +11820,12 @@
       <c r="Q158" s="15"/>
       <c r="R158" s="75"/>
       <c r="S158" s="75"/>
-      <c r="T158" s="153"/>
-    </row>
-    <row r="159" spans="1:20" s="151" customFormat="1">
-      <c r="A159" s="152"/>
-      <c r="B159" s="162"/>
-      <c r="C159" s="166"/>
+      <c r="T158" s="152"/>
+    </row>
+    <row r="159" spans="1:20" s="150" customFormat="1">
+      <c r="A159" s="151"/>
+      <c r="B159" s="161"/>
+      <c r="C159" s="165"/>
       <c r="D159" s="142"/>
       <c r="E159" s="142"/>
       <c r="F159" s="142"/>
@@ -11743,12 +11848,12 @@
       <c r="Q159" s="15"/>
       <c r="R159" s="75"/>
       <c r="S159" s="75"/>
-      <c r="T159" s="153"/>
-    </row>
-    <row r="160" spans="1:20" s="151" customFormat="1">
-      <c r="A160" s="152"/>
-      <c r="B160" s="162"/>
-      <c r="C160" s="166"/>
+      <c r="T159" s="152"/>
+    </row>
+    <row r="160" spans="1:20" s="150" customFormat="1">
+      <c r="A160" s="151"/>
+      <c r="B160" s="161"/>
+      <c r="C160" s="165"/>
       <c r="D160" s="142"/>
       <c r="E160" s="142"/>
       <c r="F160" s="142"/>
@@ -11771,15 +11876,15 @@
       <c r="Q160" s="15"/>
       <c r="R160" s="75"/>
       <c r="S160" s="75"/>
-      <c r="T160" s="153"/>
-    </row>
-    <row r="161" spans="1:20" s="151" customFormat="1">
-      <c r="A161" s="156"/>
-      <c r="B161" s="164"/>
-      <c r="C161" s="168"/>
-      <c r="D161" s="157"/>
-      <c r="E161" s="157"/>
-      <c r="F161" s="157"/>
+      <c r="T160" s="152"/>
+    </row>
+    <row r="161" spans="1:20" s="150" customFormat="1">
+      <c r="A161" s="155"/>
+      <c r="B161" s="163"/>
+      <c r="C161" s="167"/>
+      <c r="D161" s="156"/>
+      <c r="E161" s="156"/>
+      <c r="F161" s="156"/>
       <c r="G161" s="82"/>
       <c r="H161" s="82"/>
       <c r="I161" s="82"/>
@@ -11799,21 +11904,21 @@
       <c r="Q161" s="18"/>
       <c r="R161" s="82"/>
       <c r="S161" s="82"/>
-      <c r="T161" s="158"/>
-    </row>
-    <row r="162" spans="1:20" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T161" s="157"/>
+    </row>
+    <row r="162" spans="1:20" s="150" customFormat="1" ht="15.75" thickBot="1">
       <c r="A162" s="84"/>
-      <c r="B162" s="163"/>
-      <c r="C162" s="167"/>
-      <c r="D162" s="154"/>
-      <c r="E162" s="154"/>
-      <c r="F162" s="154"/>
+      <c r="B162" s="162"/>
+      <c r="C162" s="166"/>
+      <c r="D162" s="153"/>
+      <c r="E162" s="153"/>
+      <c r="F162" s="153"/>
       <c r="G162" s="79"/>
       <c r="H162" s="79"/>
       <c r="I162" s="79"/>
       <c r="J162" s="79"/>
       <c r="K162" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L162" s="7" t="s">
         <v>130</v>
@@ -11827,21 +11932,21 @@
       <c r="Q162" s="9"/>
       <c r="R162" s="79"/>
       <c r="S162" s="79"/>
-      <c r="T162" s="155"/>
-    </row>
-    <row r="163" spans="1:20" s="151" customFormat="1" ht="24" customHeight="1">
+      <c r="T162" s="154"/>
+    </row>
+    <row r="163" spans="1:20" s="150" customFormat="1" ht="24" customHeight="1">
       <c r="A163" s="87">
         <v>27</v>
       </c>
       <c r="B163" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C163" s="171" t="s">
         <v>222</v>
-      </c>
-      <c r="C163" s="172" t="s">
-        <v>223</v>
       </c>
       <c r="D163" s="100"/>
       <c r="E163" s="100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F163" s="100"/>
       <c r="G163" s="71" t="s">
@@ -11862,7 +11967,7 @@
         <v>30000</v>
       </c>
       <c r="N163" s="15"/>
-      <c r="O163" s="146">
+      <c r="O163" s="145">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P163" s="34"/>
@@ -11871,10 +11976,10 @@
       <c r="S163" s="75"/>
       <c r="T163" s="75"/>
     </row>
-    <row r="164" spans="1:20" s="151" customFormat="1">
+    <row r="164" spans="1:20" s="150" customFormat="1">
       <c r="A164" s="87"/>
       <c r="B164" s="14"/>
-      <c r="C164" s="172"/>
+      <c r="C164" s="171"/>
       <c r="D164" s="100"/>
       <c r="E164" s="100"/>
       <c r="F164" s="100"/>
@@ -11899,10 +12004,10 @@
       <c r="S164" s="75"/>
       <c r="T164" s="75"/>
     </row>
-    <row r="165" spans="1:20" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="165" spans="1:20" s="150" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A165" s="86"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="174"/>
+      <c r="C165" s="173"/>
       <c r="D165" s="102"/>
       <c r="E165" s="102"/>
       <c r="F165" s="102"/>
@@ -11928,18 +12033,18 @@
       <c r="T165" s="79"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.31496062992125984"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:AM140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E7"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11960,2958 +12065,3152 @@
     <col min="14" max="14" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="198" customFormat="1" ht="71.25">
-      <c r="A1" s="297" t="s">
+    <row r="1" spans="1:39" s="196" customFormat="1" ht="71.25">
+      <c r="A1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299" t="s">
+      <c r="B1" s="324" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="299" t="s">
+      <c r="C1" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="299" t="s">
+      <c r="D1" s="324" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="299" t="s">
+      <c r="E1" s="324" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="299" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="299" t="s">
+      <c r="F1" s="324" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="324" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="325" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="325"/>
+      <c r="J1" s="326" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="326" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="201"/>
-      <c r="J1" s="200" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="200" t="s">
-        <v>230</v>
-      </c>
-      <c r="L1" s="200" t="s">
+      <c r="L1" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="200" t="s">
+      <c r="M1" s="326" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="200" t="s">
+      <c r="N1" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-    </row>
-    <row r="2" spans="1:17" ht="15">
-      <c r="A2" s="298"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="199" t="s">
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+    </row>
+    <row r="2" spans="1:39" ht="15">
+      <c r="A2" s="327"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
       <c r="Q2" s="92"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="202" t="s">
+    <row r="3" spans="1:39" ht="18" customHeight="1">
+      <c r="A3" s="330" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="326" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
       <c r="Q3" s="92"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
-      <c r="A4" s="290">
+    <row r="4" spans="1:39" ht="15" customHeight="1">
+      <c r="A4" s="199">
         <v>1</v>
       </c>
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="292" t="s">
+      <c r="C4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="292" t="s">
+      <c r="D4" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="292"/>
-      <c r="F4" s="293" t="s">
+      <c r="E4" s="201"/>
+      <c r="F4" s="199" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="203" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="202">
+        <v>10</v>
+      </c>
+      <c r="L4" s="204"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="331"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+    </row>
+    <row r="5" spans="1:39" ht="15">
+      <c r="A5" s="207"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="211" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="211" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="211"/>
+      <c r="J5" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="213"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="206" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="272"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+    </row>
+    <row r="6" spans="1:39" ht="15">
+      <c r="A6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="212" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="213"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="272"/>
+      <c r="S6" s="272"/>
+      <c r="T6" s="272"/>
+      <c r="U6" s="272"/>
+      <c r="V6" s="272"/>
+      <c r="W6" s="272"/>
+      <c r="X6" s="272"/>
+      <c r="Y6" s="272"/>
+      <c r="Z6" s="272"/>
+      <c r="AA6" s="272"/>
+      <c r="AB6" s="272"/>
+      <c r="AC6" s="272"/>
+      <c r="AD6" s="272"/>
+      <c r="AE6" s="272"/>
+      <c r="AF6" s="272"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="272"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="272"/>
+      <c r="AK6" s="272"/>
+      <c r="AL6" s="272"/>
+      <c r="AM6" s="272"/>
+    </row>
+    <row r="7" spans="1:39" s="129" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="215"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="220" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="219">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="272"/>
+      <c r="T7" s="272"/>
+      <c r="U7" s="272"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="272"/>
+      <c r="X7" s="272"/>
+      <c r="Y7" s="272"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="272"/>
+      <c r="AF7" s="272"/>
+      <c r="AG7" s="272"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="272"/>
+      <c r="AJ7" s="272"/>
+      <c r="AK7" s="272"/>
+      <c r="AL7" s="272"/>
+      <c r="AM7" s="272"/>
+    </row>
+    <row r="8" spans="1:39" ht="30" customHeight="1">
+      <c r="A8" s="223">
+        <v>2</v>
+      </c>
+      <c r="B8" s="224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="225" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="225" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="238" t="s">
+      <c r="F8" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="227" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="227"/>
+      <c r="J8" s="203" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="202">
+        <v>100</v>
+      </c>
+      <c r="L8" s="204"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="272"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="272"/>
+      <c r="V8" s="272"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="272"/>
+      <c r="AC8" s="272"/>
+      <c r="AD8" s="272"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="272"/>
+      <c r="AJ8" s="272"/>
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="272"/>
+      <c r="AM8" s="272"/>
+    </row>
+    <row r="9" spans="1:39" ht="15">
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="213"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="272"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="272"/>
+      <c r="T9" s="272"/>
+      <c r="U9" s="272"/>
+      <c r="V9" s="272"/>
+      <c r="W9" s="272"/>
+      <c r="X9" s="272"/>
+      <c r="Y9" s="272"/>
+      <c r="Z9" s="272"/>
+      <c r="AA9" s="272"/>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="272"/>
+      <c r="AD9" s="272"/>
+      <c r="AE9" s="272"/>
+      <c r="AF9" s="272"/>
+      <c r="AG9" s="272"/>
+      <c r="AH9" s="272"/>
+      <c r="AI9" s="272"/>
+      <c r="AJ9" s="272"/>
+      <c r="AK9" s="272"/>
+      <c r="AL9" s="272"/>
+      <c r="AM9" s="272"/>
+    </row>
+    <row r="10" spans="1:39" ht="15">
+      <c r="A10" s="229"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="211">
+        <v>100</v>
+      </c>
+      <c r="L10" s="213"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="272"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="272"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="272"/>
+      <c r="U10" s="272"/>
+      <c r="V10" s="272"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="272"/>
+      <c r="Y10" s="272"/>
+      <c r="Z10" s="272"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="272"/>
+      <c r="AC10" s="272"/>
+      <c r="AD10" s="272"/>
+      <c r="AE10" s="272"/>
+      <c r="AF10" s="272"/>
+      <c r="AG10" s="272"/>
+      <c r="AH10" s="272"/>
+      <c r="AI10" s="272"/>
+      <c r="AJ10" s="272"/>
+      <c r="AK10" s="272"/>
+      <c r="AL10" s="272"/>
+      <c r="AM10" s="272"/>
+    </row>
+    <row r="11" spans="1:39" ht="15">
+      <c r="A11" s="229"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="211">
+        <v>100</v>
+      </c>
+      <c r="L11" s="213"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="272"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="272"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="272"/>
+      <c r="AJ11" s="272"/>
+      <c r="AK11" s="272"/>
+      <c r="AL11" s="272"/>
+      <c r="AM11" s="272"/>
+    </row>
+    <row r="12" spans="1:39" ht="15">
+      <c r="A12" s="229"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="211">
+        <v>100</v>
+      </c>
+      <c r="L12" s="213"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="206"/>
+    </row>
+    <row r="13" spans="1:39" ht="15">
+      <c r="A13" s="229"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="211">
+        <v>100</v>
+      </c>
+      <c r="L13" s="213"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="206"/>
+    </row>
+    <row r="14" spans="1:39" ht="15">
+      <c r="A14" s="229"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="239">
+      <c r="K14" s="231">
         <v>10</v>
       </c>
-      <c r="L4" s="212"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="277"/>
-    </row>
-    <row r="5" spans="1:17" ht="15">
-      <c r="A5" s="294"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="219" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="219" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="219"/>
-      <c r="J5" s="220" t="s">
+      <c r="L14" s="213"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="206"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A15" s="233"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="221"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="222"/>
+    </row>
+    <row r="16" spans="1:39" ht="15">
+      <c r="A16" s="223">
+        <v>3</v>
+      </c>
+      <c r="B16" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="225" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="225" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="239" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="235" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="227"/>
+      <c r="J16" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="237">
+        <v>100</v>
+      </c>
+      <c r="L16" s="204"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+    </row>
+    <row r="17" spans="1:15" ht="15">
+      <c r="A17" s="229"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="213"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15">
+      <c r="A18" s="229"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="211">
+        <v>10</v>
+      </c>
+      <c r="L18" s="213"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A19" s="233"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="231" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="238"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15">
+      <c r="A20" s="245">
+        <v>4</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="247" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="243" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="305" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="249" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="249" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="251">
+        <v>100</v>
+      </c>
+      <c r="L20" s="252"/>
+      <c r="M20" s="253" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="253"/>
+    </row>
+    <row r="21" spans="1:15" ht="15">
+      <c r="A21" s="254"/>
+      <c r="B21" s="255"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="258"/>
+      <c r="H21" s="258"/>
+      <c r="I21" s="258" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" s="259" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="260">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="261"/>
+      <c r="M21" s="262" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="262" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="254"/>
+      <c r="B22" s="255"/>
+      <c r="C22" s="256"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="306"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="263">
+        <v>100</v>
+      </c>
+      <c r="L22" s="261"/>
+      <c r="M22" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="262"/>
+    </row>
+    <row r="23" spans="1:15" ht="15">
+      <c r="A23" s="254"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="264" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="263">
+        <v>100</v>
+      </c>
+      <c r="L23" s="261"/>
+      <c r="M23" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="262"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24" s="254"/>
+      <c r="B24" s="255"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="264" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="263">
+        <v>100</v>
+      </c>
+      <c r="L24" s="261"/>
+      <c r="M24" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="262"/>
+    </row>
+    <row r="25" spans="1:15" ht="15">
+      <c r="A25" s="254"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="263"/>
+      <c r="I25" s="263"/>
+      <c r="J25" s="264" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="263">
+        <v>100</v>
+      </c>
+      <c r="L25" s="261"/>
+      <c r="M25" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="262"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A26" s="265"/>
+      <c r="B26" s="266"/>
+      <c r="C26" s="267"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="269"/>
+      <c r="H26" s="269"/>
+      <c r="I26" s="269"/>
+      <c r="J26" s="270" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="269" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="271"/>
+      <c r="M26" s="271" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="271"/>
+      <c r="O26" s="272"/>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" customHeight="1">
+      <c r="A27" s="223">
+        <v>5</v>
+      </c>
+      <c r="B27" s="274" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="275" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="225" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="243" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="308" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="237" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="237" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="237"/>
+      <c r="J27" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="237">
+        <v>100</v>
+      </c>
+      <c r="L27" s="204"/>
+      <c r="M27" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="278"/>
+      <c r="O27" s="273"/>
+    </row>
+    <row r="28" spans="1:15" ht="15">
+      <c r="A28" s="229"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="213"/>
+      <c r="M28" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15">
+      <c r="A29" s="229"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="276"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="211">
+        <v>100</v>
+      </c>
+      <c r="L29" s="213"/>
+      <c r="M29" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="214"/>
+    </row>
+    <row r="30" spans="1:15" ht="15">
+      <c r="A30" s="229"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="211">
+        <v>100</v>
+      </c>
+      <c r="L30" s="213"/>
+      <c r="M30" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="214"/>
+    </row>
+    <row r="31" spans="1:15" ht="15">
+      <c r="A31" s="229"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="211">
+        <v>100</v>
+      </c>
+      <c r="L31" s="213"/>
+      <c r="M31" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="214"/>
+    </row>
+    <row r="32" spans="1:15" ht="15">
+      <c r="A32" s="229"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="276"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="280" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="211">
+        <v>100</v>
+      </c>
+      <c r="L32" s="213"/>
+      <c r="M32" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="214"/>
+    </row>
+    <row r="33" spans="1:14" ht="15">
+      <c r="A33" s="229"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="276"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="281" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="282" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="213"/>
+      <c r="M33" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A34" s="233"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="277"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="221"/>
+      <c r="M34" s="221" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="221"/>
+    </row>
+    <row r="35" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A35" s="223">
+        <v>6</v>
+      </c>
+      <c r="B35" s="274" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="275" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="225"/>
+      <c r="F35" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="237" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="237" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="237"/>
+      <c r="J35" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="237">
+        <v>100</v>
+      </c>
+      <c r="L35" s="204"/>
+      <c r="M35" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N35" s="205"/>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="A36" s="229"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="197">
+        <v>44218</v>
+      </c>
+      <c r="I36" s="279"/>
+      <c r="J36" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="213"/>
+      <c r="M36" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
+      <c r="A37" s="229"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="276"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="209"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" s="211"/>
+      <c r="J37" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="211">
+        <v>100</v>
+      </c>
+      <c r="L37" s="213"/>
+      <c r="M37" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N37" s="214"/>
+    </row>
+    <row r="38" spans="1:14" ht="15">
+      <c r="A38" s="229"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="211">
+        <v>100</v>
+      </c>
+      <c r="L38" s="213"/>
+      <c r="M38" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" s="214"/>
+    </row>
+    <row r="39" spans="1:14" ht="15">
+      <c r="A39" s="229"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="276"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="211">
+        <v>100</v>
+      </c>
+      <c r="L39" s="213"/>
+      <c r="M39" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="214"/>
+    </row>
+    <row r="40" spans="1:14" ht="15">
+      <c r="A40" s="229"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="211">
+        <v>100</v>
+      </c>
+      <c r="L40" s="213"/>
+      <c r="M40" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="214"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A41" s="233"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="221"/>
+    </row>
+    <row r="42" spans="1:14" ht="15">
+      <c r="A42" s="223">
         <v>7</v>
       </c>
-      <c r="K5" s="219">
+      <c r="B42" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="225" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="225"/>
+      <c r="F42" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="283" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="283"/>
+      <c r="J42" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="237">
+        <v>100</v>
+      </c>
+      <c r="L42" s="204"/>
+      <c r="M42" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N42" s="205"/>
+    </row>
+    <row r="43" spans="1:14" ht="15">
+      <c r="A43" s="229"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="207"/>
+      <c r="G43" s="279"/>
+      <c r="H43" s="197">
+        <v>44218</v>
+      </c>
+      <c r="I43" s="211"/>
+      <c r="J43" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="211">
         <v>1000</v>
       </c>
-      <c r="L5" s="221"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="277" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15">
-      <c r="A6" s="294"/>
-      <c r="B6" s="236"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219" t="s">
+      <c r="L43" s="213"/>
+      <c r="M43" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15">
+      <c r="A44" s="229"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="209"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="211"/>
+      <c r="J44" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="211">
+        <v>100</v>
+      </c>
+      <c r="L44" s="213"/>
+      <c r="M44" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="214"/>
+    </row>
+    <row r="45" spans="1:14" ht="15">
+      <c r="A45" s="229"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="209"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="211">
+        <v>100</v>
+      </c>
+      <c r="L45" s="213"/>
+      <c r="M45" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="214"/>
+    </row>
+    <row r="46" spans="1:14" ht="15">
+      <c r="A46" s="229"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="211"/>
+      <c r="H46" s="211"/>
+      <c r="I46" s="211"/>
+      <c r="J46" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="211">
+        <v>100</v>
+      </c>
+      <c r="L46" s="213"/>
+      <c r="M46" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="214"/>
+    </row>
+    <row r="47" spans="1:14" ht="15">
+      <c r="A47" s="229"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="209"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="211"/>
+      <c r="J47" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="211">
+        <v>100</v>
+      </c>
+      <c r="L47" s="213"/>
+      <c r="M47" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="214"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A48" s="233"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="215"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="212" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="211" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="221"/>
+      <c r="M48" s="221" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="221"/>
+    </row>
+    <row r="49" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A49" s="223">
+        <v>8</v>
+      </c>
+      <c r="B49" s="274" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="275" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="225"/>
+      <c r="F49" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="237" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="237" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="237"/>
+      <c r="J49" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="237">
+        <v>100</v>
+      </c>
+      <c r="L49" s="204"/>
+      <c r="M49" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N49" s="205"/>
+    </row>
+    <row r="50" spans="1:14" ht="15">
+      <c r="A50" s="229"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="276"/>
+      <c r="D50" s="209"/>
+      <c r="E50" s="209"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="279"/>
+      <c r="H50" s="197">
+        <v>44218</v>
+      </c>
+      <c r="I50" s="279"/>
+      <c r="J50" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="213"/>
+      <c r="M50" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15">
+      <c r="A51" s="229"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="276"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="211"/>
+      <c r="H51" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="211"/>
+      <c r="J51" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="211">
+        <v>100</v>
+      </c>
+      <c r="L51" s="213"/>
+      <c r="M51" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N51" s="214"/>
+    </row>
+    <row r="52" spans="1:14" ht="15">
+      <c r="A52" s="229"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="276"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="211"/>
+      <c r="J52" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="211">
+        <v>100</v>
+      </c>
+      <c r="L52" s="213"/>
+      <c r="M52" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" s="214"/>
+    </row>
+    <row r="53" spans="1:14" ht="15">
+      <c r="A53" s="229"/>
+      <c r="B53" s="208"/>
+      <c r="C53" s="276"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="211"/>
+      <c r="J53" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="211">
+        <v>100</v>
+      </c>
+      <c r="L53" s="213"/>
+      <c r="M53" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="214"/>
+    </row>
+    <row r="54" spans="1:14" ht="15">
+      <c r="A54" s="229"/>
+      <c r="B54" s="208"/>
+      <c r="C54" s="276"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="211"/>
+      <c r="H54" s="211"/>
+      <c r="I54" s="211"/>
+      <c r="J54" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="211">
+        <v>100</v>
+      </c>
+      <c r="L54" s="213"/>
+      <c r="M54" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" s="214"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A55" s="233"/>
+      <c r="B55" s="216"/>
+      <c r="C55" s="277"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="219"/>
+      <c r="H55" s="219"/>
+      <c r="I55" s="219"/>
+      <c r="J55" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="221"/>
+      <c r="M55" s="221" t="s">
+        <v>116</v>
+      </c>
+      <c r="N55" s="221"/>
+    </row>
+    <row r="56" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A56" s="223">
+        <v>9</v>
+      </c>
+      <c r="B56" s="274" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="275" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="225"/>
+      <c r="F56" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" s="237" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="237" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="237"/>
+      <c r="J56" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="237">
+        <v>100</v>
+      </c>
+      <c r="L56" s="204"/>
+      <c r="M56" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N56" s="205"/>
+    </row>
+    <row r="57" spans="1:14" ht="15">
+      <c r="A57" s="229"/>
+      <c r="B57" s="208"/>
+      <c r="C57" s="276"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="209"/>
+      <c r="F57" s="207"/>
+      <c r="G57" s="279"/>
+      <c r="H57" s="197">
+        <v>44219</v>
+      </c>
+      <c r="I57" s="279"/>
+      <c r="J57" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="213"/>
+      <c r="M57" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15">
+      <c r="A58" s="229"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="276"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="209"/>
+      <c r="F58" s="207"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I58" s="211"/>
+      <c r="J58" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="211">
+        <v>100</v>
+      </c>
+      <c r="L58" s="213"/>
+      <c r="M58" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="214"/>
+    </row>
+    <row r="59" spans="1:14" ht="15">
+      <c r="A59" s="229"/>
+      <c r="B59" s="208"/>
+      <c r="C59" s="276"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="209"/>
+      <c r="F59" s="207"/>
+      <c r="G59" s="211"/>
+      <c r="H59" s="211"/>
+      <c r="I59" s="211"/>
+      <c r="J59" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="211">
+        <v>100</v>
+      </c>
+      <c r="L59" s="213"/>
+      <c r="M59" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="214"/>
+    </row>
+    <row r="60" spans="1:14" ht="15">
+      <c r="A60" s="229"/>
+      <c r="B60" s="208"/>
+      <c r="C60" s="276"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="209"/>
+      <c r="F60" s="207"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="211"/>
+      <c r="I60" s="211"/>
+      <c r="J60" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="211">
+        <v>100</v>
+      </c>
+      <c r="L60" s="213"/>
+      <c r="M60" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="214"/>
+    </row>
+    <row r="61" spans="1:14" ht="15">
+      <c r="A61" s="229"/>
+      <c r="B61" s="208"/>
+      <c r="C61" s="276"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="211"/>
+      <c r="I61" s="211"/>
+      <c r="J61" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="211">
+        <v>100</v>
+      </c>
+      <c r="L61" s="213"/>
+      <c r="M61" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N61" s="214"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A62" s="233"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="277"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="217"/>
+      <c r="F62" s="215"/>
+      <c r="G62" s="219"/>
+      <c r="H62" s="219"/>
+      <c r="I62" s="219"/>
+      <c r="J62" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="221"/>
+      <c r="M62" s="221" t="s">
+        <v>116</v>
+      </c>
+      <c r="N62" s="221"/>
+    </row>
+    <row r="63" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A63" s="284">
+        <v>10</v>
+      </c>
+      <c r="B63" s="226" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="225" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="225" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="225"/>
+      <c r="F63" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G63" s="283" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="283" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="283"/>
+      <c r="J63" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="237">
+        <v>1000</v>
+      </c>
+      <c r="L63" s="204"/>
+      <c r="M63" s="205"/>
+      <c r="N63" s="205"/>
+    </row>
+    <row r="64" spans="1:14" ht="15">
+      <c r="A64" s="285"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="207"/>
+      <c r="G64" s="279"/>
+      <c r="H64" s="279"/>
+      <c r="I64" s="279" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="220" t="s">
+      <c r="J64" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="219">
+      <c r="K64" s="211">
         <v>1000</v>
       </c>
-      <c r="L6" s="221"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="277"/>
-    </row>
-    <row r="7" spans="1:17" s="129" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="295"/>
-      <c r="B7" s="241"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="258" t="s">
+      <c r="L64" s="213"/>
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A65" s="286"/>
+      <c r="B65" s="218"/>
+      <c r="C65" s="217"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="217"/>
+      <c r="F65" s="215"/>
+      <c r="G65" s="287"/>
+      <c r="H65" s="287"/>
+      <c r="I65" s="287"/>
+      <c r="J65" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="257">
+      <c r="K65" s="219">
         <v>1000</v>
       </c>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="283"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="203">
-        <v>2</v>
-      </c>
-      <c r="B8" s="204" t="s">
+      <c r="L65" s="221"/>
+      <c r="M65" s="221"/>
+      <c r="N65" s="221"/>
+    </row>
+    <row r="66" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A66" s="223">
         <v>11</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="B66" s="274" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="275" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="225"/>
+      <c r="F66" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66" s="283">
+        <v>43772</v>
+      </c>
+      <c r="H66" s="283">
+        <v>44503</v>
+      </c>
+      <c r="I66" s="283"/>
+      <c r="J66" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="237">
+        <v>100</v>
+      </c>
+      <c r="L66" s="204"/>
+      <c r="M66" s="205"/>
+      <c r="N66" s="205"/>
+    </row>
+    <row r="67" spans="1:14" ht="15">
+      <c r="A67" s="229"/>
+      <c r="B67" s="208"/>
+      <c r="C67" s="276"/>
+      <c r="D67" s="209"/>
+      <c r="E67" s="209"/>
+      <c r="F67" s="207"/>
+      <c r="G67" s="279"/>
+      <c r="H67" s="279"/>
+      <c r="I67" s="279" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L67" s="213"/>
+      <c r="M67" s="214"/>
+      <c r="N67" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15">
+      <c r="A68" s="229"/>
+      <c r="B68" s="208"/>
+      <c r="C68" s="276"/>
+      <c r="D68" s="209"/>
+      <c r="E68" s="209"/>
+      <c r="F68" s="207"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="211"/>
+      <c r="J68" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="211">
+        <v>100</v>
+      </c>
+      <c r="L68" s="213"/>
+      <c r="M68" s="214"/>
+      <c r="N68" s="214"/>
+    </row>
+    <row r="69" spans="1:14" ht="15">
+      <c r="A69" s="229"/>
+      <c r="B69" s="208"/>
+      <c r="C69" s="276"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="209"/>
+      <c r="F69" s="207"/>
+      <c r="G69" s="211"/>
+      <c r="H69" s="211"/>
+      <c r="I69" s="211"/>
+      <c r="J69" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="211">
+        <v>100</v>
+      </c>
+      <c r="L69" s="213"/>
+      <c r="M69" s="214"/>
+      <c r="N69" s="214"/>
+    </row>
+    <row r="70" spans="1:14" ht="15">
+      <c r="A70" s="229"/>
+      <c r="B70" s="208"/>
+      <c r="C70" s="276"/>
+      <c r="D70" s="209"/>
+      <c r="E70" s="209"/>
+      <c r="F70" s="207"/>
+      <c r="G70" s="211"/>
+      <c r="H70" s="211"/>
+      <c r="I70" s="211"/>
+      <c r="J70" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="211">
+        <v>100</v>
+      </c>
+      <c r="L70" s="213"/>
+      <c r="M70" s="214"/>
+      <c r="N70" s="214"/>
+    </row>
+    <row r="71" spans="1:14" ht="15">
+      <c r="A71" s="229"/>
+      <c r="B71" s="208"/>
+      <c r="C71" s="276"/>
+      <c r="D71" s="209"/>
+      <c r="E71" s="209"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="211"/>
+      <c r="H71" s="211"/>
+      <c r="I71" s="211"/>
+      <c r="J71" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="211">
+        <v>100</v>
+      </c>
+      <c r="L71" s="213"/>
+      <c r="M71" s="214"/>
+      <c r="N71" s="214"/>
+    </row>
+    <row r="72" spans="1:14" ht="15">
+      <c r="A72" s="229"/>
+      <c r="B72" s="208"/>
+      <c r="C72" s="276"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="209"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="211"/>
+      <c r="H72" s="211"/>
+      <c r="I72" s="211"/>
+      <c r="J72" s="212" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L72" s="213"/>
+      <c r="M72" s="214"/>
+      <c r="N72" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15">
+      <c r="A73" s="229"/>
+      <c r="B73" s="208"/>
+      <c r="C73" s="276"/>
+      <c r="D73" s="209"/>
+      <c r="E73" s="209"/>
+      <c r="F73" s="207"/>
+      <c r="G73" s="211"/>
+      <c r="H73" s="211"/>
+      <c r="I73" s="211"/>
+      <c r="J73" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L73" s="213"/>
+      <c r="M73" s="214"/>
+      <c r="N73" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A74" s="233"/>
+      <c r="B74" s="216"/>
+      <c r="C74" s="277"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="217"/>
+      <c r="F74" s="215"/>
+      <c r="G74" s="219"/>
+      <c r="H74" s="219"/>
+      <c r="I74" s="219"/>
+      <c r="J74" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="238"/>
+      <c r="M74" s="221"/>
+      <c r="N74" s="221"/>
+    </row>
+    <row r="75" spans="1:14" ht="15">
+      <c r="A75" s="223">
         <v>12</v>
       </c>
-      <c r="D8" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="207" t="s">
+      <c r="B75" s="274" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="275" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="225"/>
+      <c r="F75" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G75" s="237" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="237" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="237"/>
+      <c r="J75" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="237">
+        <v>100</v>
+      </c>
+      <c r="L75" s="204"/>
+      <c r="M75" s="204" t="s">
+        <v>116</v>
+      </c>
+      <c r="N75" s="205"/>
+    </row>
+    <row r="76" spans="1:14" ht="15">
+      <c r="A76" s="229"/>
+      <c r="B76" s="208"/>
+      <c r="C76" s="276"/>
+      <c r="D76" s="209"/>
+      <c r="E76" s="209"/>
+      <c r="F76" s="207"/>
+      <c r="G76" s="279"/>
+      <c r="H76" s="197">
+        <v>44218</v>
+      </c>
+      <c r="I76" s="279"/>
+      <c r="J76" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L76" s="213"/>
+      <c r="M76" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N76" s="214"/>
+    </row>
+    <row r="77" spans="1:14" ht="15">
+      <c r="A77" s="229"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="276"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="211"/>
+      <c r="H77" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I77" s="211"/>
+      <c r="J77" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="211">
+        <v>100</v>
+      </c>
+      <c r="L77" s="213"/>
+      <c r="M77" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N77" s="214"/>
+    </row>
+    <row r="78" spans="1:14" ht="15">
+      <c r="A78" s="229"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="276"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="207"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="211">
+        <v>100</v>
+      </c>
+      <c r="L78" s="213"/>
+      <c r="M78" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N78" s="214"/>
+    </row>
+    <row r="79" spans="1:14" ht="15">
+      <c r="A79" s="229"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="276"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="207"/>
+      <c r="G79" s="211"/>
+      <c r="H79" s="211"/>
+      <c r="I79" s="211"/>
+      <c r="J79" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="211">
+        <v>100</v>
+      </c>
+      <c r="L79" s="213"/>
+      <c r="M79" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N79" s="214"/>
+    </row>
+    <row r="80" spans="1:14" ht="15">
+      <c r="A80" s="229"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="276"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="207"/>
+      <c r="G80" s="211"/>
+      <c r="H80" s="211"/>
+      <c r="I80" s="211"/>
+      <c r="J80" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="211">
+        <v>100</v>
+      </c>
+      <c r="L80" s="213"/>
+      <c r="M80" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N80" s="214"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A81" s="233"/>
+      <c r="B81" s="216"/>
+      <c r="C81" s="277"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="217"/>
+      <c r="F81" s="215"/>
+      <c r="G81" s="231"/>
+      <c r="H81" s="231"/>
+      <c r="I81" s="231"/>
+      <c r="J81" s="232" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="231" t="s">
+        <v>130</v>
+      </c>
+      <c r="L81" s="221"/>
+      <c r="M81" s="221" t="s">
+        <v>116</v>
+      </c>
+      <c r="N81" s="221"/>
+    </row>
+    <row r="82" spans="1:14" ht="15">
+      <c r="A82" s="223">
+        <v>13</v>
+      </c>
+      <c r="B82" s="274" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="275" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="275" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="225"/>
+      <c r="F82" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G82" s="283" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="283" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" s="283"/>
+      <c r="J82" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="237">
+        <v>100</v>
+      </c>
+      <c r="L82" s="204"/>
+      <c r="M82" s="205" t="s">
+        <v>116</v>
+      </c>
+      <c r="N82" s="205"/>
+    </row>
+    <row r="83" spans="1:14" ht="15">
+      <c r="A83" s="229"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="276"/>
+      <c r="D83" s="276"/>
+      <c r="E83" s="209"/>
+      <c r="F83" s="207"/>
+      <c r="G83" s="279"/>
+      <c r="H83" s="197">
+        <v>44219</v>
+      </c>
+      <c r="I83" s="211"/>
+      <c r="J83" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="213"/>
+      <c r="M83" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N83" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15">
+      <c r="A84" s="229"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="276"/>
+      <c r="D84" s="276"/>
+      <c r="E84" s="209"/>
+      <c r="F84" s="207"/>
+      <c r="G84" s="211"/>
+      <c r="H84" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I84" s="211"/>
+      <c r="J84" s="212" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="211">
+        <v>10</v>
+      </c>
+      <c r="L84" s="213"/>
+      <c r="M84" s="214" t="s">
+        <v>116</v>
+      </c>
+      <c r="N84" s="214"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A85" s="233"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="277"/>
+      <c r="D85" s="277"/>
+      <c r="E85" s="217"/>
+      <c r="F85" s="215"/>
+      <c r="G85" s="219"/>
+      <c r="H85" s="219"/>
+      <c r="I85" s="219"/>
+      <c r="J85" s="220" t="s">
+        <v>200</v>
+      </c>
+      <c r="K85" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="221"/>
+      <c r="M85" s="221"/>
+      <c r="N85" s="221"/>
+    </row>
+    <row r="86" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A86" s="223">
+        <v>14</v>
+      </c>
+      <c r="B86" s="274" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="225" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="225"/>
+      <c r="F86" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G86" s="227">
+        <v>43743</v>
+      </c>
+      <c r="H86" s="227">
+        <v>44474</v>
+      </c>
+      <c r="I86" s="227"/>
+      <c r="J86" s="203" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" s="202">
+        <v>100</v>
+      </c>
+      <c r="L86" s="204"/>
+      <c r="M86" s="205"/>
+      <c r="N86" s="205"/>
+    </row>
+    <row r="87" spans="1:14" ht="15">
+      <c r="A87" s="229"/>
+      <c r="B87" s="208"/>
+      <c r="C87" s="209"/>
+      <c r="D87" s="209"/>
+      <c r="E87" s="209"/>
+      <c r="F87" s="207"/>
+      <c r="G87" s="202"/>
+      <c r="H87" s="202"/>
+      <c r="I87" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="J87" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="202">
+        <v>1000</v>
+      </c>
+      <c r="L87" s="213"/>
+      <c r="M87" s="214"/>
+      <c r="N87" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15">
+      <c r="A88" s="229"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="209"/>
+      <c r="D88" s="209"/>
+      <c r="E88" s="209"/>
+      <c r="F88" s="207"/>
+      <c r="G88" s="211"/>
+      <c r="H88" s="211"/>
+      <c r="I88" s="211"/>
+      <c r="J88" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="211">
+        <v>100</v>
+      </c>
+      <c r="L88" s="213"/>
+      <c r="M88" s="214"/>
+      <c r="N88" s="214"/>
+    </row>
+    <row r="89" spans="1:14" ht="15">
+      <c r="A89" s="229"/>
+      <c r="B89" s="208"/>
+      <c r="C89" s="209"/>
+      <c r="D89" s="209"/>
+      <c r="E89" s="209"/>
+      <c r="F89" s="207"/>
+      <c r="G89" s="211"/>
+      <c r="H89" s="211"/>
+      <c r="I89" s="211"/>
+      <c r="J89" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="211">
+        <v>100</v>
+      </c>
+      <c r="L89" s="213"/>
+      <c r="M89" s="214"/>
+      <c r="N89" s="214"/>
+    </row>
+    <row r="90" spans="1:14" ht="15">
+      <c r="A90" s="229"/>
+      <c r="B90" s="208"/>
+      <c r="C90" s="209"/>
+      <c r="D90" s="209"/>
+      <c r="E90" s="209"/>
+      <c r="F90" s="207"/>
+      <c r="G90" s="211"/>
+      <c r="H90" s="211"/>
+      <c r="I90" s="211"/>
+      <c r="J90" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="211">
+        <v>100</v>
+      </c>
+      <c r="L90" s="213"/>
+      <c r="M90" s="214"/>
+      <c r="N90" s="214"/>
+    </row>
+    <row r="91" spans="1:14" ht="15">
+      <c r="A91" s="229"/>
+      <c r="B91" s="208"/>
+      <c r="C91" s="209"/>
+      <c r="D91" s="209"/>
+      <c r="E91" s="209"/>
+      <c r="F91" s="207"/>
+      <c r="G91" s="211"/>
+      <c r="H91" s="211"/>
+      <c r="I91" s="211"/>
+      <c r="J91" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="211">
+        <v>100</v>
+      </c>
+      <c r="L91" s="213"/>
+      <c r="M91" s="214"/>
+      <c r="N91" s="214"/>
+    </row>
+    <row r="92" spans="1:14" ht="15">
+      <c r="A92" s="229"/>
+      <c r="B92" s="208"/>
+      <c r="C92" s="209"/>
+      <c r="D92" s="209"/>
+      <c r="E92" s="209"/>
+      <c r="F92" s="207"/>
+      <c r="G92" s="231"/>
+      <c r="H92" s="231"/>
+      <c r="I92" s="231"/>
+      <c r="J92" s="232" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" s="231">
+        <v>50</v>
+      </c>
+      <c r="L92" s="213"/>
+      <c r="M92" s="214"/>
+      <c r="N92" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15">
+      <c r="A93" s="229"/>
+      <c r="B93" s="208"/>
+      <c r="C93" s="209"/>
+      <c r="D93" s="209"/>
+      <c r="E93" s="209"/>
+      <c r="F93" s="207"/>
+      <c r="G93" s="231"/>
+      <c r="H93" s="231"/>
+      <c r="I93" s="231"/>
+      <c r="J93" s="232" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93" s="231" t="s">
+        <v>149</v>
+      </c>
+      <c r="L93" s="213"/>
+      <c r="M93" s="214"/>
+      <c r="N93" s="214"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A94" s="233"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="217"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="217"/>
+      <c r="F94" s="215"/>
+      <c r="G94" s="219"/>
+      <c r="H94" s="219"/>
+      <c r="I94" s="219"/>
+      <c r="J94" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L94" s="221"/>
+      <c r="M94" s="221"/>
+      <c r="N94" s="221"/>
+    </row>
+    <row r="95" spans="1:14" ht="15">
+      <c r="A95" s="223">
+        <v>15</v>
+      </c>
+      <c r="B95" s="274" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="275" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="275" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="225"/>
+      <c r="F95" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95" s="283" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="283" t="s">
+        <v>154</v>
+      </c>
+      <c r="I95" s="283"/>
+      <c r="J95" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K95" s="237">
+        <v>100</v>
+      </c>
+      <c r="L95" s="204"/>
+      <c r="M95" s="205"/>
+      <c r="N95" s="205"/>
+    </row>
+    <row r="96" spans="1:14" ht="15">
+      <c r="A96" s="229"/>
+      <c r="B96" s="208"/>
+      <c r="C96" s="276"/>
+      <c r="D96" s="276"/>
+      <c r="E96" s="209"/>
+      <c r="F96" s="207"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="211"/>
+      <c r="I96" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J96" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L96" s="213"/>
+      <c r="M96" s="214"/>
+      <c r="N96" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15">
+      <c r="A97" s="229"/>
+      <c r="B97" s="208"/>
+      <c r="C97" s="276"/>
+      <c r="D97" s="276"/>
+      <c r="E97" s="209"/>
+      <c r="F97" s="207"/>
+      <c r="G97" s="231"/>
+      <c r="H97" s="231"/>
+      <c r="I97" s="231"/>
+      <c r="J97" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="231">
+        <v>1000</v>
+      </c>
+      <c r="L97" s="213"/>
+      <c r="M97" s="214"/>
+      <c r="N97" s="214"/>
+    </row>
+    <row r="98" spans="1:14" ht="15">
+      <c r="A98" s="229"/>
+      <c r="B98" s="208"/>
+      <c r="C98" s="276"/>
+      <c r="D98" s="276"/>
+      <c r="E98" s="209"/>
+      <c r="F98" s="207"/>
+      <c r="G98" s="231"/>
+      <c r="H98" s="231"/>
+      <c r="I98" s="231"/>
+      <c r="J98" s="232" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" s="231">
+        <v>1000</v>
+      </c>
+      <c r="L98" s="213"/>
+      <c r="M98" s="214"/>
+      <c r="N98" s="214"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A99" s="233"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="277"/>
+      <c r="D99" s="277"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="215"/>
+      <c r="G99" s="231"/>
+      <c r="H99" s="231"/>
+      <c r="I99" s="231"/>
+      <c r="J99" s="232" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="231">
+        <v>1000</v>
+      </c>
+      <c r="L99" s="288"/>
+      <c r="M99" s="289"/>
+      <c r="N99" s="289"/>
+    </row>
+    <row r="100" spans="1:14" ht="46.5" customHeight="1">
+      <c r="A100" s="223">
+        <v>16</v>
+      </c>
+      <c r="B100" s="274" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="225" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="225" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="225"/>
+      <c r="F100" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="290" t="s">
+        <v>181</v>
+      </c>
+      <c r="H100" s="290" t="s">
+        <v>182</v>
+      </c>
+      <c r="I100" s="290"/>
+      <c r="J100" s="293" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="296">
+        <v>1000</v>
+      </c>
+      <c r="L100" s="297"/>
+      <c r="M100" s="296" t="s">
+        <v>116</v>
+      </c>
+      <c r="N100" s="297"/>
+    </row>
+    <row r="101" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A101" s="229"/>
+      <c r="B101" s="208"/>
+      <c r="C101" s="209"/>
+      <c r="D101" s="209"/>
+      <c r="E101" s="209"/>
+      <c r="F101" s="207"/>
+      <c r="G101" s="291"/>
+      <c r="H101" s="291">
+        <v>44221</v>
+      </c>
+      <c r="I101" s="291"/>
+      <c r="J101" s="294"/>
+      <c r="K101" s="207"/>
+      <c r="L101" s="298"/>
+      <c r="M101" s="207"/>
+      <c r="N101" s="298"/>
+    </row>
+    <row r="102" spans="1:14" ht="30" customHeight="1" thickBot="1">
+      <c r="A102" s="233"/>
+      <c r="B102" s="216"/>
+      <c r="C102" s="217"/>
+      <c r="D102" s="217"/>
+      <c r="E102" s="217"/>
+      <c r="F102" s="215"/>
+      <c r="G102" s="292"/>
+      <c r="H102" s="292" t="s">
+        <v>202</v>
+      </c>
+      <c r="I102" s="292"/>
+      <c r="J102" s="295"/>
+      <c r="K102" s="215"/>
+      <c r="L102" s="299"/>
+      <c r="M102" s="215"/>
+      <c r="N102" s="299"/>
+    </row>
+    <row r="103" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A103" s="284">
+        <v>17</v>
+      </c>
+      <c r="B103" s="274" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="225" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="225" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="225"/>
+      <c r="F103" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G103" s="227" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" s="227" t="s">
+        <v>139</v>
+      </c>
+      <c r="I103" s="227"/>
+      <c r="J103" s="203"/>
+      <c r="K103" s="202"/>
+      <c r="L103" s="204"/>
+      <c r="M103" s="205"/>
+      <c r="N103" s="228"/>
+    </row>
+    <row r="104" spans="1:14" ht="15">
+      <c r="A104" s="285"/>
+      <c r="B104" s="208"/>
+      <c r="C104" s="209"/>
+      <c r="D104" s="209"/>
+      <c r="E104" s="209"/>
+      <c r="F104" s="207"/>
+      <c r="G104" s="211"/>
+      <c r="H104" s="211"/>
+      <c r="I104" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J104" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L104" s="213"/>
+      <c r="M104" s="214"/>
+      <c r="N104" s="206"/>
+    </row>
+    <row r="105" spans="1:14" ht="15">
+      <c r="A105" s="285"/>
+      <c r="B105" s="208"/>
+      <c r="C105" s="209"/>
+      <c r="D105" s="209"/>
+      <c r="E105" s="209"/>
+      <c r="F105" s="207"/>
+      <c r="G105" s="211"/>
+      <c r="H105" s="211"/>
+      <c r="I105" s="211"/>
+      <c r="J105" s="212" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L105" s="213"/>
+      <c r="M105" s="214"/>
+      <c r="N105" s="206"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A106" s="286"/>
+      <c r="B106" s="216"/>
+      <c r="C106" s="217"/>
+      <c r="D106" s="217"/>
+      <c r="E106" s="217"/>
+      <c r="F106" s="215"/>
+      <c r="G106" s="219"/>
+      <c r="H106" s="219"/>
+      <c r="I106" s="219"/>
+      <c r="J106" s="220" t="s">
+        <v>71</v>
+      </c>
+      <c r="K106" s="219">
+        <v>1000</v>
+      </c>
+      <c r="L106" s="221"/>
+      <c r="M106" s="221"/>
+      <c r="N106" s="222"/>
+    </row>
+    <row r="107" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A107" s="223">
+        <v>18</v>
+      </c>
+      <c r="B107" s="226" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="225" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="300"/>
+      <c r="F107" s="207" t="s">
+        <v>230</v>
+      </c>
+      <c r="G107" s="303">
+        <v>43806</v>
+      </c>
+      <c r="H107" s="303">
+        <v>44537</v>
+      </c>
+      <c r="I107" s="303"/>
+      <c r="J107" s="203" t="s">
+        <v>66</v>
+      </c>
+      <c r="K107" s="203">
+        <v>250</v>
+      </c>
+      <c r="L107" s="204"/>
+      <c r="M107" s="205"/>
+      <c r="N107" s="205" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15">
+      <c r="A108" s="229"/>
+      <c r="B108" s="210"/>
+      <c r="C108" s="209"/>
+      <c r="D108" s="209"/>
+      <c r="E108" s="301"/>
+      <c r="F108" s="207"/>
+      <c r="G108" s="211"/>
+      <c r="H108" s="197">
+        <v>44694</v>
+      </c>
+      <c r="I108" s="211"/>
+      <c r="J108" s="212"/>
+      <c r="K108" s="211"/>
+      <c r="L108" s="213"/>
+      <c r="M108" s="214"/>
+      <c r="N108" s="214"/>
+    </row>
+    <row r="109" spans="1:14" ht="15">
+      <c r="A109" s="229"/>
+      <c r="B109" s="210"/>
+      <c r="C109" s="209"/>
+      <c r="D109" s="209"/>
+      <c r="E109" s="301"/>
+      <c r="F109" s="207"/>
+      <c r="G109" s="211"/>
+      <c r="H109" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="I109" s="211"/>
+      <c r="J109" s="212"/>
+      <c r="K109" s="211"/>
+      <c r="L109" s="213"/>
+      <c r="M109" s="214"/>
+      <c r="N109" s="214"/>
+    </row>
+    <row r="110" spans="1:14" ht="15">
+      <c r="A110" s="229"/>
+      <c r="B110" s="210"/>
+      <c r="C110" s="209"/>
+      <c r="D110" s="209"/>
+      <c r="E110" s="301"/>
+      <c r="F110" s="207"/>
+      <c r="G110" s="211"/>
+      <c r="H110" s="211"/>
+      <c r="I110" s="211"/>
+      <c r="J110" s="212"/>
+      <c r="K110" s="211"/>
+      <c r="L110" s="213"/>
+      <c r="M110" s="214"/>
+      <c r="N110" s="214"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A111" s="233"/>
+      <c r="B111" s="218"/>
+      <c r="C111" s="217"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="302"/>
+      <c r="F111" s="215"/>
+      <c r="G111" s="219"/>
+      <c r="H111" s="219"/>
+      <c r="I111" s="219"/>
+      <c r="J111" s="220"/>
+      <c r="K111" s="219"/>
+      <c r="L111" s="221"/>
+      <c r="M111" s="221"/>
+      <c r="N111" s="221"/>
+    </row>
+    <row r="112" spans="1:14" ht="15" customHeight="1">
+      <c r="A112" s="309">
+        <v>19</v>
+      </c>
+      <c r="B112" s="310" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="311" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="311" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="312"/>
+      <c r="F112" s="309" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" s="283" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" s="283" t="s">
+        <v>144</v>
+      </c>
+      <c r="I112" s="283"/>
+      <c r="J112" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="237">
+        <v>100</v>
+      </c>
+      <c r="L112" s="313"/>
+      <c r="M112" s="313"/>
+      <c r="N112" s="313"/>
+    </row>
+    <row r="113" spans="1:14" ht="15">
+      <c r="A113" s="314"/>
+      <c r="B113" s="315"/>
+      <c r="C113" s="316"/>
+      <c r="D113" s="316"/>
+      <c r="E113" s="317"/>
+      <c r="F113" s="314"/>
+      <c r="G113" s="211"/>
+      <c r="H113" s="279"/>
+      <c r="I113" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="J113" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="211">
+        <v>1000</v>
+      </c>
+      <c r="L113" s="214"/>
+      <c r="M113" s="214"/>
+      <c r="N113" s="214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15">
+      <c r="A114" s="314"/>
+      <c r="B114" s="315"/>
+      <c r="C114" s="316"/>
+      <c r="D114" s="316"/>
+      <c r="E114" s="317"/>
+      <c r="F114" s="314"/>
+      <c r="G114" s="211"/>
+      <c r="H114" s="211"/>
+      <c r="I114" s="211"/>
+      <c r="J114" s="212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K114" s="211">
+        <v>100</v>
+      </c>
+      <c r="L114" s="214"/>
+      <c r="M114" s="214"/>
+      <c r="N114" s="214"/>
+    </row>
+    <row r="115" spans="1:14" ht="15">
+      <c r="A115" s="314"/>
+      <c r="B115" s="315"/>
+      <c r="C115" s="316"/>
+      <c r="D115" s="316"/>
+      <c r="E115" s="317"/>
+      <c r="F115" s="314"/>
+      <c r="G115" s="211"/>
+      <c r="H115" s="211"/>
+      <c r="I115" s="211"/>
+      <c r="J115" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="211">
+        <v>100</v>
+      </c>
+      <c r="L115" s="214"/>
+      <c r="M115" s="214"/>
+      <c r="N115" s="214"/>
+    </row>
+    <row r="116" spans="1:14" ht="15">
+      <c r="A116" s="314"/>
+      <c r="B116" s="315"/>
+      <c r="C116" s="316"/>
+      <c r="D116" s="316"/>
+      <c r="E116" s="317"/>
+      <c r="F116" s="314"/>
+      <c r="G116" s="211"/>
+      <c r="H116" s="211"/>
+      <c r="I116" s="211"/>
+      <c r="J116" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="211">
+        <v>100</v>
+      </c>
+      <c r="L116" s="214"/>
+      <c r="M116" s="214"/>
+      <c r="N116" s="214"/>
+    </row>
+    <row r="117" spans="1:14" ht="15">
+      <c r="A117" s="314"/>
+      <c r="B117" s="315"/>
+      <c r="C117" s="316"/>
+      <c r="D117" s="316"/>
+      <c r="E117" s="317"/>
+      <c r="F117" s="314"/>
+      <c r="G117" s="211"/>
+      <c r="H117" s="211"/>
+      <c r="I117" s="211"/>
+      <c r="J117" s="212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="211">
+        <v>100</v>
+      </c>
+      <c r="L117" s="214"/>
+      <c r="M117" s="214"/>
+      <c r="N117" s="214"/>
+    </row>
+    <row r="118" spans="1:14" ht="15">
+      <c r="A118" s="314"/>
+      <c r="B118" s="315"/>
+      <c r="C118" s="316"/>
+      <c r="D118" s="316"/>
+      <c r="E118" s="317"/>
+      <c r="F118" s="314"/>
+      <c r="G118" s="211"/>
+      <c r="H118" s="211"/>
+      <c r="I118" s="211"/>
+      <c r="J118" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" s="211">
+        <v>10</v>
+      </c>
+      <c r="L118" s="214"/>
+      <c r="M118" s="214"/>
+      <c r="N118" s="214"/>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A119" s="318"/>
+      <c r="B119" s="319"/>
+      <c r="C119" s="320"/>
+      <c r="D119" s="320"/>
+      <c r="E119" s="321"/>
+      <c r="F119" s="318"/>
+      <c r="G119" s="219"/>
+      <c r="H119" s="219"/>
+      <c r="I119" s="219"/>
+      <c r="J119" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="L119" s="221"/>
+      <c r="M119" s="221"/>
+      <c r="N119" s="221"/>
+    </row>
+    <row r="120" spans="1:14" ht="30" customHeight="1">
+      <c r="A120" s="223">
+        <v>20</v>
+      </c>
+      <c r="B120" s="224" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="225" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="225" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="239" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="209" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="209" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="238" t="s">
+      <c r="F120" s="296" t="s">
+        <v>230</v>
+      </c>
+      <c r="G120" s="235"/>
+      <c r="H120" s="227"/>
+      <c r="I120" s="227"/>
+      <c r="J120" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="239">
-        <v>100</v>
-      </c>
-      <c r="L8" s="212"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="272"/>
-    </row>
-    <row r="9" spans="1:17" ht="15">
-      <c r="A9" s="214"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="220" t="s">
+      <c r="K120" s="237"/>
+      <c r="L120" s="204"/>
+      <c r="M120" s="205"/>
+      <c r="N120" s="205"/>
+    </row>
+    <row r="121" spans="1:14" ht="15">
+      <c r="A121" s="229"/>
+      <c r="B121" s="230"/>
+      <c r="C121" s="209"/>
+      <c r="D121" s="209"/>
+      <c r="E121" s="240"/>
+      <c r="F121" s="207"/>
+      <c r="G121" s="211"/>
+      <c r="H121" s="211"/>
+      <c r="I121" s="211"/>
+      <c r="J121" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="221"/>
-      <c r="M9" s="222"/>
-      <c r="N9" s="277" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15">
-      <c r="A10" s="214"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="219">
-        <v>100</v>
-      </c>
-      <c r="L10" s="221"/>
-      <c r="M10" s="222"/>
-      <c r="N10" s="277"/>
-    </row>
-    <row r="11" spans="1:17" ht="15">
-      <c r="A11" s="214"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="219">
-        <v>100</v>
-      </c>
-      <c r="L11" s="221"/>
-      <c r="M11" s="222"/>
-      <c r="N11" s="277"/>
-    </row>
-    <row r="12" spans="1:17" ht="15">
-      <c r="A12" s="214"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="219">
-        <v>100</v>
-      </c>
-      <c r="L12" s="221"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="277"/>
-    </row>
-    <row r="13" spans="1:17" ht="15">
-      <c r="A13" s="214"/>
-      <c r="B13" s="215"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="219">
-        <v>100</v>
-      </c>
-      <c r="L13" s="221"/>
-      <c r="M13" s="222"/>
-      <c r="N13" s="277"/>
-    </row>
-    <row r="14" spans="1:17" ht="15">
-      <c r="A14" s="214"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="229" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="228">
-        <v>10</v>
-      </c>
-      <c r="L14" s="221"/>
-      <c r="M14" s="222"/>
-      <c r="N14" s="277"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="223"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="283"/>
-    </row>
-    <row r="16" spans="1:17" ht="15">
-      <c r="A16" s="203">
-        <v>3</v>
-      </c>
-      <c r="B16" s="204" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="208" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="209"/>
-      <c r="J16" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="211">
-        <v>100</v>
-      </c>
-      <c r="L16" s="212"/>
-      <c r="M16" s="213"/>
-      <c r="N16" s="213"/>
-    </row>
-    <row r="17" spans="1:14" ht="28.5">
-      <c r="A17" s="214"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="218"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="221"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15">
-      <c r="A18" s="214"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="218"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="220" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="219">
-        <v>10</v>
-      </c>
-      <c r="L18" s="221"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="222"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A19" s="223"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="229" t="s">
+      <c r="K121" s="211"/>
+      <c r="L121" s="213"/>
+      <c r="M121" s="214"/>
+      <c r="N121" s="214" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15">
+      <c r="A122" s="229"/>
+      <c r="B122" s="230"/>
+      <c r="C122" s="209"/>
+      <c r="D122" s="209"/>
+      <c r="E122" s="240"/>
+      <c r="F122" s="207"/>
+      <c r="G122" s="211"/>
+      <c r="H122" s="211"/>
+      <c r="I122" s="211"/>
+      <c r="J122" s="212" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="211"/>
+      <c r="L122" s="213"/>
+      <c r="M122" s="214"/>
+      <c r="N122" s="214"/>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A123" s="233"/>
+      <c r="B123" s="234"/>
+      <c r="C123" s="217"/>
+      <c r="D123" s="217"/>
+      <c r="E123" s="241"/>
+      <c r="F123" s="215"/>
+      <c r="G123" s="322"/>
+      <c r="H123" s="219"/>
+      <c r="I123" s="219"/>
+      <c r="J123" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="228" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="230"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15">
-      <c r="A20" s="203">
-        <v>4</v>
-      </c>
-      <c r="B20" s="232" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="233" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="234" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="235" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="235" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="235"/>
-      <c r="J20" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="211">
-        <v>100</v>
-      </c>
-      <c r="L20" s="212"/>
-      <c r="M20" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="213"/>
-    </row>
-    <row r="21" spans="1:14" ht="15">
-      <c r="A21" s="214"/>
-      <c r="B21" s="236"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="238" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="239">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="221"/>
-      <c r="M21" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15">
-      <c r="A22" s="214"/>
-      <c r="B22" s="236"/>
-      <c r="C22" s="237"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="219">
-        <v>100</v>
-      </c>
-      <c r="L22" s="221"/>
-      <c r="M22" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="222"/>
-    </row>
-    <row r="23" spans="1:14" ht="28.5">
-      <c r="A23" s="214"/>
-      <c r="B23" s="236"/>
-      <c r="C23" s="237"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="240" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="219">
-        <v>100</v>
-      </c>
-      <c r="L23" s="221"/>
-      <c r="M23" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="222"/>
-    </row>
-    <row r="24" spans="1:14" ht="15">
-      <c r="A24" s="214"/>
-      <c r="B24" s="236"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="217" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="218"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="219">
-        <v>100</v>
-      </c>
-      <c r="L24" s="221"/>
-      <c r="M24" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N24" s="222"/>
-    </row>
-    <row r="25" spans="1:14" ht="15">
-      <c r="A25" s="214"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="218"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="219">
-        <v>100</v>
-      </c>
-      <c r="L25" s="221"/>
-      <c r="M25" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="222"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A26" s="223"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="229" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="228" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="222"/>
-    </row>
-    <row r="27" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A27" s="243"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="233" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="211" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="211" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="211"/>
-      <c r="J27" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="211">
-        <v>100</v>
-      </c>
-      <c r="L27" s="212"/>
-      <c r="M27" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" s="222"/>
-    </row>
-    <row r="28" spans="1:14" ht="15">
-      <c r="A28" s="246"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="248" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="221"/>
-      <c r="M28" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15">
-      <c r="A29" s="246"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="219">
-        <v>100</v>
-      </c>
-      <c r="L29" s="221"/>
-      <c r="M29" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="222"/>
-    </row>
-    <row r="30" spans="1:14" ht="28.5">
-      <c r="A30" s="246">
-        <v>5</v>
-      </c>
-      <c r="B30" s="249" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="237"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="240" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="249"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="219">
-        <v>100</v>
-      </c>
-      <c r="L30" s="221"/>
-      <c r="M30" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="222"/>
-    </row>
-    <row r="31" spans="1:14" ht="15">
-      <c r="A31" s="246"/>
-      <c r="B31" s="247"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="217" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="247"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="219">
-        <v>100</v>
-      </c>
-      <c r="L31" s="221"/>
-      <c r="M31" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="222"/>
-    </row>
-    <row r="32" spans="1:14" ht="15">
-      <c r="A32" s="246"/>
-      <c r="B32" s="247"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="219">
-        <v>100</v>
-      </c>
-      <c r="L32" s="221"/>
-      <c r="M32" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N32" s="222"/>
-    </row>
-    <row r="33" spans="1:14" ht="15">
-      <c r="A33" s="246"/>
-      <c r="B33" s="247"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="253" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="221"/>
-      <c r="M33" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A34" s="254"/>
-      <c r="B34" s="255"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="257"/>
-      <c r="H34" s="257"/>
-      <c r="I34" s="257"/>
-      <c r="J34" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L34" s="231"/>
-      <c r="M34" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="N34" s="222"/>
-    </row>
-    <row r="35" spans="1:14" ht="15">
-      <c r="A35" s="243"/>
-      <c r="B35" s="244"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="211"/>
-      <c r="J35" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="211">
-        <v>100</v>
-      </c>
-      <c r="L35" s="212"/>
-      <c r="M35" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N35" s="222"/>
-    </row>
-    <row r="36" spans="1:14" ht="28.5">
-      <c r="A36" s="246"/>
-      <c r="B36" s="247"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="226"/>
-      <c r="F36" s="247"/>
-      <c r="G36" s="248"/>
-      <c r="H36" s="259">
-        <v>44218</v>
-      </c>
-      <c r="I36" s="248"/>
-      <c r="J36" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="221"/>
-      <c r="M36" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N36" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15">
-      <c r="A37" s="246"/>
-      <c r="B37" s="247"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="247"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="219"/>
-      <c r="J37" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="219">
-        <v>100</v>
-      </c>
-      <c r="L37" s="221"/>
-      <c r="M37" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" s="222"/>
-    </row>
-    <row r="38" spans="1:14" ht="15">
-      <c r="A38" s="246">
-        <v>6</v>
-      </c>
-      <c r="B38" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="250" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="219">
-        <v>100</v>
-      </c>
-      <c r="L38" s="221"/>
-      <c r="M38" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N38" s="222"/>
-    </row>
-    <row r="39" spans="1:14" ht="15">
-      <c r="A39" s="246"/>
-      <c r="B39" s="247"/>
-      <c r="C39" s="226"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="226"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="219">
-        <v>100</v>
-      </c>
-      <c r="L39" s="221"/>
-      <c r="M39" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="222"/>
-    </row>
-    <row r="40" spans="1:14" ht="15">
-      <c r="A40" s="246"/>
-      <c r="B40" s="247"/>
-      <c r="C40" s="226"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="226"/>
-      <c r="F40" s="247"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="219">
-        <v>100</v>
-      </c>
-      <c r="L40" s="221"/>
-      <c r="M40" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="222"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A41" s="254"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="255"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="257"/>
-      <c r="J41" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="231"/>
-      <c r="M41" s="231" t="s">
-        <v>116</v>
-      </c>
-      <c r="N41" s="222"/>
-    </row>
-    <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="243"/>
-      <c r="B42" s="244"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="235" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="235" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="235"/>
-      <c r="J42" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="211">
-        <v>100</v>
-      </c>
-      <c r="L42" s="212"/>
-      <c r="M42" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N42" s="222"/>
-    </row>
-    <row r="43" spans="1:14" ht="28.5">
-      <c r="A43" s="246"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="226"/>
-      <c r="F43" s="247"/>
-      <c r="G43" s="248"/>
-      <c r="H43" s="259">
-        <v>44218</v>
-      </c>
-      <c r="I43" s="219"/>
-      <c r="J43" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="221"/>
-      <c r="M43" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15">
-      <c r="A44" s="246"/>
-      <c r="B44" s="247"/>
-      <c r="C44" s="226"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="260" t="s">
-        <v>204</v>
-      </c>
-      <c r="I44" s="219"/>
-      <c r="J44" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="219">
-        <v>100</v>
-      </c>
-      <c r="L44" s="221"/>
-      <c r="M44" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N44" s="222"/>
-    </row>
-    <row r="45" spans="1:14" ht="28.5">
-      <c r="A45" s="246">
-        <v>7</v>
-      </c>
-      <c r="B45" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="226" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="226"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="247"/>
-      <c r="G45" s="219"/>
-      <c r="H45" s="219"/>
-      <c r="I45" s="219"/>
-      <c r="J45" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="219">
-        <v>100</v>
-      </c>
-      <c r="L45" s="221"/>
-      <c r="M45" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N45" s="222"/>
-    </row>
-    <row r="46" spans="1:14" ht="15">
-      <c r="A46" s="246"/>
-      <c r="B46" s="247"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="219"/>
-      <c r="H46" s="219"/>
-      <c r="I46" s="219"/>
-      <c r="J46" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="219">
-        <v>100</v>
-      </c>
-      <c r="L46" s="221"/>
-      <c r="M46" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N46" s="222"/>
-    </row>
-    <row r="47" spans="1:14" ht="15">
-      <c r="A47" s="246"/>
-      <c r="B47" s="247"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="247"/>
-      <c r="G47" s="219"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="219"/>
-      <c r="J47" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="219">
-        <v>100</v>
-      </c>
-      <c r="L47" s="221"/>
-      <c r="M47" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47" s="222"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A48" s="246"/>
-      <c r="B48" s="247"/>
-      <c r="C48" s="226"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="247"/>
-      <c r="G48" s="219"/>
-      <c r="H48" s="219"/>
-      <c r="I48" s="219"/>
-      <c r="J48" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="219" t="s">
-        <v>130</v>
-      </c>
-      <c r="L48" s="231"/>
-      <c r="M48" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N48" s="222"/>
-    </row>
-    <row r="49" spans="1:14" ht="15">
-      <c r="A49" s="243"/>
-      <c r="B49" s="244"/>
-      <c r="C49" s="206"/>
-      <c r="D49" s="206"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="I49" s="211"/>
-      <c r="J49" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="211">
-        <v>100</v>
-      </c>
-      <c r="L49" s="212"/>
-      <c r="M49" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N49" s="222"/>
-    </row>
-    <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="246"/>
-      <c r="B50" s="247"/>
-      <c r="C50" s="226"/>
-      <c r="D50" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="226"/>
-      <c r="F50" s="247"/>
-      <c r="G50" s="248"/>
-      <c r="H50" s="259">
-        <v>44218</v>
-      </c>
-      <c r="I50" s="248"/>
-      <c r="J50" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L50" s="221"/>
-      <c r="M50" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N50" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15">
-      <c r="A51" s="246"/>
-      <c r="B51" s="247"/>
-      <c r="C51" s="226"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="247"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="I51" s="219"/>
-      <c r="J51" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="219">
-        <v>100</v>
-      </c>
-      <c r="L51" s="221"/>
-      <c r="M51" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N51" s="222"/>
-    </row>
-    <row r="52" spans="1:14" ht="28.5">
-      <c r="A52" s="246">
-        <v>8</v>
-      </c>
-      <c r="B52" s="249" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="250" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="250"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="219">
-        <v>100</v>
-      </c>
-      <c r="L52" s="221"/>
-      <c r="M52" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N52" s="222"/>
-    </row>
-    <row r="53" spans="1:14" ht="15">
-      <c r="A53" s="246"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="226"/>
-      <c r="D53" s="226"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="247"/>
-      <c r="G53" s="219"/>
-      <c r="H53" s="219"/>
-      <c r="I53" s="219"/>
-      <c r="J53" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="219">
-        <v>100</v>
-      </c>
-      <c r="L53" s="221"/>
-      <c r="M53" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N53" s="222"/>
-    </row>
-    <row r="54" spans="1:14" ht="15">
-      <c r="A54" s="246"/>
-      <c r="B54" s="247"/>
-      <c r="C54" s="226"/>
-      <c r="D54" s="226"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
-      <c r="J54" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="219">
-        <v>100</v>
-      </c>
-      <c r="L54" s="221"/>
-      <c r="M54" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N54" s="222"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A55" s="254"/>
-      <c r="B55" s="255"/>
-      <c r="C55" s="256"/>
-      <c r="D55" s="256"/>
-      <c r="E55" s="256"/>
-      <c r="F55" s="255"/>
-      <c r="G55" s="257"/>
-      <c r="H55" s="257"/>
-      <c r="I55" s="257"/>
-      <c r="J55" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L55" s="231"/>
-      <c r="M55" s="231" t="s">
-        <v>116</v>
-      </c>
-      <c r="N55" s="222"/>
-    </row>
-    <row r="56" spans="1:14" ht="15">
-      <c r="A56" s="243"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G56" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="H56" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="I56" s="211"/>
-      <c r="J56" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="211">
-        <v>100</v>
-      </c>
-      <c r="L56" s="212"/>
-      <c r="M56" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N56" s="222"/>
-    </row>
-    <row r="57" spans="1:14" ht="28.5">
-      <c r="A57" s="246"/>
-      <c r="B57" s="247"/>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="226"/>
-      <c r="F57" s="247"/>
-      <c r="G57" s="248"/>
-      <c r="H57" s="259">
-        <v>44219</v>
-      </c>
-      <c r="I57" s="248"/>
-      <c r="J57" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="221"/>
-      <c r="M57" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N57" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15">
-      <c r="A58" s="246"/>
-      <c r="B58" s="247"/>
-      <c r="C58" s="226"/>
-      <c r="D58" s="226"/>
-      <c r="E58" s="226"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="I58" s="219"/>
-      <c r="J58" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="219">
-        <v>100</v>
-      </c>
-      <c r="L58" s="221"/>
-      <c r="M58" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N58" s="222"/>
-    </row>
-    <row r="59" spans="1:14" ht="28.5">
-      <c r="A59" s="246">
-        <v>9</v>
-      </c>
-      <c r="B59" s="249" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="250" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="249"/>
-      <c r="G59" s="219"/>
-      <c r="H59" s="219"/>
-      <c r="I59" s="219"/>
-      <c r="J59" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="219">
-        <v>100</v>
-      </c>
-      <c r="L59" s="221"/>
-      <c r="M59" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N59" s="222"/>
-    </row>
-    <row r="60" spans="1:14" ht="15">
-      <c r="A60" s="246"/>
-      <c r="B60" s="247"/>
-      <c r="C60" s="226"/>
-      <c r="D60" s="226"/>
-      <c r="E60" s="226"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="219"/>
-      <c r="H60" s="219"/>
-      <c r="I60" s="219"/>
-      <c r="J60" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="219">
-        <v>100</v>
-      </c>
-      <c r="L60" s="221"/>
-      <c r="M60" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N60" s="222"/>
-    </row>
-    <row r="61" spans="1:14" ht="15">
-      <c r="A61" s="246"/>
-      <c r="B61" s="247"/>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="226"/>
-      <c r="F61" s="247"/>
-      <c r="G61" s="219"/>
-      <c r="H61" s="219"/>
-      <c r="I61" s="219"/>
-      <c r="J61" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="219">
-        <v>100</v>
-      </c>
-      <c r="L61" s="221"/>
-      <c r="M61" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N61" s="222"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="254"/>
-      <c r="B62" s="255"/>
-      <c r="C62" s="256"/>
-      <c r="D62" s="256"/>
-      <c r="E62" s="256"/>
-      <c r="F62" s="255"/>
-      <c r="G62" s="257"/>
-      <c r="H62" s="257"/>
-      <c r="I62" s="257"/>
-      <c r="J62" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L62" s="231"/>
-      <c r="M62" s="231" t="s">
-        <v>116</v>
-      </c>
-      <c r="N62" s="222"/>
-    </row>
-    <row r="63" spans="1:14" ht="28.5">
-      <c r="A63" s="261">
-        <v>10</v>
-      </c>
-      <c r="B63" s="244" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="206" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="206"/>
-      <c r="E63" s="206"/>
-      <c r="F63" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G63" s="235" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="235" t="s">
-        <v>139</v>
-      </c>
-      <c r="I63" s="235"/>
-      <c r="J63" s="210" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="211">
-        <v>1000</v>
-      </c>
-      <c r="L63" s="212"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="222"/>
-    </row>
-    <row r="64" spans="1:14" ht="15">
-      <c r="A64" s="262"/>
-      <c r="B64" s="247"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="226" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="226"/>
-      <c r="F64" s="247"/>
-      <c r="G64" s="248"/>
-      <c r="H64" s="248"/>
-      <c r="I64" s="248" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" s="220" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L64" s="221"/>
-      <c r="M64" s="222"/>
-      <c r="N64" s="222"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A65" s="263"/>
-      <c r="B65" s="255"/>
-      <c r="C65" s="256"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="256"/>
-      <c r="F65" s="255"/>
-      <c r="G65" s="264"/>
-      <c r="H65" s="264"/>
-      <c r="I65" s="264"/>
-      <c r="J65" s="258" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" s="257">
-        <v>1000</v>
-      </c>
-      <c r="L65" s="231"/>
-      <c r="M65" s="231"/>
-      <c r="N65" s="222"/>
-    </row>
-    <row r="66" spans="1:14" ht="15">
-      <c r="A66" s="243"/>
-      <c r="B66" s="244"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="206"/>
-      <c r="E66" s="206"/>
-      <c r="F66" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" s="235">
-        <v>43772</v>
-      </c>
-      <c r="H66" s="235">
-        <v>44503</v>
-      </c>
-      <c r="I66" s="235"/>
-      <c r="J66" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="211">
-        <v>100</v>
-      </c>
-      <c r="L66" s="212"/>
-      <c r="M66" s="213"/>
-      <c r="N66" s="222"/>
-    </row>
-    <row r="67" spans="1:14" ht="28.5">
-      <c r="A67" s="246"/>
-      <c r="B67" s="247"/>
-      <c r="C67" s="226"/>
-      <c r="D67" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="226"/>
-      <c r="F67" s="247"/>
-      <c r="G67" s="248"/>
-      <c r="H67" s="248"/>
-      <c r="I67" s="248" t="s">
-        <v>203</v>
-      </c>
-      <c r="J67" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L67" s="221"/>
-      <c r="M67" s="222"/>
-      <c r="N67" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15">
-      <c r="A68" s="246"/>
-      <c r="B68" s="247"/>
-      <c r="C68" s="226"/>
-      <c r="D68" s="226"/>
-      <c r="E68" s="226"/>
-      <c r="F68" s="247"/>
-      <c r="G68" s="219"/>
-      <c r="H68" s="219"/>
-      <c r="I68" s="219"/>
-      <c r="J68" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="219">
-        <v>100</v>
-      </c>
-      <c r="L68" s="221"/>
-      <c r="M68" s="222"/>
-      <c r="N68" s="222"/>
-    </row>
-    <row r="69" spans="1:14" ht="28.5">
-      <c r="A69" s="246">
-        <v>11</v>
-      </c>
-      <c r="B69" s="249" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="250" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="250"/>
-      <c r="E69" s="250"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="219"/>
-      <c r="H69" s="219"/>
-      <c r="I69" s="219"/>
-      <c r="J69" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="219">
-        <v>100</v>
-      </c>
-      <c r="L69" s="221"/>
-      <c r="M69" s="222"/>
-      <c r="N69" s="222"/>
-    </row>
-    <row r="70" spans="1:14" ht="15">
-      <c r="A70" s="246"/>
-      <c r="B70" s="247"/>
-      <c r="C70" s="226"/>
-      <c r="D70" s="226"/>
-      <c r="E70" s="226"/>
-      <c r="F70" s="247"/>
-      <c r="G70" s="219"/>
-      <c r="H70" s="219"/>
-      <c r="I70" s="219"/>
-      <c r="J70" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="219">
-        <v>100</v>
-      </c>
-      <c r="L70" s="221"/>
-      <c r="M70" s="222"/>
-      <c r="N70" s="222"/>
-    </row>
-    <row r="71" spans="1:14" ht="15">
-      <c r="A71" s="246"/>
-      <c r="B71" s="247"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="226"/>
-      <c r="E71" s="226"/>
-      <c r="F71" s="247"/>
-      <c r="G71" s="219"/>
-      <c r="H71" s="219"/>
-      <c r="I71" s="219"/>
-      <c r="J71" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="219">
-        <v>100</v>
-      </c>
-      <c r="L71" s="221"/>
-      <c r="M71" s="222"/>
-      <c r="N71" s="222"/>
-    </row>
-    <row r="72" spans="1:14" ht="15">
-      <c r="A72" s="246"/>
-      <c r="B72" s="247"/>
-      <c r="C72" s="226"/>
-      <c r="D72" s="226"/>
-      <c r="E72" s="226"/>
-      <c r="F72" s="247"/>
-      <c r="G72" s="219"/>
-      <c r="H72" s="219"/>
-      <c r="I72" s="219"/>
-      <c r="J72" s="220" t="s">
-        <v>68</v>
-      </c>
-      <c r="K72" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L72" s="221"/>
-      <c r="M72" s="222"/>
-      <c r="N72" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="15">
-      <c r="A73" s="246"/>
-      <c r="B73" s="247"/>
-      <c r="C73" s="226"/>
-      <c r="D73" s="226"/>
-      <c r="E73" s="226"/>
-      <c r="F73" s="247"/>
-      <c r="G73" s="219"/>
-      <c r="H73" s="219"/>
-      <c r="I73" s="219"/>
-      <c r="J73" s="220" t="s">
-        <v>69</v>
-      </c>
-      <c r="K73" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L73" s="221"/>
-      <c r="M73" s="222"/>
-      <c r="N73" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A74" s="254"/>
-      <c r="B74" s="255"/>
-      <c r="C74" s="256"/>
-      <c r="D74" s="256"/>
-      <c r="E74" s="256"/>
-      <c r="F74" s="255"/>
-      <c r="G74" s="257"/>
-      <c r="H74" s="257"/>
-      <c r="I74" s="257"/>
-      <c r="J74" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K74" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L74" s="230"/>
-      <c r="M74" s="231"/>
-      <c r="N74" s="222"/>
-    </row>
-    <row r="75" spans="1:14" ht="15">
-      <c r="A75" s="243"/>
-      <c r="B75" s="244"/>
-      <c r="C75" s="206"/>
-      <c r="D75" s="206"/>
-      <c r="E75" s="206"/>
-      <c r="F75" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G75" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="I75" s="211"/>
-      <c r="J75" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="211">
-        <v>100</v>
-      </c>
-      <c r="L75" s="212"/>
-      <c r="M75" s="212" t="s">
-        <v>116</v>
-      </c>
-      <c r="N75" s="222"/>
-    </row>
-    <row r="76" spans="1:14" ht="28.5">
-      <c r="A76" s="246"/>
-      <c r="B76" s="247"/>
-      <c r="C76" s="226"/>
-      <c r="D76" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="226"/>
-      <c r="F76" s="247"/>
-      <c r="G76" s="248"/>
-      <c r="H76" s="259">
-        <v>44218</v>
-      </c>
-      <c r="I76" s="248"/>
-      <c r="J76" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L76" s="221"/>
-      <c r="M76" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" s="222"/>
-    </row>
-    <row r="77" spans="1:14" ht="15">
-      <c r="A77" s="246"/>
-      <c r="B77" s="247"/>
-      <c r="C77" s="226"/>
-      <c r="D77" s="226"/>
-      <c r="E77" s="226"/>
-      <c r="F77" s="247"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="I77" s="219"/>
-      <c r="J77" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" s="219">
-        <v>100</v>
-      </c>
-      <c r="L77" s="221"/>
-      <c r="M77" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N77" s="222"/>
-    </row>
-    <row r="78" spans="1:14" ht="28.5">
-      <c r="A78" s="246">
-        <v>12</v>
-      </c>
-      <c r="B78" s="249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="250" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="219"/>
-      <c r="H78" s="219"/>
-      <c r="I78" s="219"/>
-      <c r="J78" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" s="219">
-        <v>100</v>
-      </c>
-      <c r="L78" s="221"/>
-      <c r="M78" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78" s="222"/>
-    </row>
-    <row r="79" spans="1:14" ht="15">
-      <c r="A79" s="246"/>
-      <c r="B79" s="247"/>
-      <c r="C79" s="226"/>
-      <c r="D79" s="226"/>
-      <c r="E79" s="226"/>
-      <c r="F79" s="247"/>
-      <c r="G79" s="219"/>
-      <c r="H79" s="219"/>
-      <c r="I79" s="219"/>
-      <c r="J79" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="219">
-        <v>100</v>
-      </c>
-      <c r="L79" s="221"/>
-      <c r="M79" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="222"/>
-    </row>
-    <row r="80" spans="1:14" ht="15">
-      <c r="A80" s="246"/>
-      <c r="B80" s="247"/>
-      <c r="C80" s="226"/>
-      <c r="D80" s="226"/>
-      <c r="E80" s="226"/>
-      <c r="F80" s="247"/>
-      <c r="G80" s="219"/>
-      <c r="H80" s="219"/>
-      <c r="I80" s="219"/>
-      <c r="J80" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" s="219">
-        <v>100</v>
-      </c>
-      <c r="L80" s="221"/>
-      <c r="M80" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="222"/>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A81" s="254"/>
-      <c r="B81" s="247"/>
-      <c r="C81" s="226"/>
-      <c r="D81" s="226"/>
-      <c r="E81" s="226"/>
-      <c r="F81" s="247"/>
-      <c r="G81" s="228"/>
-      <c r="H81" s="228"/>
-      <c r="I81" s="228"/>
-      <c r="J81" s="229" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="228" t="s">
-        <v>130</v>
-      </c>
-      <c r="L81" s="231"/>
-      <c r="M81" s="231" t="s">
-        <v>116</v>
-      </c>
-      <c r="N81" s="222"/>
-    </row>
-    <row r="82" spans="1:14" ht="15">
-      <c r="A82" s="243"/>
-      <c r="B82" s="244"/>
-      <c r="C82" s="206"/>
-      <c r="D82" s="206"/>
-      <c r="E82" s="206"/>
-      <c r="F82" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G82" s="235" t="s">
-        <v>110</v>
-      </c>
-      <c r="H82" s="235" t="s">
-        <v>128</v>
-      </c>
-      <c r="I82" s="235"/>
-      <c r="J82" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K82" s="211">
-        <v>100</v>
-      </c>
-      <c r="L82" s="212"/>
-      <c r="M82" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="N82" s="222"/>
-    </row>
-    <row r="83" spans="1:14" ht="15">
-      <c r="A83" s="246">
-        <v>13</v>
-      </c>
-      <c r="B83" s="249" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="250" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="250" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="250"/>
-      <c r="F83" s="249"/>
-      <c r="G83" s="248"/>
-      <c r="H83" s="259">
-        <v>44219</v>
-      </c>
-      <c r="I83" s="219"/>
-      <c r="J83" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L83" s="221"/>
-      <c r="M83" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N83" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="15">
-      <c r="A84" s="246"/>
-      <c r="B84" s="247"/>
-      <c r="C84" s="226"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="226"/>
-      <c r="F84" s="247"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="I84" s="219"/>
-      <c r="J84" s="220" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="219">
-        <v>10</v>
-      </c>
-      <c r="L84" s="221"/>
-      <c r="M84" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="N84" s="222"/>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A85" s="254"/>
-      <c r="B85" s="255"/>
-      <c r="C85" s="256"/>
-      <c r="D85" s="256"/>
-      <c r="E85" s="256"/>
-      <c r="F85" s="255"/>
-      <c r="G85" s="257"/>
-      <c r="H85" s="257"/>
-      <c r="I85" s="257"/>
-      <c r="J85" s="258" t="s">
-        <v>200</v>
-      </c>
-      <c r="K85" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L85" s="231"/>
-      <c r="M85" s="231"/>
-      <c r="N85" s="222"/>
-    </row>
-    <row r="86" spans="1:14" ht="15">
-      <c r="A86" s="243"/>
-      <c r="B86" s="247"/>
-      <c r="C86" s="226"/>
-      <c r="D86" s="226"/>
-      <c r="E86" s="226"/>
-      <c r="F86" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G86" s="209">
-        <v>43743</v>
-      </c>
-      <c r="H86" s="209">
-        <v>44474</v>
-      </c>
-      <c r="I86" s="209"/>
-      <c r="J86" s="238" t="s">
-        <v>8</v>
-      </c>
-      <c r="K86" s="239">
-        <v>100</v>
-      </c>
-      <c r="L86" s="212"/>
-      <c r="M86" s="213"/>
-      <c r="N86" s="222"/>
-    </row>
-    <row r="87" spans="1:14" ht="28.5">
-      <c r="A87" s="246"/>
-      <c r="B87" s="247"/>
-      <c r="C87" s="226"/>
-      <c r="D87" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="226"/>
-      <c r="F87" s="247"/>
-      <c r="G87" s="239"/>
-      <c r="H87" s="239"/>
-      <c r="I87" s="239" t="s">
-        <v>203</v>
-      </c>
-      <c r="J87" s="238" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="239">
-        <v>1000</v>
-      </c>
-      <c r="L87" s="221"/>
-      <c r="M87" s="222"/>
-      <c r="N87" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="15">
-      <c r="A88" s="246"/>
-      <c r="B88" s="247"/>
-      <c r="C88" s="226"/>
-      <c r="D88" s="226"/>
-      <c r="E88" s="226"/>
-      <c r="F88" s="247"/>
-      <c r="G88" s="219"/>
-      <c r="H88" s="219"/>
-      <c r="I88" s="219"/>
-      <c r="J88" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="219">
-        <v>100</v>
-      </c>
-      <c r="L88" s="221"/>
-      <c r="M88" s="222"/>
-      <c r="N88" s="222"/>
-    </row>
-    <row r="89" spans="1:14" ht="15">
-      <c r="A89" s="246">
-        <v>14</v>
-      </c>
-      <c r="B89" s="249" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="226" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="226"/>
-      <c r="E89" s="226"/>
-      <c r="F89" s="247"/>
-      <c r="G89" s="219"/>
-      <c r="H89" s="219"/>
-      <c r="I89" s="219"/>
-      <c r="J89" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="219">
-        <v>100</v>
-      </c>
-      <c r="L89" s="221"/>
-      <c r="M89" s="222"/>
-      <c r="N89" s="222"/>
-    </row>
-    <row r="90" spans="1:14" ht="15">
-      <c r="A90" s="246"/>
-      <c r="B90" s="247"/>
-      <c r="C90" s="226"/>
-      <c r="D90" s="226"/>
-      <c r="E90" s="226"/>
-      <c r="F90" s="247"/>
-      <c r="G90" s="219"/>
-      <c r="H90" s="219"/>
-      <c r="I90" s="219"/>
-      <c r="J90" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="219">
-        <v>100</v>
-      </c>
-      <c r="L90" s="221"/>
-      <c r="M90" s="222"/>
-      <c r="N90" s="222"/>
-    </row>
-    <row r="91" spans="1:14" ht="15">
-      <c r="A91" s="246"/>
-      <c r="B91" s="247"/>
-      <c r="C91" s="226"/>
-      <c r="D91" s="226"/>
-      <c r="E91" s="226"/>
-      <c r="F91" s="247"/>
-      <c r="G91" s="219"/>
-      <c r="H91" s="219"/>
-      <c r="I91" s="219"/>
-      <c r="J91" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" s="219">
-        <v>100</v>
-      </c>
-      <c r="L91" s="221"/>
-      <c r="M91" s="222"/>
-      <c r="N91" s="222"/>
-    </row>
-    <row r="92" spans="1:14" ht="15">
-      <c r="A92" s="246"/>
-      <c r="B92" s="247"/>
-      <c r="C92" s="226"/>
-      <c r="D92" s="226"/>
-      <c r="E92" s="226"/>
-      <c r="F92" s="247"/>
-      <c r="G92" s="228"/>
-      <c r="H92" s="228"/>
-      <c r="I92" s="228"/>
-      <c r="J92" s="229" t="s">
-        <v>74</v>
-      </c>
-      <c r="K92" s="228">
-        <v>50</v>
-      </c>
-      <c r="L92" s="221"/>
-      <c r="M92" s="222"/>
-      <c r="N92" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15">
-      <c r="A93" s="246"/>
-      <c r="B93" s="247"/>
-      <c r="C93" s="226"/>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="247"/>
-      <c r="G93" s="228"/>
-      <c r="H93" s="228"/>
-      <c r="I93" s="228"/>
-      <c r="J93" s="229" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93" s="228" t="s">
-        <v>149</v>
-      </c>
-      <c r="L93" s="221"/>
-      <c r="M93" s="222"/>
-      <c r="N93" s="222"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A94" s="254"/>
-      <c r="B94" s="255"/>
-      <c r="C94" s="256"/>
-      <c r="D94" s="256"/>
-      <c r="E94" s="256"/>
-      <c r="F94" s="255"/>
-      <c r="G94" s="257"/>
-      <c r="H94" s="257"/>
-      <c r="I94" s="257"/>
-      <c r="J94" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" s="257" t="s">
-        <v>130</v>
-      </c>
-      <c r="L94" s="231"/>
-      <c r="M94" s="231"/>
-      <c r="N94" s="231"/>
-    </row>
-    <row r="95" spans="1:14" ht="15">
-      <c r="A95" s="243"/>
-      <c r="B95" s="244"/>
-      <c r="C95" s="206"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="206"/>
-      <c r="F95" s="245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" s="235" t="s">
-        <v>114</v>
-      </c>
-      <c r="H95" s="235" t="s">
-        <v>154</v>
-      </c>
-      <c r="I95" s="235"/>
-      <c r="J95" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="K95" s="211">
-        <v>100</v>
-      </c>
-      <c r="L95" s="212"/>
-      <c r="M95" s="213"/>
-      <c r="N95" s="213"/>
-    </row>
-    <row r="96" spans="1:14" ht="28.5">
-      <c r="A96" s="246">
-        <v>15</v>
-      </c>
-      <c r="B96" s="249" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="250" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="250" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="250"/>
-      <c r="G96" s="219"/>
-      <c r="H96" s="219"/>
-      <c r="I96" s="219" t="s">
-        <v>203</v>
-      </c>
-      <c r="J96" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="K96" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L96" s="221"/>
-      <c r="M96" s="222"/>
-      <c r="N96" s="222" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="15">
-      <c r="A97" s="246"/>
-      <c r="B97" s="247"/>
-      <c r="C97" s="226"/>
-      <c r="D97" s="226"/>
-      <c r="E97" s="226"/>
-      <c r="F97" s="247"/>
-      <c r="G97" s="228"/>
-      <c r="H97" s="228"/>
-      <c r="I97" s="228"/>
-      <c r="J97" s="229" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="228">
-        <v>1000</v>
-      </c>
-      <c r="L97" s="221"/>
-      <c r="M97" s="222"/>
-      <c r="N97" s="222"/>
-    </row>
-    <row r="98" spans="1:14" ht="15">
-      <c r="A98" s="246"/>
-      <c r="B98" s="247"/>
-      <c r="C98" s="226"/>
-      <c r="D98" s="226"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="247"/>
-      <c r="G98" s="228"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="228"/>
-      <c r="J98" s="229" t="s">
-        <v>70</v>
-      </c>
-      <c r="K98" s="228">
-        <v>1000</v>
-      </c>
-      <c r="L98" s="221"/>
-      <c r="M98" s="222"/>
-      <c r="N98" s="222"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A99" s="254"/>
-      <c r="B99" s="247"/>
-      <c r="C99" s="226"/>
-      <c r="D99" s="226"/>
-      <c r="E99" s="226"/>
-      <c r="F99" s="247"/>
-      <c r="G99" s="228"/>
-      <c r="H99" s="228"/>
-      <c r="I99" s="228"/>
-      <c r="J99" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="K99" s="228">
-        <v>1000</v>
-      </c>
-      <c r="L99" s="265"/>
-      <c r="M99" s="266"/>
-      <c r="N99" s="266"/>
-    </row>
-    <row r="100" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A100" s="267">
-        <v>16</v>
-      </c>
-      <c r="B100" s="268" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" s="206" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="206" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" s="206"/>
-      <c r="F100" s="244" t="s">
-        <v>231</v>
-      </c>
-      <c r="G100" s="269" t="s">
-        <v>181</v>
-      </c>
-      <c r="H100" s="269" t="s">
-        <v>182</v>
-      </c>
-      <c r="I100" s="269"/>
-      <c r="J100" s="270" t="s">
-        <v>46</v>
-      </c>
-      <c r="K100" s="271">
-        <v>1000</v>
-      </c>
-      <c r="L100" s="272"/>
-      <c r="M100" s="272" t="s">
-        <v>116</v>
-      </c>
-      <c r="N100" s="272"/>
-    </row>
-    <row r="101" spans="1:14" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A101" s="243"/>
-      <c r="B101" s="249"/>
-      <c r="C101" s="226"/>
-      <c r="D101" s="226"/>
-      <c r="E101" s="226"/>
-      <c r="F101" s="247"/>
-      <c r="G101" s="273"/>
-      <c r="H101" s="274">
-        <v>44221</v>
-      </c>
-      <c r="I101" s="273"/>
-      <c r="J101" s="275"/>
-      <c r="K101" s="276"/>
-      <c r="L101" s="277"/>
-      <c r="M101" s="277"/>
-      <c r="N101" s="277"/>
-    </row>
-    <row r="102" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A102" s="243"/>
-      <c r="B102" s="278"/>
-      <c r="C102" s="256"/>
-      <c r="D102" s="256"/>
-      <c r="E102" s="256"/>
-      <c r="F102" s="255"/>
-      <c r="G102" s="279"/>
-      <c r="H102" s="280" t="s">
-        <v>202</v>
-      </c>
-      <c r="I102" s="279"/>
-      <c r="J102" s="281"/>
-      <c r="K102" s="282"/>
-      <c r="L102" s="283"/>
-      <c r="M102" s="283"/>
-      <c r="N102" s="283"/>
-    </row>
-    <row r="103" spans="1:14" ht="28.5">
-      <c r="A103" s="261">
-        <v>17</v>
-      </c>
-      <c r="B103" s="249" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" s="226" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="226"/>
-      <c r="E103" s="226"/>
-      <c r="F103" s="244"/>
-      <c r="G103" s="209" t="s">
-        <v>113</v>
-      </c>
-      <c r="H103" s="209" t="s">
-        <v>139</v>
-      </c>
-      <c r="I103" s="209"/>
-      <c r="J103" s="238"/>
-      <c r="K103" s="239"/>
-      <c r="L103" s="212"/>
-      <c r="M103" s="213"/>
-      <c r="N103" s="272"/>
-    </row>
-    <row r="104" spans="1:14" ht="28.5">
-      <c r="A104" s="262"/>
-      <c r="B104" s="247"/>
-      <c r="C104" s="226"/>
-      <c r="D104" s="226" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="226"/>
-      <c r="F104" s="247" t="s">
-        <v>231</v>
-      </c>
-      <c r="G104" s="219"/>
-      <c r="H104" s="219"/>
-      <c r="I104" s="219" t="s">
-        <v>203</v>
-      </c>
-      <c r="J104" s="220" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L104" s="221"/>
-      <c r="M104" s="222"/>
-      <c r="N104" s="277"/>
-    </row>
-    <row r="105" spans="1:14" ht="15">
-      <c r="A105" s="262"/>
-      <c r="B105" s="247"/>
-      <c r="C105" s="226"/>
-      <c r="D105" s="226"/>
-      <c r="E105" s="226"/>
-      <c r="F105" s="247"/>
-      <c r="G105" s="219"/>
-      <c r="H105" s="219"/>
-      <c r="I105" s="219"/>
-      <c r="J105" s="220" t="s">
-        <v>70</v>
-      </c>
-      <c r="K105" s="219">
-        <v>1000</v>
-      </c>
-      <c r="L105" s="221"/>
-      <c r="M105" s="222"/>
-      <c r="N105" s="277"/>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A106" s="263"/>
-      <c r="B106" s="255"/>
-      <c r="C106" s="256"/>
-      <c r="D106" s="256"/>
-      <c r="E106" s="256"/>
-      <c r="F106" s="255"/>
-      <c r="G106" s="257"/>
-      <c r="H106" s="257"/>
-      <c r="I106" s="257"/>
-      <c r="J106" s="258" t="s">
-        <v>71</v>
-      </c>
-      <c r="K106" s="257">
-        <v>1000</v>
-      </c>
-      <c r="L106" s="231"/>
-      <c r="M106" s="231"/>
-      <c r="N106" s="283"/>
-    </row>
-    <row r="107" spans="1:14" ht="15">
-      <c r="A107" s="284"/>
-      <c r="B107" s="270"/>
-      <c r="C107" s="285"/>
-      <c r="D107" s="285"/>
-      <c r="E107" s="285"/>
-      <c r="F107" s="270"/>
-      <c r="G107" s="286">
-        <v>43806</v>
-      </c>
-      <c r="H107" s="286">
-        <v>44537</v>
-      </c>
-      <c r="I107" s="286"/>
-      <c r="J107" s="210" t="s">
-        <v>66</v>
-      </c>
-      <c r="K107" s="210">
-        <v>250</v>
-      </c>
-      <c r="L107" s="212"/>
-      <c r="M107" s="213"/>
-      <c r="N107" s="213" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="28.5">
-      <c r="A108" s="246">
-        <v>18</v>
-      </c>
-      <c r="B108" s="247" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="226" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="226" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" s="226"/>
-      <c r="F108" s="247" t="s">
-        <v>231</v>
-      </c>
-      <c r="G108" s="219"/>
-      <c r="H108" s="287">
-        <v>44694</v>
-      </c>
-      <c r="I108" s="219"/>
-      <c r="J108" s="220"/>
-      <c r="K108" s="219"/>
-      <c r="L108" s="221"/>
-      <c r="M108" s="222"/>
-      <c r="N108" s="222"/>
-    </row>
-    <row r="109" spans="1:14" ht="15">
-      <c r="A109" s="246"/>
-      <c r="B109" s="276"/>
-      <c r="C109" s="288"/>
-      <c r="D109" s="288"/>
-      <c r="E109" s="288"/>
-      <c r="F109" s="276"/>
-      <c r="G109" s="219"/>
-      <c r="H109" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="I109" s="219"/>
-      <c r="J109" s="220"/>
-      <c r="K109" s="219"/>
-      <c r="L109" s="221"/>
-      <c r="M109" s="222"/>
-      <c r="N109" s="222"/>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="13"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
-    </row>
-    <row r="111" spans="1:14" ht="15" thickBot="1">
-      <c r="A111" s="17"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="79"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="75"/>
-    </row>
-    <row r="112" spans="1:14" ht="15">
-      <c r="A112" s="63">
-        <v>19</v>
-      </c>
-      <c r="B112" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="H112" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="I112" s="66"/>
-      <c r="J112" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="K112" s="60">
-        <v>100</v>
-      </c>
-      <c r="L112" s="77"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="75"/>
-    </row>
-    <row r="113" spans="1:14" ht="30">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="110"/>
-      <c r="D113" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="110"/>
-      <c r="F113" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G113" s="61"/>
-      <c r="H113" s="143"/>
-      <c r="I113" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="J113" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="61">
-        <v>1000</v>
-      </c>
-      <c r="L113" s="74"/>
-      <c r="M113" s="75"/>
-      <c r="N113" s="75" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="110"/>
-      <c r="D114" s="110"/>
-      <c r="E114" s="110"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="K114" s="61">
-        <v>100</v>
-      </c>
-      <c r="L114" s="74"/>
-      <c r="M114" s="75"/>
-      <c r="N114" s="75"/>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="110"/>
-      <c r="D115" s="110"/>
-      <c r="E115" s="110"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="61"/>
-      <c r="J115" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" s="61">
-        <v>100</v>
-      </c>
-      <c r="L115" s="74"/>
-      <c r="M115" s="75"/>
-      <c r="N115" s="75"/>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="110"/>
-      <c r="D116" s="110"/>
-      <c r="E116" s="110"/>
-      <c r="F116" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G116" s="61"/>
-      <c r="H116" s="61"/>
-      <c r="I116" s="61"/>
-      <c r="J116" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="K116" s="61">
-        <v>100</v>
-      </c>
-      <c r="L116" s="74"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="110"/>
-      <c r="D117" s="110"/>
-      <c r="E117" s="110"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="61">
-        <v>100</v>
-      </c>
-      <c r="L117" s="74"/>
-      <c r="M117" s="75"/>
-      <c r="N117" s="75"/>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="110"/>
-      <c r="D118" s="110"/>
-      <c r="E118" s="110"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="K118" s="61">
-        <v>10</v>
-      </c>
-      <c r="L118" s="74"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-    </row>
-    <row r="119" spans="1:14" ht="15" thickBot="1">
-      <c r="A119" s="65"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="K119" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="L119" s="84"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="75"/>
-    </row>
-    <row r="120" spans="1:14" ht="15">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="103"/>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K120" s="12"/>
-      <c r="L120" s="77"/>
-      <c r="M120" s="78"/>
-      <c r="N120" s="75"/>
-    </row>
-    <row r="121" spans="1:14" ht="30">
-      <c r="A121" s="13">
-        <v>20</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K121" s="15"/>
-      <c r="L121" s="74"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15">
-      <c r="A122" s="13"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" s="15"/>
-      <c r="L122" s="74"/>
-      <c r="M122" s="75"/>
-      <c r="N122" s="75"/>
-    </row>
-    <row r="123" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="102"/>
-      <c r="D123" s="102"/>
-      <c r="E123" s="102"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="196"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" s="30"/>
-      <c r="L123" s="80"/>
-      <c r="M123" s="79"/>
-      <c r="N123" s="76" t="s">
+      <c r="K123" s="219"/>
+      <c r="L123" s="238"/>
+      <c r="M123" s="221"/>
+      <c r="N123" s="221" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15018,29 +15317,130 @@
       <c r="K140" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E8:E15"/>
+  <mergeCells count="133">
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="B112:B119"/>
+    <mergeCell ref="C112:C119"/>
+    <mergeCell ref="D112:D119"/>
+    <mergeCell ref="E112:E119"/>
+    <mergeCell ref="F112:F119"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="N100:N102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="E86:E94"/>
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="E75:E81"/>
+    <mergeCell ref="F75:F81"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
     <mergeCell ref="F20:F26"/>
     <mergeCell ref="D20:D26"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="A20:A26"/>
+    <mergeCell ref="E20:E26"/>
     <mergeCell ref="F8:F15"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="C8:C15"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="A8:A15"/>
+    <mergeCell ref="E8:E15"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>

--- a/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
+++ b/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Bluesign\KEY 2022\Key 495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905599D-A717-44D9-8BFD-36BB44913E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8872379A-132B-4812-91BE-EEC9BD127C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="20115" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="20115" windowHeight="7455" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPURITIES&amp; T.REPORT-2018-2020" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="234">
   <si>
     <t>No.</t>
   </si>
@@ -979,19 +979,22 @@
     <t>Next testing date</t>
   </si>
   <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>Bluesign  certified material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluesign  certified material </t>
+  </si>
+  <si>
     <t>Internal Specification
  limit
-£  (mg/kg)
+  (mg/kg)
 ( A)</t>
   </si>
   <si>
-    <t>12 months</t>
-  </si>
-  <si>
-    <t>Bluesign  certified material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluesign  certified material </t>
+    <t>TÜV SÜD LAB</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1923,6 +1926,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1935,7 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2461,15 +2473,6 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,18 +2482,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,18 +2490,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,40 +2498,16 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2563,36 +2518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2604,18 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2633,18 +2546,6 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2654,18 +2555,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,15 +2569,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,16 +2585,195 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,6 +2786,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,89 +2839,39 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2845,6 +2899,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="144847" cy="165366"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7860D51A-F5D0-41F9-B70B-110A0320ED05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9148762" y="571500"/>
+              <a:ext cx="144847" cy="165366"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="vi-VN" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≤</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="vi-VN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7860D51A-F5D0-41F9-B70B-110A0320ED05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9148762" y="571500"/>
+              <a:ext cx="144847" cy="165366"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≤</a:t>
+              </a:r>
+              <a:endParaRPr lang="vi-VN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3171,7 +3374,7 @@
   <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -6967,9 +7170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V61" sqref="V61"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121:O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6981,7 +7184,7 @@
     <col min="5" max="5" width="19" style="112" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="112" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="122" customWidth="1"/>
@@ -12040,11 +12243,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AM140"/>
+  <dimension ref="A1:AM167"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N12"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12061,49 +12264,49 @@
     <col min="10" max="10" width="15.75" style="122" customWidth="1"/>
     <col min="11" max="11" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
     <col min="14" max="14" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="196" customFormat="1" ht="71.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="324" t="s">
+      <c r="C1" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="324" t="s">
+      <c r="D1" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="324" t="s">
+      <c r="E1" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="324" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="324" t="s">
+      <c r="F1" s="269" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="269" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="325" t="s">
+      <c r="H1" s="259" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="325"/>
-      <c r="J1" s="326" t="s">
+      <c r="I1" s="259"/>
+      <c r="J1" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="326" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="326" t="s">
+      <c r="K1" s="252" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="252" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="326" t="s">
+      <c r="M1" s="252" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="326" t="s">
+      <c r="N1" s="252" t="s">
         <v>126</v>
       </c>
       <c r="O1" s="195"/>
@@ -12111,3213 +12314,4127 @@
       <c r="Q1" s="195"/>
     </row>
     <row r="2" spans="1:39" ht="15">
-      <c r="A2" s="327"/>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="329" t="s">
+      <c r="A2" s="272"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="253" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
       <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:39" ht="18" customHeight="1">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="254" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="326" t="s">
+      <c r="I3" s="252" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
       <c r="Q3" s="92"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1">
-      <c r="A4" s="199">
+      <c r="A4" s="263">
         <v>1</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="201" t="s">
+      <c r="D4" s="266" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="199" t="s">
+      <c r="E4" s="266"/>
+      <c r="F4" s="263" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="199">
+        <v>10</v>
+      </c>
+      <c r="L4" s="201"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="235"/>
+      <c r="AB4" s="235"/>
+      <c r="AC4" s="235"/>
+      <c r="AD4" s="235"/>
+      <c r="AE4" s="235"/>
+      <c r="AF4" s="235"/>
+      <c r="AG4" s="235"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="235"/>
+      <c r="AK4" s="235"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+    </row>
+    <row r="5" spans="1:39" ht="15">
+      <c r="A5" s="264"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="204" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="204" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="204"/>
+      <c r="J5" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="204">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="206"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="203" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="235"/>
+      <c r="P5" s="235"/>
+      <c r="Q5" s="235"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="235"/>
+      <c r="T5" s="235"/>
+      <c r="U5" s="235"/>
+      <c r="V5" s="235"/>
+      <c r="W5" s="235"/>
+      <c r="X5" s="235"/>
+      <c r="Y5" s="235"/>
+      <c r="Z5" s="235"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="235"/>
+      <c r="AE5" s="235"/>
+      <c r="AF5" s="235"/>
+      <c r="AG5" s="235"/>
+      <c r="AH5" s="235"/>
+      <c r="AI5" s="235"/>
+      <c r="AJ5" s="235"/>
+      <c r="AK5" s="235"/>
+      <c r="AL5" s="235"/>
+      <c r="AM5" s="235"/>
+    </row>
+    <row r="6" spans="1:39" ht="15">
+      <c r="A6" s="264"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="205" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="204">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="206"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="235"/>
+      <c r="AE6" s="235"/>
+      <c r="AF6" s="235"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
+      <c r="AI6" s="235"/>
+      <c r="AJ6" s="235"/>
+      <c r="AK6" s="235"/>
+      <c r="AL6" s="235"/>
+      <c r="AM6" s="235"/>
+    </row>
+    <row r="7" spans="1:39" s="129" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="265"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="208">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="235"/>
+      <c r="X7" s="235"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="235"/>
+      <c r="AL7" s="235"/>
+      <c r="AM7" s="235"/>
+    </row>
+    <row r="8" spans="1:39" ht="30" customHeight="1">
+      <c r="A8" s="273">
+        <v>2</v>
+      </c>
+      <c r="B8" s="297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="296" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="296" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203" t="s">
+      <c r="F8" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="212" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="212" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="212"/>
+      <c r="J8" s="200" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="199">
+        <v>100</v>
+      </c>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="235"/>
+      <c r="AJ8" s="235"/>
+      <c r="AK8" s="235"/>
+      <c r="AL8" s="235"/>
+      <c r="AM8" s="235"/>
+    </row>
+    <row r="9" spans="1:39" ht="15">
+      <c r="A9" s="274"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="204">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="206"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="235"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="235"/>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="235"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="235"/>
+      <c r="AF9" s="235"/>
+      <c r="AG9" s="235"/>
+      <c r="AH9" s="235"/>
+      <c r="AI9" s="235"/>
+      <c r="AJ9" s="235"/>
+      <c r="AK9" s="235"/>
+      <c r="AL9" s="235"/>
+      <c r="AM9" s="235"/>
+    </row>
+    <row r="10" spans="1:39" ht="15">
+      <c r="A10" s="274"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="204">
+        <v>100</v>
+      </c>
+      <c r="L10" s="206"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="235"/>
+      <c r="V10" s="235"/>
+      <c r="W10" s="235"/>
+      <c r="X10" s="235"/>
+      <c r="Y10" s="235"/>
+      <c r="Z10" s="235"/>
+      <c r="AA10" s="235"/>
+      <c r="AB10" s="235"/>
+      <c r="AC10" s="235"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="235"/>
+      <c r="AF10" s="235"/>
+      <c r="AG10" s="235"/>
+      <c r="AH10" s="235"/>
+      <c r="AI10" s="235"/>
+      <c r="AJ10" s="235"/>
+      <c r="AK10" s="235"/>
+      <c r="AL10" s="235"/>
+      <c r="AM10" s="235"/>
+    </row>
+    <row r="11" spans="1:39" ht="15">
+      <c r="A11" s="274"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="204">
+        <v>100</v>
+      </c>
+      <c r="L11" s="206"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="235"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="235"/>
+      <c r="W11" s="235"/>
+      <c r="X11" s="235"/>
+      <c r="Y11" s="235"/>
+      <c r="Z11" s="235"/>
+      <c r="AA11" s="235"/>
+      <c r="AB11" s="235"/>
+      <c r="AC11" s="235"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="235"/>
+      <c r="AF11" s="235"/>
+      <c r="AG11" s="235"/>
+      <c r="AH11" s="235"/>
+      <c r="AI11" s="235"/>
+      <c r="AJ11" s="235"/>
+      <c r="AK11" s="235"/>
+      <c r="AL11" s="235"/>
+      <c r="AM11" s="235"/>
+    </row>
+    <row r="12" spans="1:39" ht="15">
+      <c r="A12" s="274"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="204">
+        <v>100</v>
+      </c>
+      <c r="L12" s="206"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="203"/>
+    </row>
+    <row r="13" spans="1:39" ht="15">
+      <c r="A13" s="274"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="204">
+        <v>100</v>
+      </c>
+      <c r="L13" s="206"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="203"/>
+    </row>
+    <row r="14" spans="1:39" ht="15">
+      <c r="A14" s="274"/>
+      <c r="B14" s="298"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="202">
+      <c r="K14" s="214">
         <v>10</v>
       </c>
-      <c r="L4" s="204"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="331"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-    </row>
-    <row r="5" spans="1:39" ht="15">
-      <c r="A5" s="207"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="211" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="211" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="211"/>
-      <c r="J5" s="212" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="211">
+      <c r="L14" s="206"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="203"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A15" s="275"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="211"/>
+    </row>
+    <row r="16" spans="1:39" ht="15">
+      <c r="A16" s="273">
+        <v>3</v>
+      </c>
+      <c r="B16" s="297" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="296" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="301" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="216" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="212" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="212"/>
+      <c r="J16" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="218">
+        <v>100</v>
+      </c>
+      <c r="L16" s="201"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+    </row>
+    <row r="17" spans="1:15" ht="15">
+      <c r="A17" s="274"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="204">
         <v>1000</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="206" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="272"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="272"/>
-      <c r="T5" s="272"/>
-      <c r="U5" s="272"/>
-      <c r="V5" s="272"/>
-      <c r="W5" s="272"/>
-      <c r="X5" s="272"/>
-      <c r="Y5" s="272"/>
-      <c r="Z5" s="272"/>
-      <c r="AA5" s="272"/>
-      <c r="AB5" s="272"/>
-      <c r="AC5" s="272"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="272"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="272"/>
-      <c r="AH5" s="272"/>
-      <c r="AI5" s="272"/>
-      <c r="AJ5" s="272"/>
-      <c r="AK5" s="272"/>
-      <c r="AL5" s="272"/>
-      <c r="AM5" s="272"/>
-    </row>
-    <row r="6" spans="1:39" ht="15">
-      <c r="A6" s="207"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211" t="s">
+      <c r="L17" s="206"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15">
+      <c r="A18" s="274"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="205" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="204">
+        <v>10</v>
+      </c>
+      <c r="L18" s="206"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A19" s="275"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="268"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="215" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="219"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="210" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15">
+      <c r="A20" s="289">
+        <v>4</v>
+      </c>
+      <c r="B20" s="286" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="283" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="280" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="292" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="277" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="220" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="220"/>
+      <c r="J20" s="221" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="222">
+        <v>100</v>
+      </c>
+      <c r="L20" s="223"/>
+      <c r="M20" s="224" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="224"/>
+    </row>
+    <row r="21" spans="1:15" ht="15">
+      <c r="A21" s="290"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="212" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="211">
+      <c r="J21" s="226" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="227">
         <v>1000</v>
       </c>
-      <c r="L6" s="213"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="272"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="272"/>
-      <c r="S6" s="272"/>
-      <c r="T6" s="272"/>
-      <c r="U6" s="272"/>
-      <c r="V6" s="272"/>
-      <c r="W6" s="272"/>
-      <c r="X6" s="272"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="272"/>
-      <c r="AA6" s="272"/>
-      <c r="AB6" s="272"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="272"/>
-      <c r="AI6" s="272"/>
-      <c r="AJ6" s="272"/>
-      <c r="AK6" s="272"/>
-      <c r="AL6" s="272"/>
-      <c r="AM6" s="272"/>
-    </row>
-    <row r="7" spans="1:39" s="129" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="215"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="220" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="219">
+      <c r="L21" s="228"/>
+      <c r="M21" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="229" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="290"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="230"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="231" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="230">
+        <v>100</v>
+      </c>
+      <c r="L22" s="228"/>
+      <c r="M22" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="229"/>
+    </row>
+    <row r="23" spans="1:15" ht="15">
+      <c r="A23" s="290"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="230">
+        <v>100</v>
+      </c>
+      <c r="L23" s="228"/>
+      <c r="M23" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="229"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24" s="290"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="281"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="278"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="231" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="230">
+        <v>100</v>
+      </c>
+      <c r="L24" s="228"/>
+      <c r="M24" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="229"/>
+    </row>
+    <row r="25" spans="1:15" ht="15">
+      <c r="A25" s="290"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="231" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="230">
+        <v>100</v>
+      </c>
+      <c r="L25" s="228"/>
+      <c r="M25" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="229"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A26" s="291"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="232" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="234"/>
+      <c r="O26" s="235"/>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" customHeight="1">
+      <c r="A27" s="273">
+        <v>5</v>
+      </c>
+      <c r="B27" s="276" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="305" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="292" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="304" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="218" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="218" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="218"/>
+      <c r="J27" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="218">
+        <v>100</v>
+      </c>
+      <c r="L27" s="201"/>
+      <c r="M27" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="237"/>
+      <c r="O27" s="236"/>
+    </row>
+    <row r="28" spans="1:15" ht="15">
+      <c r="A28" s="274"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="306"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="204">
         <v>1000</v>
       </c>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="222"/>
-      <c r="O7" s="272"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="272"/>
-      <c r="T7" s="272"/>
-      <c r="U7" s="272"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="272"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="272"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="272"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="272"/>
-      <c r="AH7" s="272"/>
-      <c r="AI7" s="272"/>
-      <c r="AJ7" s="272"/>
-      <c r="AK7" s="272"/>
-      <c r="AL7" s="272"/>
-      <c r="AM7" s="272"/>
-    </row>
-    <row r="8" spans="1:39" ht="30" customHeight="1">
-      <c r="A8" s="223">
-        <v>2</v>
-      </c>
-      <c r="B8" s="224" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="225" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="225" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="225" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="227" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="227" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="227"/>
-      <c r="J8" s="203" t="s">
+      <c r="L28" s="206"/>
+      <c r="M28" s="207" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15">
+      <c r="A29" s="274"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="306"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="204">
+        <v>100</v>
+      </c>
+      <c r="L29" s="206"/>
+      <c r="M29" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="207"/>
+    </row>
+    <row r="30" spans="1:15" ht="15">
+      <c r="A30" s="274"/>
+      <c r="B30" s="261"/>
+      <c r="C30" s="306"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="204">
+        <v>100</v>
+      </c>
+      <c r="L30" s="206"/>
+      <c r="M30" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="207"/>
+    </row>
+    <row r="31" spans="1:15" ht="15">
+      <c r="A31" s="274"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="306"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="293"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="204">
+        <v>100</v>
+      </c>
+      <c r="L31" s="206"/>
+      <c r="M31" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="207"/>
+    </row>
+    <row r="32" spans="1:15" ht="15">
+      <c r="A32" s="274"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="306"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="264"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="239" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="204">
+        <v>100</v>
+      </c>
+      <c r="L32" s="206"/>
+      <c r="M32" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="207"/>
+    </row>
+    <row r="33" spans="1:14" ht="15">
+      <c r="A33" s="274"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="306"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="240" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="206"/>
+      <c r="M33" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A34" s="275"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="307"/>
+      <c r="D34" s="268"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="210"/>
+      <c r="M34" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="210"/>
+    </row>
+    <row r="35" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A35" s="273">
+        <v>6</v>
+      </c>
+      <c r="B35" s="276" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="305" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="296" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="296"/>
+      <c r="F35" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="218" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="218" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="218"/>
+      <c r="J35" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="202">
-        <v>100</v>
-      </c>
-      <c r="L8" s="204"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="272"/>
-      <c r="AJ8" s="272"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="272"/>
-      <c r="AM8" s="272"/>
-    </row>
-    <row r="9" spans="1:39" ht="15">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="211">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="213"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="272"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="272"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="272"/>
-      <c r="T9" s="272"/>
-      <c r="U9" s="272"/>
-      <c r="V9" s="272"/>
-      <c r="W9" s="272"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="272"/>
-      <c r="Z9" s="272"/>
-      <c r="AA9" s="272"/>
-      <c r="AB9" s="272"/>
-      <c r="AC9" s="272"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="272"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="272"/>
-      <c r="AJ9" s="272"/>
-      <c r="AK9" s="272"/>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="272"/>
-    </row>
-    <row r="10" spans="1:39" ht="15">
-      <c r="A10" s="229"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="211">
-        <v>100</v>
-      </c>
-      <c r="L10" s="213"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="272"/>
-      <c r="V10" s="272"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="272"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="272"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="272"/>
-      <c r="AE10" s="272"/>
-      <c r="AF10" s="272"/>
-      <c r="AG10" s="272"/>
-      <c r="AH10" s="272"/>
-      <c r="AI10" s="272"/>
-      <c r="AJ10" s="272"/>
-      <c r="AK10" s="272"/>
-      <c r="AL10" s="272"/>
-      <c r="AM10" s="272"/>
-    </row>
-    <row r="11" spans="1:39" ht="15">
-      <c r="A11" s="229"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="211">
-        <v>100</v>
-      </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="272"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="272"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="272"/>
-      <c r="V11" s="272"/>
-      <c r="W11" s="272"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="272"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="272"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="272"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="272"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="272"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="272"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="272"/>
-    </row>
-    <row r="12" spans="1:39" ht="15">
-      <c r="A12" s="229"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="211">
-        <v>100</v>
-      </c>
-      <c r="L12" s="213"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="206"/>
-    </row>
-    <row r="13" spans="1:39" ht="15">
-      <c r="A13" s="229"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="211">
-        <v>100</v>
-      </c>
-      <c r="L13" s="213"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="206"/>
-    </row>
-    <row r="14" spans="1:39" ht="15">
-      <c r="A14" s="229"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="231">
-        <v>10</v>
-      </c>
-      <c r="L14" s="213"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="206"/>
-    </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A15" s="233"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="219" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="222"/>
-    </row>
-    <row r="16" spans="1:39" ht="15">
-      <c r="A16" s="223">
-        <v>3</v>
-      </c>
-      <c r="B16" s="224" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="225" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="225" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="239" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="235" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="227" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="227"/>
-      <c r="J16" s="236" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="237">
-        <v>100</v>
-      </c>
-      <c r="L16" s="204"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-    </row>
-    <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="229"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="211">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="213"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
-      <c r="A18" s="229"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="211">
-        <v>10</v>
-      </c>
-      <c r="L18" s="213"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A19" s="233"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="231" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="238"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15">
-      <c r="A20" s="245">
-        <v>4</v>
-      </c>
-      <c r="B20" s="246" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="247" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="248" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="243" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" s="305" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="249" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="251">
-        <v>100</v>
-      </c>
-      <c r="L20" s="252"/>
-      <c r="M20" s="253" t="s">
+      <c r="K35" s="218">
+        <v>100</v>
+      </c>
+      <c r="L35" s="201"/>
+      <c r="M35" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="253"/>
-    </row>
-    <row r="21" spans="1:15" ht="15">
-      <c r="A21" s="254"/>
-      <c r="B21" s="255"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="306"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="259" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="260">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="261"/>
-      <c r="M21" s="262" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="262" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15">
-      <c r="A22" s="254"/>
-      <c r="B22" s="255"/>
-      <c r="C22" s="256"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="306"/>
-      <c r="G22" s="263"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="263"/>
-      <c r="J22" s="264" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="263">
-        <v>100</v>
-      </c>
-      <c r="L22" s="261"/>
-      <c r="M22" s="262" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="262"/>
-    </row>
-    <row r="23" spans="1:15" ht="15">
-      <c r="A23" s="254"/>
-      <c r="B23" s="255"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="306"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="264" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="263">
-        <v>100</v>
-      </c>
-      <c r="L23" s="261"/>
-      <c r="M23" s="262" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="262"/>
-    </row>
-    <row r="24" spans="1:15" ht="15">
-      <c r="A24" s="254"/>
-      <c r="B24" s="255"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="306"/>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="263"/>
-      <c r="J24" s="264" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="263">
-        <v>100</v>
-      </c>
-      <c r="L24" s="261"/>
-      <c r="M24" s="262" t="s">
-        <v>117</v>
-      </c>
-      <c r="N24" s="262"/>
-    </row>
-    <row r="25" spans="1:15" ht="15">
-      <c r="A25" s="254"/>
-      <c r="B25" s="255"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="257"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="263"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="264" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="263">
-        <v>100</v>
-      </c>
-      <c r="L25" s="261"/>
-      <c r="M25" s="262" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="262"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A26" s="265"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="269"/>
-      <c r="H26" s="269"/>
-      <c r="I26" s="269"/>
-      <c r="J26" s="270" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="269" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="271"/>
-      <c r="M26" s="271" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="271"/>
-      <c r="O26" s="272"/>
-    </row>
-    <row r="27" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A27" s="223">
-        <v>5</v>
-      </c>
-      <c r="B27" s="274" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="275" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="225" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="243" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="308" t="s">
-        <v>230</v>
-      </c>
-      <c r="G27" s="237" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="237" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="237"/>
-      <c r="J27" s="236" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="237">
-        <v>100</v>
-      </c>
-      <c r="L27" s="204"/>
-      <c r="M27" s="205" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" s="278"/>
-      <c r="O27" s="273"/>
-    </row>
-    <row r="28" spans="1:15" ht="15">
-      <c r="A28" s="229"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="276"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="211">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="213"/>
-      <c r="M28" s="214" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="214" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15">
-      <c r="A29" s="229"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="276"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="212" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="211">
-        <v>100</v>
-      </c>
-      <c r="L29" s="213"/>
-      <c r="M29" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="214"/>
-    </row>
-    <row r="30" spans="1:15" ht="15">
-      <c r="A30" s="229"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="212" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="211">
-        <v>100</v>
-      </c>
-      <c r="L30" s="213"/>
-      <c r="M30" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="214"/>
-    </row>
-    <row r="31" spans="1:15" ht="15">
-      <c r="A31" s="229"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="276"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="211">
-        <v>100</v>
-      </c>
-      <c r="L31" s="213"/>
-      <c r="M31" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="214"/>
-    </row>
-    <row r="32" spans="1:15" ht="15">
-      <c r="A32" s="229"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="276"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="280" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="211">
-        <v>100</v>
-      </c>
-      <c r="L32" s="213"/>
-      <c r="M32" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="N32" s="214"/>
-    </row>
-    <row r="33" spans="1:14" ht="15">
-      <c r="A33" s="229"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="276"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="281" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="282" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="213"/>
-      <c r="M33" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="214" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A34" s="233"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="277"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="219" t="s">
-        <v>130</v>
-      </c>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221" t="s">
-        <v>117</v>
-      </c>
-      <c r="N34" s="221"/>
-    </row>
-    <row r="35" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A35" s="223">
-        <v>6</v>
-      </c>
-      <c r="B35" s="274" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="275" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="225" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="225"/>
-      <c r="F35" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="237" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="237" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="237"/>
-      <c r="J35" s="236" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="237">
-        <v>100</v>
-      </c>
-      <c r="L35" s="204"/>
-      <c r="M35" s="205" t="s">
-        <v>116</v>
-      </c>
-      <c r="N35" s="205"/>
+      <c r="N35" s="202"/>
     </row>
     <row r="36" spans="1:14" ht="15">
-      <c r="A36" s="229"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="279"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="306"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="238"/>
       <c r="H36" s="197">
         <v>44218</v>
       </c>
-      <c r="I36" s="279"/>
-      <c r="J36" s="212" t="s">
+      <c r="I36" s="238"/>
+      <c r="J36" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="211">
+      <c r="K36" s="204">
         <v>1000</v>
       </c>
-      <c r="L36" s="213"/>
-      <c r="M36" s="214" t="s">
+      <c r="L36" s="206"/>
+      <c r="M36" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="214" t="s">
+      <c r="N36" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15">
-      <c r="A37" s="229"/>
-      <c r="B37" s="208"/>
-      <c r="C37" s="276"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="211"/>
+      <c r="A37" s="274"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="306"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="264"/>
+      <c r="G37" s="204"/>
       <c r="H37" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212" t="s">
+      <c r="I37" s="204"/>
+      <c r="J37" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="211">
-        <v>100</v>
-      </c>
-      <c r="L37" s="213"/>
-      <c r="M37" s="214" t="s">
+      <c r="K37" s="204">
+        <v>100</v>
+      </c>
+      <c r="L37" s="206"/>
+      <c r="M37" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="214"/>
+      <c r="N37" s="207"/>
     </row>
     <row r="38" spans="1:14" ht="15">
-      <c r="A38" s="229"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="276"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="212" t="s">
+      <c r="A38" s="274"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="306"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="211">
-        <v>100</v>
-      </c>
-      <c r="L38" s="213"/>
-      <c r="M38" s="214" t="s">
+      <c r="K38" s="204">
+        <v>100</v>
+      </c>
+      <c r="L38" s="206"/>
+      <c r="M38" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="214"/>
+      <c r="N38" s="207"/>
     </row>
     <row r="39" spans="1:14" ht="15">
-      <c r="A39" s="229"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="276"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="212" t="s">
+      <c r="A39" s="274"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="306"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="264"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="211">
-        <v>100</v>
-      </c>
-      <c r="L39" s="213"/>
-      <c r="M39" s="214" t="s">
+      <c r="K39" s="204">
+        <v>100</v>
+      </c>
+      <c r="L39" s="206"/>
+      <c r="M39" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N39" s="214"/>
+      <c r="N39" s="207"/>
     </row>
     <row r="40" spans="1:14" ht="15">
-      <c r="A40" s="229"/>
-      <c r="B40" s="208"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="212" t="s">
+      <c r="A40" s="274"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="306"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="211">
-        <v>100</v>
-      </c>
-      <c r="L40" s="213"/>
-      <c r="M40" s="214" t="s">
+      <c r="K40" s="204">
+        <v>100</v>
+      </c>
+      <c r="L40" s="206"/>
+      <c r="M40" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N40" s="214"/>
+      <c r="N40" s="207"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A41" s="233"/>
-      <c r="B41" s="216"/>
-      <c r="C41" s="277"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="220" t="s">
+      <c r="A41" s="275"/>
+      <c r="B41" s="262"/>
+      <c r="C41" s="307"/>
+      <c r="D41" s="268"/>
+      <c r="E41" s="268"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="219" t="s">
+      <c r="K41" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221" t="s">
+      <c r="L41" s="210"/>
+      <c r="M41" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="N41" s="221"/>
+      <c r="N41" s="210"/>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="223">
+      <c r="A42" s="273">
         <v>7</v>
       </c>
-      <c r="B42" s="274" t="s">
+      <c r="B42" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" s="283" t="s">
+      <c r="E42" s="296"/>
+      <c r="F42" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="283" t="s">
+      <c r="H42" s="242" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="283"/>
-      <c r="J42" s="236" t="s">
+      <c r="I42" s="242"/>
+      <c r="J42" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="237">
-        <v>100</v>
-      </c>
-      <c r="L42" s="204"/>
-      <c r="M42" s="205" t="s">
+      <c r="K42" s="218">
+        <v>100</v>
+      </c>
+      <c r="L42" s="201"/>
+      <c r="M42" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N42" s="205"/>
+      <c r="N42" s="202"/>
     </row>
     <row r="43" spans="1:14" ht="15">
-      <c r="A43" s="229"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="279"/>
+      <c r="A43" s="274"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="267"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="238"/>
       <c r="H43" s="197">
         <v>44218</v>
       </c>
-      <c r="I43" s="211"/>
-      <c r="J43" s="212" t="s">
+      <c r="I43" s="204"/>
+      <c r="J43" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="211">
+      <c r="K43" s="204">
         <v>1000</v>
       </c>
-      <c r="L43" s="213"/>
-      <c r="M43" s="205" t="s">
+      <c r="L43" s="206"/>
+      <c r="M43" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="214" t="s">
+      <c r="N43" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15">
-      <c r="A44" s="229"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="211"/>
+      <c r="A44" s="274"/>
+      <c r="B44" s="261"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="264"/>
+      <c r="G44" s="204"/>
       <c r="H44" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I44" s="211"/>
-      <c r="J44" s="212" t="s">
+      <c r="I44" s="204"/>
+      <c r="J44" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="211">
-        <v>100</v>
-      </c>
-      <c r="L44" s="213"/>
-      <c r="M44" s="205" t="s">
+      <c r="K44" s="204">
+        <v>100</v>
+      </c>
+      <c r="L44" s="206"/>
+      <c r="M44" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N44" s="214"/>
+      <c r="N44" s="207"/>
     </row>
     <row r="45" spans="1:14" ht="15">
-      <c r="A45" s="229"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="211"/>
-      <c r="H45" s="211"/>
-      <c r="I45" s="211"/>
-      <c r="J45" s="212" t="s">
+      <c r="A45" s="274"/>
+      <c r="B45" s="261"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="264"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="211">
-        <v>100</v>
-      </c>
-      <c r="L45" s="213"/>
-      <c r="M45" s="205" t="s">
+      <c r="K45" s="204">
+        <v>100</v>
+      </c>
+      <c r="L45" s="206"/>
+      <c r="M45" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N45" s="214"/>
+      <c r="N45" s="207"/>
     </row>
     <row r="46" spans="1:14" ht="15">
-      <c r="A46" s="229"/>
-      <c r="B46" s="208"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="212" t="s">
+      <c r="A46" s="274"/>
+      <c r="B46" s="261"/>
+      <c r="C46" s="267"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="267"/>
+      <c r="F46" s="264"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="211">
-        <v>100</v>
-      </c>
-      <c r="L46" s="213"/>
-      <c r="M46" s="205" t="s">
+      <c r="K46" s="204">
+        <v>100</v>
+      </c>
+      <c r="L46" s="206"/>
+      <c r="M46" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="214"/>
+      <c r="N46" s="207"/>
     </row>
     <row r="47" spans="1:14" ht="15">
-      <c r="A47" s="229"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="211"/>
-      <c r="H47" s="211"/>
-      <c r="I47" s="211"/>
-      <c r="J47" s="212" t="s">
+      <c r="A47" s="274"/>
+      <c r="B47" s="261"/>
+      <c r="C47" s="267"/>
+      <c r="D47" s="267"/>
+      <c r="E47" s="267"/>
+      <c r="F47" s="264"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="211">
-        <v>100</v>
-      </c>
-      <c r="L47" s="213"/>
-      <c r="M47" s="205" t="s">
+      <c r="K47" s="204">
+        <v>100</v>
+      </c>
+      <c r="L47" s="206"/>
+      <c r="M47" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N47" s="214"/>
+      <c r="N47" s="207"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A48" s="233"/>
-      <c r="B48" s="216"/>
-      <c r="C48" s="217"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="217"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="212" t="s">
+      <c r="A48" s="275"/>
+      <c r="B48" s="262"/>
+      <c r="C48" s="268"/>
+      <c r="D48" s="268"/>
+      <c r="E48" s="268"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="211" t="s">
+      <c r="K48" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="L48" s="221"/>
-      <c r="M48" s="221" t="s">
+      <c r="L48" s="210"/>
+      <c r="M48" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="N48" s="221"/>
+      <c r="N48" s="210"/>
     </row>
     <row r="49" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A49" s="223">
+      <c r="A49" s="273">
         <v>8</v>
       </c>
-      <c r="B49" s="274" t="s">
+      <c r="B49" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="275" t="s">
+      <c r="C49" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="225" t="s">
+      <c r="D49" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="225"/>
-      <c r="F49" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" s="237" t="s">
+      <c r="E49" s="296"/>
+      <c r="F49" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="237" t="s">
+      <c r="H49" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="I49" s="237"/>
-      <c r="J49" s="236" t="s">
+      <c r="I49" s="218"/>
+      <c r="J49" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="237">
-        <v>100</v>
-      </c>
-      <c r="L49" s="204"/>
-      <c r="M49" s="205" t="s">
+      <c r="K49" s="218">
+        <v>100</v>
+      </c>
+      <c r="L49" s="201"/>
+      <c r="M49" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N49" s="205"/>
+      <c r="N49" s="202"/>
     </row>
     <row r="50" spans="1:14" ht="15">
-      <c r="A50" s="229"/>
-      <c r="B50" s="208"/>
-      <c r="C50" s="276"/>
-      <c r="D50" s="209"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="279"/>
+      <c r="A50" s="274"/>
+      <c r="B50" s="261"/>
+      <c r="C50" s="306"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="267"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="238"/>
       <c r="H50" s="197">
         <v>44218</v>
       </c>
-      <c r="I50" s="279"/>
-      <c r="J50" s="212" t="s">
+      <c r="I50" s="238"/>
+      <c r="J50" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="211">
+      <c r="K50" s="204">
         <v>1000</v>
       </c>
-      <c r="L50" s="213"/>
-      <c r="M50" s="214" t="s">
+      <c r="L50" s="206"/>
+      <c r="M50" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N50" s="214" t="s">
+      <c r="N50" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15">
-      <c r="A51" s="229"/>
-      <c r="B51" s="208"/>
-      <c r="C51" s="276"/>
-      <c r="D51" s="209"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="211"/>
+      <c r="A51" s="274"/>
+      <c r="B51" s="261"/>
+      <c r="C51" s="306"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="267"/>
+      <c r="F51" s="264"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="211"/>
-      <c r="J51" s="212" t="s">
+      <c r="I51" s="204"/>
+      <c r="J51" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K51" s="211">
-        <v>100</v>
-      </c>
-      <c r="L51" s="213"/>
-      <c r="M51" s="214" t="s">
+      <c r="K51" s="204">
+        <v>100</v>
+      </c>
+      <c r="L51" s="206"/>
+      <c r="M51" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N51" s="214"/>
+      <c r="N51" s="207"/>
     </row>
     <row r="52" spans="1:14" ht="15">
-      <c r="A52" s="229"/>
-      <c r="B52" s="208"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="212" t="s">
+      <c r="A52" s="274"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="264"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="211">
-        <v>100</v>
-      </c>
-      <c r="L52" s="213"/>
-      <c r="M52" s="214" t="s">
+      <c r="K52" s="204">
+        <v>100</v>
+      </c>
+      <c r="L52" s="206"/>
+      <c r="M52" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N52" s="214"/>
+      <c r="N52" s="207"/>
     </row>
     <row r="53" spans="1:14" ht="15">
-      <c r="A53" s="229"/>
-      <c r="B53" s="208"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="211"/>
-      <c r="H53" s="211"/>
-      <c r="I53" s="211"/>
-      <c r="J53" s="212" t="s">
+      <c r="A53" s="274"/>
+      <c r="B53" s="261"/>
+      <c r="C53" s="306"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="264"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="211">
-        <v>100</v>
-      </c>
-      <c r="L53" s="213"/>
-      <c r="M53" s="214" t="s">
+      <c r="K53" s="204">
+        <v>100</v>
+      </c>
+      <c r="L53" s="206"/>
+      <c r="M53" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N53" s="214"/>
+      <c r="N53" s="207"/>
     </row>
     <row r="54" spans="1:14" ht="15">
-      <c r="A54" s="229"/>
-      <c r="B54" s="208"/>
-      <c r="C54" s="276"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="209"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="211"/>
-      <c r="H54" s="211"/>
-      <c r="I54" s="211"/>
-      <c r="J54" s="212" t="s">
+      <c r="A54" s="274"/>
+      <c r="B54" s="261"/>
+      <c r="C54" s="306"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="264"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="211">
-        <v>100</v>
-      </c>
-      <c r="L54" s="213"/>
-      <c r="M54" s="214" t="s">
+      <c r="K54" s="204">
+        <v>100</v>
+      </c>
+      <c r="L54" s="206"/>
+      <c r="M54" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N54" s="214"/>
+      <c r="N54" s="207"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A55" s="233"/>
-      <c r="B55" s="216"/>
-      <c r="C55" s="277"/>
-      <c r="D55" s="217"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="215"/>
-      <c r="G55" s="219"/>
-      <c r="H55" s="219"/>
-      <c r="I55" s="219"/>
-      <c r="J55" s="220" t="s">
+      <c r="A55" s="275"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="307"/>
+      <c r="D55" s="268"/>
+      <c r="E55" s="268"/>
+      <c r="F55" s="265"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="208"/>
+      <c r="I55" s="208"/>
+      <c r="J55" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="219" t="s">
+      <c r="K55" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="221"/>
-      <c r="M55" s="221" t="s">
+      <c r="L55" s="210"/>
+      <c r="M55" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="N55" s="221"/>
+      <c r="N55" s="210"/>
     </row>
     <row r="56" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A56" s="223">
+      <c r="A56" s="273">
         <v>9</v>
       </c>
-      <c r="B56" s="274" t="s">
+      <c r="B56" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="275" t="s">
+      <c r="C56" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="225" t="s">
+      <c r="D56" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="225"/>
-      <c r="F56" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56" s="237" t="s">
+      <c r="E56" s="296"/>
+      <c r="F56" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="237" t="s">
+      <c r="H56" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="I56" s="237"/>
-      <c r="J56" s="236" t="s">
+      <c r="I56" s="218"/>
+      <c r="J56" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="237">
-        <v>100</v>
-      </c>
-      <c r="L56" s="204"/>
-      <c r="M56" s="205" t="s">
+      <c r="K56" s="218">
+        <v>100</v>
+      </c>
+      <c r="L56" s="201"/>
+      <c r="M56" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N56" s="205"/>
+      <c r="N56" s="202"/>
     </row>
     <row r="57" spans="1:14" ht="15">
-      <c r="A57" s="229"/>
-      <c r="B57" s="208"/>
-      <c r="C57" s="276"/>
-      <c r="D57" s="209"/>
-      <c r="E57" s="209"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="279"/>
+      <c r="A57" s="274"/>
+      <c r="B57" s="261"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="264"/>
+      <c r="G57" s="238"/>
       <c r="H57" s="197">
         <v>44219</v>
       </c>
-      <c r="I57" s="279"/>
-      <c r="J57" s="212" t="s">
+      <c r="I57" s="238"/>
+      <c r="J57" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="211">
+      <c r="K57" s="204">
         <v>1000</v>
       </c>
-      <c r="L57" s="213"/>
-      <c r="M57" s="214" t="s">
+      <c r="L57" s="206"/>
+      <c r="M57" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N57" s="214" t="s">
+      <c r="N57" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15">
-      <c r="A58" s="229"/>
-      <c r="B58" s="208"/>
-      <c r="C58" s="276"/>
-      <c r="D58" s="209"/>
-      <c r="E58" s="209"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="211"/>
+      <c r="A58" s="274"/>
+      <c r="B58" s="261"/>
+      <c r="C58" s="306"/>
+      <c r="D58" s="267"/>
+      <c r="E58" s="267"/>
+      <c r="F58" s="264"/>
+      <c r="G58" s="204"/>
       <c r="H58" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I58" s="211"/>
-      <c r="J58" s="212" t="s">
+      <c r="I58" s="204"/>
+      <c r="J58" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="211">
-        <v>100</v>
-      </c>
-      <c r="L58" s="213"/>
-      <c r="M58" s="214" t="s">
+      <c r="K58" s="204">
+        <v>100</v>
+      </c>
+      <c r="L58" s="206"/>
+      <c r="M58" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N58" s="214"/>
+      <c r="N58" s="207"/>
     </row>
     <row r="59" spans="1:14" ht="15">
-      <c r="A59" s="229"/>
-      <c r="B59" s="208"/>
-      <c r="C59" s="276"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="211"/>
-      <c r="H59" s="211"/>
-      <c r="I59" s="211"/>
-      <c r="J59" s="212" t="s">
+      <c r="A59" s="274"/>
+      <c r="B59" s="261"/>
+      <c r="C59" s="306"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="264"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="211">
-        <v>100</v>
-      </c>
-      <c r="L59" s="213"/>
-      <c r="M59" s="214" t="s">
+      <c r="K59" s="204">
+        <v>100</v>
+      </c>
+      <c r="L59" s="206"/>
+      <c r="M59" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N59" s="214"/>
+      <c r="N59" s="207"/>
     </row>
     <row r="60" spans="1:14" ht="15">
-      <c r="A60" s="229"/>
-      <c r="B60" s="208"/>
-      <c r="C60" s="276"/>
-      <c r="D60" s="209"/>
-      <c r="E60" s="209"/>
-      <c r="F60" s="207"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="211"/>
-      <c r="J60" s="212" t="s">
+      <c r="A60" s="274"/>
+      <c r="B60" s="261"/>
+      <c r="C60" s="306"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="264"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K60" s="211">
-        <v>100</v>
-      </c>
-      <c r="L60" s="213"/>
-      <c r="M60" s="214" t="s">
+      <c r="K60" s="204">
+        <v>100</v>
+      </c>
+      <c r="L60" s="206"/>
+      <c r="M60" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N60" s="214"/>
+      <c r="N60" s="207"/>
     </row>
     <row r="61" spans="1:14" ht="15">
-      <c r="A61" s="229"/>
-      <c r="B61" s="208"/>
-      <c r="C61" s="276"/>
-      <c r="D61" s="209"/>
-      <c r="E61" s="209"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="211"/>
-      <c r="I61" s="211"/>
-      <c r="J61" s="212" t="s">
+      <c r="A61" s="274"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="306"/>
+      <c r="D61" s="267"/>
+      <c r="E61" s="267"/>
+      <c r="F61" s="264"/>
+      <c r="G61" s="204"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K61" s="211">
-        <v>100</v>
-      </c>
-      <c r="L61" s="213"/>
-      <c r="M61" s="214" t="s">
+      <c r="K61" s="204">
+        <v>100</v>
+      </c>
+      <c r="L61" s="206"/>
+      <c r="M61" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N61" s="214"/>
+      <c r="N61" s="207"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="233"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="277"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="215"/>
-      <c r="G62" s="219"/>
-      <c r="H62" s="219"/>
-      <c r="I62" s="219"/>
-      <c r="J62" s="220" t="s">
+      <c r="A62" s="275"/>
+      <c r="B62" s="262"/>
+      <c r="C62" s="307"/>
+      <c r="D62" s="268"/>
+      <c r="E62" s="268"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="208"/>
+      <c r="H62" s="208"/>
+      <c r="I62" s="208"/>
+      <c r="J62" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="219" t="s">
+      <c r="K62" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L62" s="221"/>
-      <c r="M62" s="221" t="s">
+      <c r="L62" s="210"/>
+      <c r="M62" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="N62" s="221"/>
+      <c r="N62" s="210"/>
     </row>
     <row r="63" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A63" s="284">
+      <c r="A63" s="308">
         <v>10</v>
       </c>
-      <c r="B63" s="226" t="s">
+      <c r="B63" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="225" t="s">
+      <c r="C63" s="296" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="225" t="s">
+      <c r="D63" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="225"/>
-      <c r="F63" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G63" s="283" t="s">
+      <c r="E63" s="296"/>
+      <c r="F63" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="H63" s="283" t="s">
+      <c r="H63" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="283"/>
-      <c r="J63" s="236" t="s">
+      <c r="I63" s="242"/>
+      <c r="J63" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="237">
+      <c r="K63" s="218">
         <v>1000</v>
       </c>
-      <c r="L63" s="204"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="205"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="202"/>
+      <c r="N63" s="202"/>
     </row>
     <row r="64" spans="1:14" ht="15">
-      <c r="A64" s="285"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="207"/>
-      <c r="G64" s="279"/>
-      <c r="H64" s="279"/>
-      <c r="I64" s="279" t="s">
+      <c r="A64" s="309"/>
+      <c r="B64" s="312"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="267"/>
+      <c r="F64" s="264"/>
+      <c r="G64" s="238"/>
+      <c r="H64" s="238"/>
+      <c r="I64" s="238" t="s">
         <v>203</v>
       </c>
-      <c r="J64" s="212" t="s">
+      <c r="J64" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="K64" s="211">
+      <c r="K64" s="204">
         <v>1000</v>
       </c>
-      <c r="L64" s="213"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A65" s="286"/>
-      <c r="B65" s="218"/>
-      <c r="C65" s="217"/>
-      <c r="D65" s="217"/>
-      <c r="E65" s="217"/>
-      <c r="F65" s="215"/>
-      <c r="G65" s="287"/>
-      <c r="H65" s="287"/>
-      <c r="I65" s="287"/>
-      <c r="J65" s="220" t="s">
+      <c r="A65" s="310"/>
+      <c r="B65" s="313"/>
+      <c r="C65" s="268"/>
+      <c r="D65" s="268"/>
+      <c r="E65" s="268"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="243"/>
+      <c r="H65" s="243"/>
+      <c r="I65" s="243"/>
+      <c r="J65" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="K65" s="219">
+      <c r="K65" s="208">
         <v>1000</v>
       </c>
-      <c r="L65" s="221"/>
-      <c r="M65" s="221"/>
-      <c r="N65" s="221"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="210"/>
+      <c r="N65" s="210"/>
     </row>
     <row r="66" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A66" s="223">
+      <c r="A66" s="273">
         <v>11</v>
       </c>
-      <c r="B66" s="274" t="s">
+      <c r="B66" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="275" t="s">
+      <c r="C66" s="305" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="225" t="s">
+      <c r="D66" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="225"/>
-      <c r="F66" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G66" s="283">
+      <c r="E66" s="296"/>
+      <c r="F66" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G66" s="242">
         <v>43772</v>
       </c>
-      <c r="H66" s="283">
+      <c r="H66" s="242">
         <v>44503</v>
       </c>
-      <c r="I66" s="283"/>
-      <c r="J66" s="236" t="s">
+      <c r="I66" s="242"/>
+      <c r="J66" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="237">
-        <v>100</v>
-      </c>
-      <c r="L66" s="204"/>
-      <c r="M66" s="205"/>
-      <c r="N66" s="205"/>
+      <c r="K66" s="218">
+        <v>100</v>
+      </c>
+      <c r="L66" s="201"/>
+      <c r="M66" s="202"/>
+      <c r="N66" s="202"/>
     </row>
     <row r="67" spans="1:14" ht="15">
-      <c r="A67" s="229"/>
-      <c r="B67" s="208"/>
-      <c r="C67" s="276"/>
-      <c r="D67" s="209"/>
-      <c r="E67" s="209"/>
-      <c r="F67" s="207"/>
-      <c r="G67" s="279"/>
-      <c r="H67" s="279"/>
-      <c r="I67" s="279" t="s">
+      <c r="A67" s="274"/>
+      <c r="B67" s="261"/>
+      <c r="C67" s="306"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="267"/>
+      <c r="F67" s="264"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="238" t="s">
         <v>203</v>
       </c>
-      <c r="J67" s="212" t="s">
+      <c r="J67" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K67" s="211">
+      <c r="K67" s="204">
         <v>1000</v>
       </c>
-      <c r="L67" s="213"/>
-      <c r="M67" s="214"/>
-      <c r="N67" s="214" t="s">
+      <c r="L67" s="206"/>
+      <c r="M67" s="207"/>
+      <c r="N67" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15">
-      <c r="A68" s="229"/>
-      <c r="B68" s="208"/>
-      <c r="C68" s="276"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
-      <c r="F68" s="207"/>
-      <c r="G68" s="211"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="212" t="s">
+      <c r="A68" s="274"/>
+      <c r="B68" s="261"/>
+      <c r="C68" s="306"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="267"/>
+      <c r="F68" s="264"/>
+      <c r="G68" s="204"/>
+      <c r="H68" s="204"/>
+      <c r="I68" s="204"/>
+      <c r="J68" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K68" s="211">
-        <v>100</v>
-      </c>
-      <c r="L68" s="213"/>
-      <c r="M68" s="214"/>
-      <c r="N68" s="214"/>
+      <c r="K68" s="204">
+        <v>100</v>
+      </c>
+      <c r="L68" s="206"/>
+      <c r="M68" s="207"/>
+      <c r="N68" s="207"/>
     </row>
     <row r="69" spans="1:14" ht="15">
-      <c r="A69" s="229"/>
-      <c r="B69" s="208"/>
-      <c r="C69" s="276"/>
-      <c r="D69" s="209"/>
-      <c r="E69" s="209"/>
-      <c r="F69" s="207"/>
-      <c r="G69" s="211"/>
-      <c r="H69" s="211"/>
-      <c r="I69" s="211"/>
-      <c r="J69" s="212" t="s">
+      <c r="A69" s="274"/>
+      <c r="B69" s="261"/>
+      <c r="C69" s="306"/>
+      <c r="D69" s="267"/>
+      <c r="E69" s="267"/>
+      <c r="F69" s="264"/>
+      <c r="G69" s="204"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="211">
-        <v>100</v>
-      </c>
-      <c r="L69" s="213"/>
-      <c r="M69" s="214"/>
-      <c r="N69" s="214"/>
+      <c r="K69" s="204">
+        <v>100</v>
+      </c>
+      <c r="L69" s="206"/>
+      <c r="M69" s="207"/>
+      <c r="N69" s="207"/>
     </row>
     <row r="70" spans="1:14" ht="15">
-      <c r="A70" s="229"/>
-      <c r="B70" s="208"/>
-      <c r="C70" s="276"/>
-      <c r="D70" s="209"/>
-      <c r="E70" s="209"/>
-      <c r="F70" s="207"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="212" t="s">
+      <c r="A70" s="274"/>
+      <c r="B70" s="261"/>
+      <c r="C70" s="306"/>
+      <c r="D70" s="267"/>
+      <c r="E70" s="267"/>
+      <c r="F70" s="264"/>
+      <c r="G70" s="204"/>
+      <c r="H70" s="204"/>
+      <c r="I70" s="204"/>
+      <c r="J70" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K70" s="211">
-        <v>100</v>
-      </c>
-      <c r="L70" s="213"/>
-      <c r="M70" s="214"/>
-      <c r="N70" s="214"/>
+      <c r="K70" s="204">
+        <v>100</v>
+      </c>
+      <c r="L70" s="206"/>
+      <c r="M70" s="207"/>
+      <c r="N70" s="207"/>
     </row>
     <row r="71" spans="1:14" ht="15">
-      <c r="A71" s="229"/>
-      <c r="B71" s="208"/>
-      <c r="C71" s="276"/>
-      <c r="D71" s="209"/>
-      <c r="E71" s="209"/>
-      <c r="F71" s="207"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="211"/>
-      <c r="I71" s="211"/>
-      <c r="J71" s="212" t="s">
+      <c r="A71" s="274"/>
+      <c r="B71" s="261"/>
+      <c r="C71" s="306"/>
+      <c r="D71" s="267"/>
+      <c r="E71" s="267"/>
+      <c r="F71" s="264"/>
+      <c r="G71" s="204"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="204"/>
+      <c r="J71" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="211">
-        <v>100</v>
-      </c>
-      <c r="L71" s="213"/>
-      <c r="M71" s="214"/>
-      <c r="N71" s="214"/>
+      <c r="K71" s="204">
+        <v>100</v>
+      </c>
+      <c r="L71" s="206"/>
+      <c r="M71" s="207"/>
+      <c r="N71" s="207"/>
     </row>
     <row r="72" spans="1:14" ht="15">
-      <c r="A72" s="229"/>
-      <c r="B72" s="208"/>
-      <c r="C72" s="276"/>
-      <c r="D72" s="209"/>
-      <c r="E72" s="209"/>
-      <c r="F72" s="207"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="211"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="212" t="s">
+      <c r="A72" s="274"/>
+      <c r="B72" s="261"/>
+      <c r="C72" s="306"/>
+      <c r="D72" s="267"/>
+      <c r="E72" s="267"/>
+      <c r="F72" s="264"/>
+      <c r="G72" s="204"/>
+      <c r="H72" s="204"/>
+      <c r="I72" s="204"/>
+      <c r="J72" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="K72" s="211">
+      <c r="K72" s="204">
         <v>1000</v>
       </c>
-      <c r="L72" s="213"/>
-      <c r="M72" s="214"/>
-      <c r="N72" s="214" t="s">
+      <c r="L72" s="206"/>
+      <c r="M72" s="207"/>
+      <c r="N72" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15">
-      <c r="A73" s="229"/>
-      <c r="B73" s="208"/>
-      <c r="C73" s="276"/>
-      <c r="D73" s="209"/>
-      <c r="E73" s="209"/>
-      <c r="F73" s="207"/>
-      <c r="G73" s="211"/>
-      <c r="H73" s="211"/>
-      <c r="I73" s="211"/>
-      <c r="J73" s="212" t="s">
+      <c r="A73" s="274"/>
+      <c r="B73" s="261"/>
+      <c r="C73" s="306"/>
+      <c r="D73" s="267"/>
+      <c r="E73" s="267"/>
+      <c r="F73" s="264"/>
+      <c r="G73" s="204"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="204"/>
+      <c r="J73" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="K73" s="211">
+      <c r="K73" s="204">
         <v>1000</v>
       </c>
-      <c r="L73" s="213"/>
-      <c r="M73" s="214"/>
-      <c r="N73" s="214" t="s">
+      <c r="L73" s="206"/>
+      <c r="M73" s="207"/>
+      <c r="N73" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A74" s="233"/>
-      <c r="B74" s="216"/>
-      <c r="C74" s="277"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="215"/>
-      <c r="G74" s="219"/>
-      <c r="H74" s="219"/>
-      <c r="I74" s="219"/>
-      <c r="J74" s="220" t="s">
+      <c r="A74" s="275"/>
+      <c r="B74" s="262"/>
+      <c r="C74" s="307"/>
+      <c r="D74" s="268"/>
+      <c r="E74" s="268"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="208"/>
+      <c r="I74" s="208"/>
+      <c r="J74" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="219" t="s">
+      <c r="K74" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L74" s="238"/>
-      <c r="M74" s="221"/>
-      <c r="N74" s="221"/>
+      <c r="L74" s="219"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="210"/>
     </row>
     <row r="75" spans="1:14" ht="15">
-      <c r="A75" s="223">
+      <c r="A75" s="273">
         <v>12</v>
       </c>
-      <c r="B75" s="274" t="s">
+      <c r="B75" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="275" t="s">
+      <c r="C75" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="225" t="s">
+      <c r="D75" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="225"/>
-      <c r="F75" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G75" s="237" t="s">
+      <c r="E75" s="296"/>
+      <c r="F75" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G75" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="H75" s="237" t="s">
+      <c r="H75" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="I75" s="237"/>
-      <c r="J75" s="236" t="s">
+      <c r="I75" s="218"/>
+      <c r="J75" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K75" s="237">
-        <v>100</v>
-      </c>
-      <c r="L75" s="204"/>
-      <c r="M75" s="204" t="s">
+      <c r="K75" s="218">
+        <v>100</v>
+      </c>
+      <c r="L75" s="201"/>
+      <c r="M75" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="N75" s="205"/>
+      <c r="N75" s="202"/>
     </row>
     <row r="76" spans="1:14" ht="15">
-      <c r="A76" s="229"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="276"/>
-      <c r="D76" s="209"/>
-      <c r="E76" s="209"/>
-      <c r="F76" s="207"/>
-      <c r="G76" s="279"/>
+      <c r="A76" s="274"/>
+      <c r="B76" s="261"/>
+      <c r="C76" s="306"/>
+      <c r="D76" s="267"/>
+      <c r="E76" s="267"/>
+      <c r="F76" s="264"/>
+      <c r="G76" s="238"/>
       <c r="H76" s="197">
         <v>44218</v>
       </c>
-      <c r="I76" s="279"/>
-      <c r="J76" s="212" t="s">
+      <c r="I76" s="238"/>
+      <c r="J76" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="211">
+      <c r="K76" s="204">
         <v>1000</v>
       </c>
-      <c r="L76" s="213"/>
-      <c r="M76" s="214" t="s">
+      <c r="L76" s="206"/>
+      <c r="M76" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N76" s="214"/>
+      <c r="N76" s="207"/>
     </row>
     <row r="77" spans="1:14" ht="15">
-      <c r="A77" s="229"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="276"/>
-      <c r="D77" s="209"/>
-      <c r="E77" s="209"/>
-      <c r="F77" s="207"/>
-      <c r="G77" s="211"/>
+      <c r="A77" s="274"/>
+      <c r="B77" s="261"/>
+      <c r="C77" s="306"/>
+      <c r="D77" s="267"/>
+      <c r="E77" s="267"/>
+      <c r="F77" s="264"/>
+      <c r="G77" s="204"/>
       <c r="H77" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I77" s="211"/>
-      <c r="J77" s="212" t="s">
+      <c r="I77" s="204"/>
+      <c r="J77" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K77" s="211">
-        <v>100</v>
-      </c>
-      <c r="L77" s="213"/>
-      <c r="M77" s="214" t="s">
+      <c r="K77" s="204">
+        <v>100</v>
+      </c>
+      <c r="L77" s="206"/>
+      <c r="M77" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N77" s="214"/>
+      <c r="N77" s="207"/>
     </row>
     <row r="78" spans="1:14" ht="15">
-      <c r="A78" s="229"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="276"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="207"/>
-      <c r="G78" s="211"/>
-      <c r="H78" s="211"/>
-      <c r="I78" s="211"/>
-      <c r="J78" s="212" t="s">
+      <c r="A78" s="274"/>
+      <c r="B78" s="261"/>
+      <c r="C78" s="306"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="267"/>
+      <c r="F78" s="264"/>
+      <c r="G78" s="204"/>
+      <c r="H78" s="204"/>
+      <c r="I78" s="204"/>
+      <c r="J78" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="211">
-        <v>100</v>
-      </c>
-      <c r="L78" s="213"/>
-      <c r="M78" s="214" t="s">
+      <c r="K78" s="204">
+        <v>100</v>
+      </c>
+      <c r="L78" s="206"/>
+      <c r="M78" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N78" s="214"/>
+      <c r="N78" s="207"/>
     </row>
     <row r="79" spans="1:14" ht="15">
-      <c r="A79" s="229"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="276"/>
-      <c r="D79" s="209"/>
-      <c r="E79" s="209"/>
-      <c r="F79" s="207"/>
-      <c r="G79" s="211"/>
-      <c r="H79" s="211"/>
-      <c r="I79" s="211"/>
-      <c r="J79" s="212" t="s">
+      <c r="A79" s="274"/>
+      <c r="B79" s="261"/>
+      <c r="C79" s="306"/>
+      <c r="D79" s="267"/>
+      <c r="E79" s="267"/>
+      <c r="F79" s="264"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
+      <c r="I79" s="204"/>
+      <c r="J79" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K79" s="211">
-        <v>100</v>
-      </c>
-      <c r="L79" s="213"/>
-      <c r="M79" s="214" t="s">
+      <c r="K79" s="204">
+        <v>100</v>
+      </c>
+      <c r="L79" s="206"/>
+      <c r="M79" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="214"/>
+      <c r="N79" s="207"/>
     </row>
     <row r="80" spans="1:14" ht="15">
-      <c r="A80" s="229"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="276"/>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
-      <c r="F80" s="207"/>
-      <c r="G80" s="211"/>
-      <c r="H80" s="211"/>
-      <c r="I80" s="211"/>
-      <c r="J80" s="212" t="s">
+      <c r="A80" s="274"/>
+      <c r="B80" s="261"/>
+      <c r="C80" s="306"/>
+      <c r="D80" s="267"/>
+      <c r="E80" s="267"/>
+      <c r="F80" s="264"/>
+      <c r="G80" s="204"/>
+      <c r="H80" s="204"/>
+      <c r="I80" s="204"/>
+      <c r="J80" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="211">
-        <v>100</v>
-      </c>
-      <c r="L80" s="213"/>
-      <c r="M80" s="214" t="s">
+      <c r="K80" s="204">
+        <v>100</v>
+      </c>
+      <c r="L80" s="206"/>
+      <c r="M80" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N80" s="214"/>
+      <c r="N80" s="207"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A81" s="233"/>
-      <c r="B81" s="216"/>
-      <c r="C81" s="277"/>
-      <c r="D81" s="217"/>
-      <c r="E81" s="217"/>
-      <c r="F81" s="215"/>
-      <c r="G81" s="231"/>
-      <c r="H81" s="231"/>
-      <c r="I81" s="231"/>
-      <c r="J81" s="232" t="s">
+      <c r="A81" s="275"/>
+      <c r="B81" s="262"/>
+      <c r="C81" s="307"/>
+      <c r="D81" s="268"/>
+      <c r="E81" s="268"/>
+      <c r="F81" s="265"/>
+      <c r="G81" s="214"/>
+      <c r="H81" s="214"/>
+      <c r="I81" s="214"/>
+      <c r="J81" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="231" t="s">
+      <c r="K81" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="L81" s="221"/>
-      <c r="M81" s="221" t="s">
+      <c r="L81" s="210"/>
+      <c r="M81" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="N81" s="221"/>
+      <c r="N81" s="210"/>
     </row>
     <row r="82" spans="1:14" ht="15">
-      <c r="A82" s="223">
+      <c r="A82" s="273">
         <v>13</v>
       </c>
-      <c r="B82" s="274" t="s">
+      <c r="B82" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="275" t="s">
+      <c r="C82" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="275" t="s">
+      <c r="D82" s="305" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="225"/>
-      <c r="F82" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G82" s="283" t="s">
+      <c r="E82" s="296"/>
+      <c r="F82" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="283" t="s">
+      <c r="H82" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="I82" s="283"/>
-      <c r="J82" s="236" t="s">
+      <c r="I82" s="242"/>
+      <c r="J82" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K82" s="237">
-        <v>100</v>
-      </c>
-      <c r="L82" s="204"/>
-      <c r="M82" s="205" t="s">
+      <c r="K82" s="218">
+        <v>100</v>
+      </c>
+      <c r="L82" s="201"/>
+      <c r="M82" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N82" s="205"/>
+      <c r="N82" s="202"/>
     </row>
     <row r="83" spans="1:14" ht="15">
-      <c r="A83" s="229"/>
-      <c r="B83" s="208"/>
-      <c r="C83" s="276"/>
-      <c r="D83" s="276"/>
-      <c r="E83" s="209"/>
-      <c r="F83" s="207"/>
-      <c r="G83" s="279"/>
+      <c r="A83" s="274"/>
+      <c r="B83" s="261"/>
+      <c r="C83" s="306"/>
+      <c r="D83" s="306"/>
+      <c r="E83" s="267"/>
+      <c r="F83" s="264"/>
+      <c r="G83" s="238"/>
       <c r="H83" s="197">
         <v>44219</v>
       </c>
-      <c r="I83" s="211"/>
-      <c r="J83" s="212" t="s">
+      <c r="I83" s="204"/>
+      <c r="J83" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K83" s="211">
+      <c r="K83" s="204">
         <v>1000</v>
       </c>
-      <c r="L83" s="213"/>
-      <c r="M83" s="214" t="s">
+      <c r="L83" s="206"/>
+      <c r="M83" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N83" s="214" t="s">
+      <c r="N83" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15">
-      <c r="A84" s="229"/>
-      <c r="B84" s="208"/>
-      <c r="C84" s="276"/>
-      <c r="D84" s="276"/>
-      <c r="E84" s="209"/>
-      <c r="F84" s="207"/>
-      <c r="G84" s="211"/>
+      <c r="A84" s="274"/>
+      <c r="B84" s="261"/>
+      <c r="C84" s="306"/>
+      <c r="D84" s="306"/>
+      <c r="E84" s="267"/>
+      <c r="F84" s="264"/>
+      <c r="G84" s="204"/>
       <c r="H84" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I84" s="211"/>
-      <c r="J84" s="212" t="s">
+      <c r="I84" s="204"/>
+      <c r="J84" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="K84" s="211">
+      <c r="K84" s="204">
         <v>10</v>
       </c>
-      <c r="L84" s="213"/>
-      <c r="M84" s="214" t="s">
+      <c r="L84" s="206"/>
+      <c r="M84" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N84" s="214"/>
+      <c r="N84" s="207"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A85" s="233"/>
-      <c r="B85" s="216"/>
-      <c r="C85" s="277"/>
-      <c r="D85" s="277"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="215"/>
-      <c r="G85" s="219"/>
-      <c r="H85" s="219"/>
-      <c r="I85" s="219"/>
-      <c r="J85" s="220" t="s">
+      <c r="A85" s="275"/>
+      <c r="B85" s="262"/>
+      <c r="C85" s="307"/>
+      <c r="D85" s="307"/>
+      <c r="E85" s="268"/>
+      <c r="F85" s="265"/>
+      <c r="G85" s="208"/>
+      <c r="H85" s="208"/>
+      <c r="I85" s="208"/>
+      <c r="J85" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="K85" s="219" t="s">
+      <c r="K85" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L85" s="221"/>
-      <c r="M85" s="221"/>
-      <c r="N85" s="221"/>
+      <c r="L85" s="210"/>
+      <c r="M85" s="210"/>
+      <c r="N85" s="210"/>
     </row>
     <row r="86" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A86" s="223">
+      <c r="A86" s="273">
         <v>14</v>
       </c>
-      <c r="B86" s="274" t="s">
+      <c r="B86" s="276" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="225" t="s">
+      <c r="C86" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="225" t="s">
+      <c r="D86" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="225"/>
-      <c r="F86" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G86" s="227">
+      <c r="E86" s="296"/>
+      <c r="F86" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="212">
         <v>43743</v>
       </c>
-      <c r="H86" s="227">
+      <c r="H86" s="212">
         <v>44474</v>
       </c>
-      <c r="I86" s="227"/>
-      <c r="J86" s="203" t="s">
+      <c r="I86" s="212"/>
+      <c r="J86" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="202">
-        <v>100</v>
-      </c>
-      <c r="L86" s="204"/>
-      <c r="M86" s="205"/>
-      <c r="N86" s="205"/>
+      <c r="K86" s="199">
+        <v>100</v>
+      </c>
+      <c r="L86" s="201"/>
+      <c r="M86" s="202"/>
+      <c r="N86" s="202"/>
     </row>
     <row r="87" spans="1:14" ht="15">
-      <c r="A87" s="229"/>
-      <c r="B87" s="208"/>
-      <c r="C87" s="209"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="207"/>
-      <c r="G87" s="202"/>
-      <c r="H87" s="202"/>
-      <c r="I87" s="202" t="s">
+      <c r="A87" s="274"/>
+      <c r="B87" s="261"/>
+      <c r="C87" s="267"/>
+      <c r="D87" s="267"/>
+      <c r="E87" s="267"/>
+      <c r="F87" s="264"/>
+      <c r="G87" s="199"/>
+      <c r="H87" s="199"/>
+      <c r="I87" s="199" t="s">
         <v>203</v>
       </c>
-      <c r="J87" s="203" t="s">
+      <c r="J87" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="K87" s="202">
+      <c r="K87" s="199">
         <v>1000</v>
       </c>
-      <c r="L87" s="213"/>
-      <c r="M87" s="214"/>
-      <c r="N87" s="214" t="s">
+      <c r="L87" s="206"/>
+      <c r="M87" s="207"/>
+      <c r="N87" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15">
-      <c r="A88" s="229"/>
-      <c r="B88" s="208"/>
-      <c r="C88" s="209"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="209"/>
-      <c r="F88" s="207"/>
-      <c r="G88" s="211"/>
-      <c r="H88" s="211"/>
-      <c r="I88" s="211"/>
-      <c r="J88" s="212" t="s">
+      <c r="A88" s="274"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="267"/>
+      <c r="D88" s="267"/>
+      <c r="E88" s="267"/>
+      <c r="F88" s="264"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="204"/>
+      <c r="I88" s="204"/>
+      <c r="J88" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K88" s="211">
-        <v>100</v>
-      </c>
-      <c r="L88" s="213"/>
-      <c r="M88" s="214"/>
-      <c r="N88" s="214"/>
+      <c r="K88" s="204">
+        <v>100</v>
+      </c>
+      <c r="L88" s="206"/>
+      <c r="M88" s="207"/>
+      <c r="N88" s="207"/>
     </row>
     <row r="89" spans="1:14" ht="15">
-      <c r="A89" s="229"/>
-      <c r="B89" s="208"/>
-      <c r="C89" s="209"/>
-      <c r="D89" s="209"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="207"/>
-      <c r="G89" s="211"/>
-      <c r="H89" s="211"/>
-      <c r="I89" s="211"/>
-      <c r="J89" s="212" t="s">
+      <c r="A89" s="274"/>
+      <c r="B89" s="261"/>
+      <c r="C89" s="267"/>
+      <c r="D89" s="267"/>
+      <c r="E89" s="267"/>
+      <c r="F89" s="264"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
+      <c r="I89" s="204"/>
+      <c r="J89" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="K89" s="211">
-        <v>100</v>
-      </c>
-      <c r="L89" s="213"/>
-      <c r="M89" s="214"/>
-      <c r="N89" s="214"/>
+      <c r="K89" s="204">
+        <v>100</v>
+      </c>
+      <c r="L89" s="206"/>
+      <c r="M89" s="207"/>
+      <c r="N89" s="207"/>
     </row>
     <row r="90" spans="1:14" ht="15">
-      <c r="A90" s="229"/>
-      <c r="B90" s="208"/>
-      <c r="C90" s="209"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="209"/>
-      <c r="F90" s="207"/>
-      <c r="G90" s="211"/>
-      <c r="H90" s="211"/>
-      <c r="I90" s="211"/>
-      <c r="J90" s="212" t="s">
+      <c r="A90" s="274"/>
+      <c r="B90" s="261"/>
+      <c r="C90" s="267"/>
+      <c r="D90" s="267"/>
+      <c r="E90" s="267"/>
+      <c r="F90" s="264"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
+      <c r="I90" s="204"/>
+      <c r="J90" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="K90" s="211">
-        <v>100</v>
-      </c>
-      <c r="L90" s="213"/>
-      <c r="M90" s="214"/>
-      <c r="N90" s="214"/>
+      <c r="K90" s="204">
+        <v>100</v>
+      </c>
+      <c r="L90" s="206"/>
+      <c r="M90" s="207"/>
+      <c r="N90" s="207"/>
     </row>
     <row r="91" spans="1:14" ht="15">
-      <c r="A91" s="229"/>
-      <c r="B91" s="208"/>
-      <c r="C91" s="209"/>
-      <c r="D91" s="209"/>
-      <c r="E91" s="209"/>
-      <c r="F91" s="207"/>
-      <c r="G91" s="211"/>
-      <c r="H91" s="211"/>
-      <c r="I91" s="211"/>
-      <c r="J91" s="212" t="s">
+      <c r="A91" s="274"/>
+      <c r="B91" s="261"/>
+      <c r="C91" s="267"/>
+      <c r="D91" s="267"/>
+      <c r="E91" s="267"/>
+      <c r="F91" s="264"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
+      <c r="I91" s="204"/>
+      <c r="J91" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="211">
-        <v>100</v>
-      </c>
-      <c r="L91" s="213"/>
-      <c r="M91" s="214"/>
-      <c r="N91" s="214"/>
+      <c r="K91" s="204">
+        <v>100</v>
+      </c>
+      <c r="L91" s="206"/>
+      <c r="M91" s="207"/>
+      <c r="N91" s="207"/>
     </row>
     <row r="92" spans="1:14" ht="15">
-      <c r="A92" s="229"/>
-      <c r="B92" s="208"/>
-      <c r="C92" s="209"/>
-      <c r="D92" s="209"/>
-      <c r="E92" s="209"/>
-      <c r="F92" s="207"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="231"/>
-      <c r="J92" s="232" t="s">
+      <c r="A92" s="274"/>
+      <c r="B92" s="261"/>
+      <c r="C92" s="267"/>
+      <c r="D92" s="267"/>
+      <c r="E92" s="267"/>
+      <c r="F92" s="264"/>
+      <c r="G92" s="214"/>
+      <c r="H92" s="214"/>
+      <c r="I92" s="214"/>
+      <c r="J92" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="K92" s="231">
+      <c r="K92" s="214">
         <v>50</v>
       </c>
-      <c r="L92" s="213"/>
-      <c r="M92" s="214"/>
-      <c r="N92" s="214" t="s">
+      <c r="L92" s="206"/>
+      <c r="M92" s="207"/>
+      <c r="N92" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15">
-      <c r="A93" s="229"/>
-      <c r="B93" s="208"/>
-      <c r="C93" s="209"/>
-      <c r="D93" s="209"/>
-      <c r="E93" s="209"/>
-      <c r="F93" s="207"/>
-      <c r="G93" s="231"/>
-      <c r="H93" s="231"/>
-      <c r="I93" s="231"/>
-      <c r="J93" s="232" t="s">
+      <c r="A93" s="274"/>
+      <c r="B93" s="261"/>
+      <c r="C93" s="267"/>
+      <c r="D93" s="267"/>
+      <c r="E93" s="267"/>
+      <c r="F93" s="264"/>
+      <c r="G93" s="214"/>
+      <c r="H93" s="214"/>
+      <c r="I93" s="214"/>
+      <c r="J93" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="K93" s="231" t="s">
+      <c r="K93" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="L93" s="213"/>
-      <c r="M93" s="214"/>
-      <c r="N93" s="214"/>
+      <c r="L93" s="206"/>
+      <c r="M93" s="207"/>
+      <c r="N93" s="207"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A94" s="233"/>
-      <c r="B94" s="216"/>
-      <c r="C94" s="217"/>
-      <c r="D94" s="217"/>
-      <c r="E94" s="217"/>
-      <c r="F94" s="215"/>
-      <c r="G94" s="219"/>
-      <c r="H94" s="219"/>
-      <c r="I94" s="219"/>
-      <c r="J94" s="220" t="s">
+      <c r="A94" s="275"/>
+      <c r="B94" s="262"/>
+      <c r="C94" s="268"/>
+      <c r="D94" s="268"/>
+      <c r="E94" s="268"/>
+      <c r="F94" s="265"/>
+      <c r="G94" s="208"/>
+      <c r="H94" s="208"/>
+      <c r="I94" s="208"/>
+      <c r="J94" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="219" t="s">
+      <c r="K94" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="L94" s="221"/>
-      <c r="M94" s="221"/>
-      <c r="N94" s="221"/>
+      <c r="L94" s="210"/>
+      <c r="M94" s="210"/>
+      <c r="N94" s="210"/>
     </row>
     <row r="95" spans="1:14" ht="15">
-      <c r="A95" s="223">
+      <c r="A95" s="273">
         <v>15</v>
       </c>
-      <c r="B95" s="274" t="s">
+      <c r="B95" s="276" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="275" t="s">
+      <c r="C95" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="275" t="s">
+      <c r="D95" s="305" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="225"/>
-      <c r="F95" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G95" s="283" t="s">
+      <c r="E95" s="296"/>
+      <c r="F95" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="H95" s="283" t="s">
+      <c r="H95" s="242" t="s">
         <v>154</v>
       </c>
-      <c r="I95" s="283"/>
-      <c r="J95" s="236" t="s">
+      <c r="I95" s="242"/>
+      <c r="J95" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K95" s="237">
-        <v>100</v>
-      </c>
-      <c r="L95" s="204"/>
-      <c r="M95" s="205"/>
-      <c r="N95" s="205"/>
+      <c r="K95" s="218">
+        <v>100</v>
+      </c>
+      <c r="L95" s="201"/>
+      <c r="M95" s="202"/>
+      <c r="N95" s="202"/>
     </row>
     <row r="96" spans="1:14" ht="15">
-      <c r="A96" s="229"/>
-      <c r="B96" s="208"/>
-      <c r="C96" s="276"/>
-      <c r="D96" s="276"/>
-      <c r="E96" s="209"/>
-      <c r="F96" s="207"/>
-      <c r="G96" s="211"/>
-      <c r="H96" s="211"/>
-      <c r="I96" s="211" t="s">
+      <c r="A96" s="274"/>
+      <c r="B96" s="261"/>
+      <c r="C96" s="306"/>
+      <c r="D96" s="306"/>
+      <c r="E96" s="267"/>
+      <c r="F96" s="264"/>
+      <c r="G96" s="204"/>
+      <c r="H96" s="204"/>
+      <c r="I96" s="204" t="s">
         <v>203</v>
       </c>
-      <c r="J96" s="212" t="s">
+      <c r="J96" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="211">
+      <c r="K96" s="204">
         <v>1000</v>
       </c>
-      <c r="L96" s="213"/>
-      <c r="M96" s="214"/>
-      <c r="N96" s="214" t="s">
+      <c r="L96" s="206"/>
+      <c r="M96" s="207"/>
+      <c r="N96" s="207" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15">
-      <c r="A97" s="229"/>
-      <c r="B97" s="208"/>
-      <c r="C97" s="276"/>
-      <c r="D97" s="276"/>
-      <c r="E97" s="209"/>
-      <c r="F97" s="207"/>
-      <c r="G97" s="231"/>
-      <c r="H97" s="231"/>
-      <c r="I97" s="231"/>
-      <c r="J97" s="232" t="s">
+      <c r="A97" s="274"/>
+      <c r="B97" s="261"/>
+      <c r="C97" s="306"/>
+      <c r="D97" s="306"/>
+      <c r="E97" s="267"/>
+      <c r="F97" s="264"/>
+      <c r="G97" s="214"/>
+      <c r="H97" s="214"/>
+      <c r="I97" s="214"/>
+      <c r="J97" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="231">
+      <c r="K97" s="214">
         <v>1000</v>
       </c>
-      <c r="L97" s="213"/>
-      <c r="M97" s="214"/>
-      <c r="N97" s="214"/>
+      <c r="L97" s="206"/>
+      <c r="M97" s="207"/>
+      <c r="N97" s="207"/>
     </row>
     <row r="98" spans="1:14" ht="15">
-      <c r="A98" s="229"/>
-      <c r="B98" s="208"/>
-      <c r="C98" s="276"/>
-      <c r="D98" s="276"/>
-      <c r="E98" s="209"/>
-      <c r="F98" s="207"/>
-      <c r="G98" s="231"/>
-      <c r="H98" s="231"/>
-      <c r="I98" s="231"/>
-      <c r="J98" s="232" t="s">
+      <c r="A98" s="274"/>
+      <c r="B98" s="261"/>
+      <c r="C98" s="306"/>
+      <c r="D98" s="306"/>
+      <c r="E98" s="267"/>
+      <c r="F98" s="264"/>
+      <c r="G98" s="214"/>
+      <c r="H98" s="214"/>
+      <c r="I98" s="214"/>
+      <c r="J98" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="K98" s="231">
+      <c r="K98" s="214">
         <v>1000</v>
       </c>
-      <c r="L98" s="213"/>
-      <c r="M98" s="214"/>
-      <c r="N98" s="214"/>
+      <c r="L98" s="206"/>
+      <c r="M98" s="207"/>
+      <c r="N98" s="207"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A99" s="233"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="277"/>
-      <c r="D99" s="277"/>
-      <c r="E99" s="217"/>
-      <c r="F99" s="215"/>
-      <c r="G99" s="231"/>
-      <c r="H99" s="231"/>
-      <c r="I99" s="231"/>
-      <c r="J99" s="232" t="s">
+      <c r="A99" s="275"/>
+      <c r="B99" s="262"/>
+      <c r="C99" s="307"/>
+      <c r="D99" s="307"/>
+      <c r="E99" s="268"/>
+      <c r="F99" s="265"/>
+      <c r="G99" s="214"/>
+      <c r="H99" s="214"/>
+      <c r="I99" s="214"/>
+      <c r="J99" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="231">
+      <c r="K99" s="214">
         <v>1000</v>
       </c>
-      <c r="L99" s="288"/>
-      <c r="M99" s="289"/>
-      <c r="N99" s="289"/>
+      <c r="L99" s="244"/>
+      <c r="M99" s="245"/>
+      <c r="N99" s="245"/>
     </row>
     <row r="100" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A100" s="223">
+      <c r="A100" s="273">
         <v>16</v>
       </c>
-      <c r="B100" s="274" t="s">
+      <c r="B100" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="225" t="s">
+      <c r="C100" s="296" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="225" t="s">
+      <c r="D100" s="296" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="225"/>
-      <c r="F100" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G100" s="290" t="s">
+      <c r="E100" s="296"/>
+      <c r="F100" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="H100" s="290" t="s">
+      <c r="H100" s="246" t="s">
         <v>182</v>
       </c>
-      <c r="I100" s="290"/>
-      <c r="J100" s="293" t="s">
+      <c r="I100" s="246"/>
+      <c r="J100" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="K100" s="296">
+      <c r="K100" s="295">
         <v>1000</v>
       </c>
-      <c r="L100" s="297"/>
-      <c r="M100" s="296" t="s">
+      <c r="L100" s="314"/>
+      <c r="M100" s="295" t="s">
         <v>116</v>
       </c>
-      <c r="N100" s="297"/>
+      <c r="N100" s="314"/>
     </row>
     <row r="101" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A101" s="229"/>
-      <c r="B101" s="208"/>
-      <c r="C101" s="209"/>
-      <c r="D101" s="209"/>
-      <c r="E101" s="209"/>
-      <c r="F101" s="207"/>
-      <c r="G101" s="291"/>
-      <c r="H101" s="291">
+      <c r="A101" s="274"/>
+      <c r="B101" s="261"/>
+      <c r="C101" s="267"/>
+      <c r="D101" s="267"/>
+      <c r="E101" s="267"/>
+      <c r="F101" s="264"/>
+      <c r="G101" s="247"/>
+      <c r="H101" s="247">
         <v>44221</v>
       </c>
-      <c r="I101" s="291"/>
-      <c r="J101" s="294"/>
-      <c r="K101" s="207"/>
-      <c r="L101" s="298"/>
-      <c r="M101" s="207"/>
-      <c r="N101" s="298"/>
+      <c r="I101" s="247"/>
+      <c r="J101" s="318"/>
+      <c r="K101" s="264"/>
+      <c r="L101" s="315"/>
+      <c r="M101" s="264"/>
+      <c r="N101" s="315"/>
     </row>
     <row r="102" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A102" s="233"/>
-      <c r="B102" s="216"/>
-      <c r="C102" s="217"/>
-      <c r="D102" s="217"/>
-      <c r="E102" s="217"/>
-      <c r="F102" s="215"/>
-      <c r="G102" s="292"/>
-      <c r="H102" s="292" t="s">
+      <c r="A102" s="275"/>
+      <c r="B102" s="262"/>
+      <c r="C102" s="268"/>
+      <c r="D102" s="268"/>
+      <c r="E102" s="268"/>
+      <c r="F102" s="265"/>
+      <c r="G102" s="248"/>
+      <c r="H102" s="248" t="s">
         <v>202</v>
       </c>
-      <c r="I102" s="292"/>
-      <c r="J102" s="295"/>
-      <c r="K102" s="215"/>
-      <c r="L102" s="299"/>
-      <c r="M102" s="215"/>
-      <c r="N102" s="299"/>
+      <c r="I102" s="248"/>
+      <c r="J102" s="319"/>
+      <c r="K102" s="265"/>
+      <c r="L102" s="316"/>
+      <c r="M102" s="265"/>
+      <c r="N102" s="316"/>
     </row>
     <row r="103" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A103" s="284">
+      <c r="A103" s="308">
         <v>17</v>
       </c>
-      <c r="B103" s="274" t="s">
+      <c r="B103" s="276" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="225" t="s">
+      <c r="C103" s="296" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="225" t="s">
+      <c r="D103" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="225"/>
-      <c r="F103" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G103" s="227" t="s">
+      <c r="E103" s="296"/>
+      <c r="F103" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="212" t="s">
         <v>113</v>
       </c>
-      <c r="H103" s="227" t="s">
+      <c r="H103" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="I103" s="227"/>
-      <c r="J103" s="203"/>
-      <c r="K103" s="202"/>
-      <c r="L103" s="204"/>
-      <c r="M103" s="205"/>
-      <c r="N103" s="228"/>
+      <c r="I103" s="212"/>
+      <c r="J103" s="200"/>
+      <c r="K103" s="199"/>
+      <c r="L103" s="201"/>
+      <c r="M103" s="202"/>
+      <c r="N103" s="213"/>
     </row>
     <row r="104" spans="1:14" ht="15">
-      <c r="A104" s="285"/>
-      <c r="B104" s="208"/>
-      <c r="C104" s="209"/>
-      <c r="D104" s="209"/>
-      <c r="E104" s="209"/>
-      <c r="F104" s="207"/>
-      <c r="G104" s="211"/>
-      <c r="H104" s="211"/>
-      <c r="I104" s="211" t="s">
+      <c r="A104" s="309"/>
+      <c r="B104" s="261"/>
+      <c r="C104" s="267"/>
+      <c r="D104" s="267"/>
+      <c r="E104" s="267"/>
+      <c r="F104" s="264"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="204"/>
+      <c r="I104" s="204" t="s">
         <v>203</v>
       </c>
-      <c r="J104" s="212" t="s">
+      <c r="J104" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="K104" s="211">
+      <c r="K104" s="204">
         <v>1000</v>
       </c>
-      <c r="L104" s="213"/>
-      <c r="M104" s="214"/>
-      <c r="N104" s="206"/>
+      <c r="L104" s="206"/>
+      <c r="M104" s="207"/>
+      <c r="N104" s="203"/>
     </row>
     <row r="105" spans="1:14" ht="15">
-      <c r="A105" s="285"/>
-      <c r="B105" s="208"/>
-      <c r="C105" s="209"/>
-      <c r="D105" s="209"/>
-      <c r="E105" s="209"/>
-      <c r="F105" s="207"/>
-      <c r="G105" s="211"/>
-      <c r="H105" s="211"/>
-      <c r="I105" s="211"/>
-      <c r="J105" s="212" t="s">
+      <c r="A105" s="309"/>
+      <c r="B105" s="261"/>
+      <c r="C105" s="267"/>
+      <c r="D105" s="267"/>
+      <c r="E105" s="267"/>
+      <c r="F105" s="264"/>
+      <c r="G105" s="204"/>
+      <c r="H105" s="204"/>
+      <c r="I105" s="204"/>
+      <c r="J105" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="K105" s="211">
+      <c r="K105" s="204">
         <v>1000</v>
       </c>
-      <c r="L105" s="213"/>
-      <c r="M105" s="214"/>
-      <c r="N105" s="206"/>
+      <c r="L105" s="206"/>
+      <c r="M105" s="207"/>
+      <c r="N105" s="203"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A106" s="286"/>
-      <c r="B106" s="216"/>
-      <c r="C106" s="217"/>
-      <c r="D106" s="217"/>
-      <c r="E106" s="217"/>
-      <c r="F106" s="215"/>
-      <c r="G106" s="219"/>
-      <c r="H106" s="219"/>
-      <c r="I106" s="219"/>
-      <c r="J106" s="220" t="s">
+      <c r="A106" s="310"/>
+      <c r="B106" s="262"/>
+      <c r="C106" s="268"/>
+      <c r="D106" s="268"/>
+      <c r="E106" s="268"/>
+      <c r="F106" s="265"/>
+      <c r="G106" s="208"/>
+      <c r="H106" s="208"/>
+      <c r="I106" s="208"/>
+      <c r="J106" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="K106" s="219">
+      <c r="K106" s="208">
         <v>1000</v>
       </c>
-      <c r="L106" s="221"/>
-      <c r="M106" s="221"/>
-      <c r="N106" s="222"/>
+      <c r="L106" s="210"/>
+      <c r="M106" s="210"/>
+      <c r="N106" s="211"/>
     </row>
     <row r="107" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A107" s="223">
+      <c r="A107" s="273">
         <v>18</v>
       </c>
-      <c r="B107" s="226" t="s">
+      <c r="B107" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="225" t="s">
+      <c r="C107" s="296" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="225" t="s">
+      <c r="D107" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="300"/>
-      <c r="F107" s="207" t="s">
-        <v>230</v>
-      </c>
-      <c r="G107" s="303">
+      <c r="E107" s="332"/>
+      <c r="F107" s="264" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="249">
         <v>43806</v>
       </c>
-      <c r="H107" s="303">
+      <c r="H107" s="249">
         <v>44537</v>
       </c>
-      <c r="I107" s="303"/>
-      <c r="J107" s="203" t="s">
+      <c r="I107" s="249"/>
+      <c r="J107" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="K107" s="203">
+      <c r="K107" s="200">
         <v>250</v>
       </c>
-      <c r="L107" s="204"/>
-      <c r="M107" s="205"/>
-      <c r="N107" s="205" t="s">
+      <c r="L107" s="201"/>
+      <c r="M107" s="202"/>
+      <c r="N107" s="202" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15">
-      <c r="A108" s="229"/>
-      <c r="B108" s="210"/>
-      <c r="C108" s="209"/>
-      <c r="D108" s="209"/>
-      <c r="E108" s="301"/>
-      <c r="F108" s="207"/>
-      <c r="G108" s="211"/>
+      <c r="A108" s="274"/>
+      <c r="B108" s="312"/>
+      <c r="C108" s="267"/>
+      <c r="D108" s="267"/>
+      <c r="E108" s="333"/>
+      <c r="F108" s="264"/>
+      <c r="G108" s="204"/>
       <c r="H108" s="197">
         <v>44694</v>
       </c>
-      <c r="I108" s="211"/>
-      <c r="J108" s="212"/>
-      <c r="K108" s="211"/>
-      <c r="L108" s="213"/>
-      <c r="M108" s="214"/>
-      <c r="N108" s="214"/>
+      <c r="I108" s="204"/>
+      <c r="J108" s="205"/>
+      <c r="K108" s="204"/>
+      <c r="L108" s="206"/>
+      <c r="M108" s="207"/>
+      <c r="N108" s="207"/>
     </row>
     <row r="109" spans="1:14" ht="15">
-      <c r="A109" s="229"/>
-      <c r="B109" s="210"/>
-      <c r="C109" s="209"/>
-      <c r="D109" s="209"/>
-      <c r="E109" s="301"/>
-      <c r="F109" s="207"/>
-      <c r="G109" s="211"/>
+      <c r="A109" s="274"/>
+      <c r="B109" s="312"/>
+      <c r="C109" s="267"/>
+      <c r="D109" s="267"/>
+      <c r="E109" s="333"/>
+      <c r="F109" s="264"/>
+      <c r="G109" s="204"/>
       <c r="H109" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="I109" s="211"/>
-      <c r="J109" s="212"/>
-      <c r="K109" s="211"/>
-      <c r="L109" s="213"/>
-      <c r="M109" s="214"/>
-      <c r="N109" s="214"/>
+      <c r="I109" s="204"/>
+      <c r="J109" s="205"/>
+      <c r="K109" s="204"/>
+      <c r="L109" s="206"/>
+      <c r="M109" s="207"/>
+      <c r="N109" s="207"/>
     </row>
     <row r="110" spans="1:14" ht="15">
-      <c r="A110" s="229"/>
-      <c r="B110" s="210"/>
-      <c r="C110" s="209"/>
-      <c r="D110" s="209"/>
-      <c r="E110" s="301"/>
-      <c r="F110" s="207"/>
-      <c r="G110" s="211"/>
-      <c r="H110" s="211"/>
-      <c r="I110" s="211"/>
-      <c r="J110" s="212"/>
-      <c r="K110" s="211"/>
-      <c r="L110" s="213"/>
-      <c r="M110" s="214"/>
-      <c r="N110" s="214"/>
+      <c r="A110" s="274"/>
+      <c r="B110" s="312"/>
+      <c r="C110" s="267"/>
+      <c r="D110" s="267"/>
+      <c r="E110" s="333"/>
+      <c r="F110" s="264"/>
+      <c r="G110" s="204"/>
+      <c r="H110" s="204"/>
+      <c r="I110" s="204"/>
+      <c r="J110" s="205"/>
+      <c r="K110" s="204"/>
+      <c r="L110" s="206"/>
+      <c r="M110" s="207"/>
+      <c r="N110" s="207"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A111" s="233"/>
-      <c r="B111" s="218"/>
-      <c r="C111" s="217"/>
-      <c r="D111" s="217"/>
-      <c r="E111" s="302"/>
-      <c r="F111" s="215"/>
-      <c r="G111" s="219"/>
-      <c r="H111" s="219"/>
-      <c r="I111" s="219"/>
-      <c r="J111" s="220"/>
-      <c r="K111" s="219"/>
-      <c r="L111" s="221"/>
-      <c r="M111" s="221"/>
-      <c r="N111" s="221"/>
+      <c r="A111" s="275"/>
+      <c r="B111" s="313"/>
+      <c r="C111" s="268"/>
+      <c r="D111" s="268"/>
+      <c r="E111" s="334"/>
+      <c r="F111" s="265"/>
+      <c r="G111" s="208"/>
+      <c r="H111" s="208"/>
+      <c r="I111" s="208"/>
+      <c r="J111" s="209"/>
+      <c r="K111" s="208"/>
+      <c r="L111" s="210"/>
+      <c r="M111" s="210"/>
+      <c r="N111" s="210"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1">
-      <c r="A112" s="309">
+      <c r="A112" s="320">
         <v>19</v>
       </c>
-      <c r="B112" s="310" t="s">
+      <c r="B112" s="323" t="s">
         <v>84</v>
       </c>
-      <c r="C112" s="311" t="s">
+      <c r="C112" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="D112" s="311" t="s">
+      <c r="D112" s="326" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="312"/>
-      <c r="F112" s="309" t="s">
+      <c r="E112" s="329"/>
+      <c r="F112" s="320" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="242" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" s="242" t="s">
+        <v>144</v>
+      </c>
+      <c r="I112" s="242"/>
+      <c r="J112" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="218">
+        <v>100</v>
+      </c>
+      <c r="L112" s="250"/>
+      <c r="M112" s="250"/>
+      <c r="N112" s="250"/>
+    </row>
+    <row r="113" spans="1:14" ht="15">
+      <c r="A113" s="321"/>
+      <c r="B113" s="324"/>
+      <c r="C113" s="327"/>
+      <c r="D113" s="327"/>
+      <c r="E113" s="330"/>
+      <c r="F113" s="321"/>
+      <c r="G113" s="204"/>
+      <c r="H113" s="238"/>
+      <c r="I113" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="J113" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="204">
+        <v>1000</v>
+      </c>
+      <c r="L113" s="207"/>
+      <c r="M113" s="207"/>
+      <c r="N113" s="207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15">
+      <c r="A114" s="321"/>
+      <c r="B114" s="324"/>
+      <c r="C114" s="327"/>
+      <c r="D114" s="327"/>
+      <c r="E114" s="330"/>
+      <c r="F114" s="321"/>
+      <c r="G114" s="204"/>
+      <c r="H114" s="204"/>
+      <c r="I114" s="204"/>
+      <c r="J114" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K114" s="204">
+        <v>100</v>
+      </c>
+      <c r="L114" s="207"/>
+      <c r="M114" s="207"/>
+      <c r="N114" s="207"/>
+    </row>
+    <row r="115" spans="1:14" ht="15">
+      <c r="A115" s="321"/>
+      <c r="B115" s="324"/>
+      <c r="C115" s="327"/>
+      <c r="D115" s="327"/>
+      <c r="E115" s="330"/>
+      <c r="F115" s="321"/>
+      <c r="G115" s="204"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="204"/>
+      <c r="J115" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="204">
+        <v>100</v>
+      </c>
+      <c r="L115" s="207"/>
+      <c r="M115" s="207"/>
+      <c r="N115" s="207"/>
+    </row>
+    <row r="116" spans="1:14" ht="15">
+      <c r="A116" s="321"/>
+      <c r="B116" s="324"/>
+      <c r="C116" s="327"/>
+      <c r="D116" s="327"/>
+      <c r="E116" s="330"/>
+      <c r="F116" s="321"/>
+      <c r="G116" s="204"/>
+      <c r="H116" s="204"/>
+      <c r="I116" s="204"/>
+      <c r="J116" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="204">
+        <v>100</v>
+      </c>
+      <c r="L116" s="207"/>
+      <c r="M116" s="207"/>
+      <c r="N116" s="207"/>
+    </row>
+    <row r="117" spans="1:14" ht="15">
+      <c r="A117" s="321"/>
+      <c r="B117" s="324"/>
+      <c r="C117" s="327"/>
+      <c r="D117" s="327"/>
+      <c r="E117" s="330"/>
+      <c r="F117" s="321"/>
+      <c r="G117" s="204"/>
+      <c r="H117" s="204"/>
+      <c r="I117" s="204"/>
+      <c r="J117" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="204">
+        <v>100</v>
+      </c>
+      <c r="L117" s="207"/>
+      <c r="M117" s="207"/>
+      <c r="N117" s="207"/>
+    </row>
+    <row r="118" spans="1:14" ht="15">
+      <c r="A118" s="321"/>
+      <c r="B118" s="324"/>
+      <c r="C118" s="327"/>
+      <c r="D118" s="327"/>
+      <c r="E118" s="330"/>
+      <c r="F118" s="321"/>
+      <c r="G118" s="204"/>
+      <c r="H118" s="204"/>
+      <c r="I118" s="204"/>
+      <c r="J118" s="205" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" s="204">
+        <v>10</v>
+      </c>
+      <c r="L118" s="207"/>
+      <c r="M118" s="207"/>
+      <c r="N118" s="207"/>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A119" s="322"/>
+      <c r="B119" s="325"/>
+      <c r="C119" s="328"/>
+      <c r="D119" s="328"/>
+      <c r="E119" s="331"/>
+      <c r="F119" s="322"/>
+      <c r="G119" s="208"/>
+      <c r="H119" s="208"/>
+      <c r="I119" s="208"/>
+      <c r="J119" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="L119" s="210"/>
+      <c r="M119" s="210"/>
+      <c r="N119" s="210"/>
+    </row>
+    <row r="120" spans="1:14" ht="30" customHeight="1">
+      <c r="A120" s="273">
+        <v>20</v>
+      </c>
+      <c r="B120" s="297" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="296" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="301" t="s">
         <v>230</v>
       </c>
-      <c r="G112" s="283" t="s">
-        <v>115</v>
-      </c>
-      <c r="H112" s="283" t="s">
-        <v>144</v>
-      </c>
-      <c r="I112" s="283"/>
-      <c r="J112" s="236" t="s">
+      <c r="F120" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G120" s="216"/>
+      <c r="H120" s="212"/>
+      <c r="I120" s="212"/>
+      <c r="J120" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="K112" s="237">
-        <v>100</v>
-      </c>
-      <c r="L112" s="313"/>
-      <c r="M112" s="313"/>
-      <c r="N112" s="313"/>
-    </row>
-    <row r="113" spans="1:14" ht="15">
-      <c r="A113" s="314"/>
-      <c r="B113" s="315"/>
-      <c r="C113" s="316"/>
-      <c r="D113" s="316"/>
-      <c r="E113" s="317"/>
-      <c r="F113" s="314"/>
-      <c r="G113" s="211"/>
-      <c r="H113" s="279"/>
-      <c r="I113" s="211" t="s">
+      <c r="K120" s="218"/>
+      <c r="L120" s="201"/>
+      <c r="M120" s="202"/>
+      <c r="N120" s="202"/>
+    </row>
+    <row r="121" spans="1:14" ht="15">
+      <c r="A121" s="274"/>
+      <c r="B121" s="298"/>
+      <c r="C121" s="267"/>
+      <c r="D121" s="267"/>
+      <c r="E121" s="302"/>
+      <c r="F121" s="264"/>
+      <c r="G121" s="204"/>
+      <c r="H121" s="204"/>
+      <c r="I121" s="204"/>
+      <c r="J121" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" s="204"/>
+      <c r="L121" s="206"/>
+      <c r="M121" s="207"/>
+      <c r="N121" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15">
+      <c r="A122" s="274"/>
+      <c r="B122" s="298"/>
+      <c r="C122" s="267"/>
+      <c r="D122" s="267"/>
+      <c r="E122" s="302"/>
+      <c r="F122" s="264"/>
+      <c r="G122" s="204"/>
+      <c r="H122" s="204"/>
+      <c r="I122" s="204"/>
+      <c r="J122" s="205" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="204"/>
+      <c r="L122" s="206"/>
+      <c r="M122" s="207"/>
+      <c r="N122" s="207"/>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A123" s="275"/>
+      <c r="B123" s="299"/>
+      <c r="C123" s="268"/>
+      <c r="D123" s="268"/>
+      <c r="E123" s="303"/>
+      <c r="F123" s="265"/>
+      <c r="G123" s="251"/>
+      <c r="H123" s="208"/>
+      <c r="I123" s="208"/>
+      <c r="J123" s="209" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="208"/>
+      <c r="L123" s="219"/>
+      <c r="M123" s="210"/>
+      <c r="N123" s="210" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15">
+      <c r="A124" s="308">
+        <v>21</v>
+      </c>
+      <c r="B124" s="311" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" s="296" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="296" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="335"/>
+      <c r="F124" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G124" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H124" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I124" s="337"/>
+      <c r="J124" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K124" s="256">
+        <v>100</v>
+      </c>
+      <c r="L124" s="256"/>
+      <c r="M124" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N124" s="256"/>
+    </row>
+    <row r="125" spans="1:14" ht="15">
+      <c r="A125" s="309"/>
+      <c r="B125" s="312"/>
+      <c r="C125" s="267"/>
+      <c r="D125" s="267"/>
+      <c r="E125" s="338"/>
+      <c r="F125" s="264"/>
+      <c r="G125" s="207"/>
+      <c r="H125" s="207"/>
+      <c r="I125" s="207"/>
+      <c r="J125" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L125" s="257"/>
+      <c r="M125" s="264"/>
+      <c r="N125" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15">
+      <c r="A126" s="309"/>
+      <c r="B126" s="312"/>
+      <c r="C126" s="267"/>
+      <c r="D126" s="267"/>
+      <c r="E126" s="338"/>
+      <c r="F126" s="264"/>
+      <c r="G126" s="207"/>
+      <c r="H126" s="207"/>
+      <c r="I126" s="207"/>
+      <c r="J126" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126" s="257">
+        <v>100</v>
+      </c>
+      <c r="L126" s="257"/>
+      <c r="M126" s="264"/>
+      <c r="N126" s="257"/>
+    </row>
+    <row r="127" spans="1:14" ht="15">
+      <c r="A127" s="309"/>
+      <c r="B127" s="312"/>
+      <c r="C127" s="267"/>
+      <c r="D127" s="267"/>
+      <c r="E127" s="338"/>
+      <c r="F127" s="264"/>
+      <c r="G127" s="207"/>
+      <c r="H127" s="207"/>
+      <c r="I127" s="207"/>
+      <c r="J127" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" s="257">
+        <v>100</v>
+      </c>
+      <c r="L127" s="257"/>
+      <c r="M127" s="264"/>
+      <c r="N127" s="257"/>
+    </row>
+    <row r="128" spans="1:14" ht="15">
+      <c r="A128" s="309"/>
+      <c r="B128" s="312"/>
+      <c r="C128" s="267"/>
+      <c r="D128" s="267"/>
+      <c r="E128" s="338"/>
+      <c r="F128" s="264"/>
+      <c r="G128" s="207"/>
+      <c r="H128" s="207"/>
+      <c r="I128" s="207"/>
+      <c r="J128" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="257">
+        <v>100</v>
+      </c>
+      <c r="L128" s="257"/>
+      <c r="M128" s="264"/>
+      <c r="N128" s="257"/>
+    </row>
+    <row r="129" spans="1:14" ht="15">
+      <c r="A129" s="309"/>
+      <c r="B129" s="312"/>
+      <c r="C129" s="267"/>
+      <c r="D129" s="267"/>
+      <c r="E129" s="338"/>
+      <c r="F129" s="264"/>
+      <c r="G129" s="207"/>
+      <c r="H129" s="207"/>
+      <c r="I129" s="207"/>
+      <c r="J129" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="257">
+        <v>100</v>
+      </c>
+      <c r="L129" s="257"/>
+      <c r="M129" s="264"/>
+      <c r="N129" s="257"/>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A130" s="310"/>
+      <c r="B130" s="313"/>
+      <c r="C130" s="268"/>
+      <c r="D130" s="268"/>
+      <c r="E130" s="339"/>
+      <c r="F130" s="265"/>
+      <c r="G130" s="210"/>
+      <c r="H130" s="210"/>
+      <c r="I130" s="210"/>
+      <c r="J130" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L130" s="258"/>
+      <c r="M130" s="265"/>
+      <c r="N130" s="258"/>
+    </row>
+    <row r="131" spans="1:14" ht="15" customHeight="1">
+      <c r="A131" s="308">
+        <v>22</v>
+      </c>
+      <c r="B131" s="311" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="296" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="296" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="335"/>
+      <c r="F131" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G131" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H131" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I131" s="337"/>
+      <c r="J131" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K131" s="256">
+        <v>100</v>
+      </c>
+      <c r="L131" s="256"/>
+      <c r="M131" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N131" s="256"/>
+    </row>
+    <row r="132" spans="1:14" ht="15">
+      <c r="A132" s="309"/>
+      <c r="B132" s="312"/>
+      <c r="C132" s="267"/>
+      <c r="D132" s="267"/>
+      <c r="E132" s="338"/>
+      <c r="F132" s="264"/>
+      <c r="G132" s="207"/>
+      <c r="H132" s="207"/>
+      <c r="I132" s="207"/>
+      <c r="J132" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L132" s="257"/>
+      <c r="M132" s="264"/>
+      <c r="N132" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15">
+      <c r="A133" s="309"/>
+      <c r="B133" s="312"/>
+      <c r="C133" s="267"/>
+      <c r="D133" s="267"/>
+      <c r="E133" s="338"/>
+      <c r="F133" s="264"/>
+      <c r="G133" s="207"/>
+      <c r="H133" s="207"/>
+      <c r="I133" s="207"/>
+      <c r="J133" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133" s="257">
+        <v>100</v>
+      </c>
+      <c r="L133" s="257"/>
+      <c r="M133" s="264"/>
+      <c r="N133" s="257"/>
+    </row>
+    <row r="134" spans="1:14" ht="15">
+      <c r="A134" s="309"/>
+      <c r="B134" s="312"/>
+      <c r="C134" s="267"/>
+      <c r="D134" s="267"/>
+      <c r="E134" s="338"/>
+      <c r="F134" s="264"/>
+      <c r="G134" s="207"/>
+      <c r="H134" s="207"/>
+      <c r="I134" s="207"/>
+      <c r="J134" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134" s="257">
+        <v>100</v>
+      </c>
+      <c r="L134" s="257"/>
+      <c r="M134" s="264"/>
+      <c r="N134" s="257"/>
+    </row>
+    <row r="135" spans="1:14" ht="15">
+      <c r="A135" s="309"/>
+      <c r="B135" s="312"/>
+      <c r="C135" s="267"/>
+      <c r="D135" s="267"/>
+      <c r="E135" s="338"/>
+      <c r="F135" s="264"/>
+      <c r="G135" s="207"/>
+      <c r="H135" s="207"/>
+      <c r="I135" s="207"/>
+      <c r="J135" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" s="257">
+        <v>100</v>
+      </c>
+      <c r="L135" s="257"/>
+      <c r="M135" s="264"/>
+      <c r="N135" s="257"/>
+    </row>
+    <row r="136" spans="1:14" ht="15">
+      <c r="A136" s="309"/>
+      <c r="B136" s="312"/>
+      <c r="C136" s="267"/>
+      <c r="D136" s="267"/>
+      <c r="E136" s="338"/>
+      <c r="F136" s="264"/>
+      <c r="G136" s="207"/>
+      <c r="H136" s="207"/>
+      <c r="I136" s="207"/>
+      <c r="J136" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="257">
+        <v>100</v>
+      </c>
+      <c r="L136" s="257"/>
+      <c r="M136" s="264"/>
+      <c r="N136" s="257"/>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A137" s="310"/>
+      <c r="B137" s="313"/>
+      <c r="C137" s="268"/>
+      <c r="D137" s="268"/>
+      <c r="E137" s="339"/>
+      <c r="F137" s="265"/>
+      <c r="G137" s="210"/>
+      <c r="H137" s="210"/>
+      <c r="I137" s="210"/>
+      <c r="J137" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L137" s="258"/>
+      <c r="M137" s="265"/>
+      <c r="N137" s="258"/>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A138" s="308">
+        <v>23</v>
+      </c>
+      <c r="B138" s="311" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="296" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" s="335"/>
+      <c r="F138" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G138" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H138" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I138" s="337"/>
+      <c r="J138" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K138" s="256">
+        <v>100</v>
+      </c>
+      <c r="L138" s="256"/>
+      <c r="M138" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N138" s="256"/>
+    </row>
+    <row r="139" spans="1:14" ht="15">
+      <c r="A139" s="309"/>
+      <c r="B139" s="312"/>
+      <c r="C139" s="267"/>
+      <c r="D139" s="267"/>
+      <c r="E139" s="338"/>
+      <c r="F139" s="264"/>
+      <c r="G139" s="207"/>
+      <c r="H139" s="207"/>
+      <c r="I139" s="207"/>
+      <c r="J139" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L139" s="257"/>
+      <c r="M139" s="264"/>
+      <c r="N139" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15">
+      <c r="A140" s="309"/>
+      <c r="B140" s="312"/>
+      <c r="C140" s="267"/>
+      <c r="D140" s="267"/>
+      <c r="E140" s="338"/>
+      <c r="F140" s="264"/>
+      <c r="G140" s="207"/>
+      <c r="H140" s="207"/>
+      <c r="I140" s="207"/>
+      <c r="J140" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140" s="257">
+        <v>100</v>
+      </c>
+      <c r="L140" s="257"/>
+      <c r="M140" s="264"/>
+      <c r="N140" s="257"/>
+    </row>
+    <row r="141" spans="1:14" ht="15">
+      <c r="A141" s="309"/>
+      <c r="B141" s="312"/>
+      <c r="C141" s="267"/>
+      <c r="D141" s="267"/>
+      <c r="E141" s="338"/>
+      <c r="F141" s="264"/>
+      <c r="G141" s="207"/>
+      <c r="H141" s="207"/>
+      <c r="I141" s="207"/>
+      <c r="J141" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" s="257">
+        <v>100</v>
+      </c>
+      <c r="L141" s="257"/>
+      <c r="M141" s="264"/>
+      <c r="N141" s="257"/>
+    </row>
+    <row r="142" spans="1:14" ht="15">
+      <c r="A142" s="309"/>
+      <c r="B142" s="312"/>
+      <c r="C142" s="267"/>
+      <c r="D142" s="267"/>
+      <c r="E142" s="338"/>
+      <c r="F142" s="264"/>
+      <c r="G142" s="207"/>
+      <c r="H142" s="207"/>
+      <c r="I142" s="207"/>
+      <c r="J142" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" s="257">
+        <v>100</v>
+      </c>
+      <c r="L142" s="257"/>
+      <c r="M142" s="264"/>
+      <c r="N142" s="257"/>
+    </row>
+    <row r="143" spans="1:14" ht="15">
+      <c r="A143" s="309"/>
+      <c r="B143" s="312"/>
+      <c r="C143" s="267"/>
+      <c r="D143" s="267"/>
+      <c r="E143" s="338"/>
+      <c r="F143" s="264"/>
+      <c r="G143" s="207"/>
+      <c r="H143" s="207"/>
+      <c r="I143" s="207"/>
+      <c r="J143" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K143" s="257">
+        <v>100</v>
+      </c>
+      <c r="L143" s="257"/>
+      <c r="M143" s="264"/>
+      <c r="N143" s="257"/>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A144" s="310"/>
+      <c r="B144" s="313"/>
+      <c r="C144" s="268"/>
+      <c r="D144" s="268"/>
+      <c r="E144" s="339"/>
+      <c r="F144" s="265"/>
+      <c r="G144" s="210"/>
+      <c r="H144" s="210"/>
+      <c r="I144" s="210"/>
+      <c r="J144" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K144" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L144" s="258"/>
+      <c r="M144" s="265"/>
+      <c r="N144" s="258"/>
+    </row>
+    <row r="145" spans="1:14" ht="15">
+      <c r="A145" s="308">
+        <v>24</v>
+      </c>
+      <c r="B145" s="311" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="296" t="s">
+        <v>215</v>
+      </c>
+      <c r="D145" s="340" t="s">
+        <v>104</v>
+      </c>
+      <c r="E145" s="335"/>
+      <c r="F145" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G145" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H145" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I145" s="337"/>
+      <c r="J145" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K145" s="256">
+        <v>100</v>
+      </c>
+      <c r="L145" s="256"/>
+      <c r="M145" s="343" t="s">
+        <v>233</v>
+      </c>
+      <c r="N145" s="256"/>
+    </row>
+    <row r="146" spans="1:14" ht="15">
+      <c r="A146" s="309"/>
+      <c r="B146" s="312"/>
+      <c r="C146" s="267"/>
+      <c r="D146" s="341"/>
+      <c r="E146" s="338"/>
+      <c r="F146" s="264"/>
+      <c r="G146" s="207"/>
+      <c r="H146" s="207"/>
+      <c r="I146" s="207"/>
+      <c r="J146" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L146" s="257"/>
+      <c r="M146" s="344"/>
+      <c r="N146" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15">
+      <c r="A147" s="309"/>
+      <c r="B147" s="312"/>
+      <c r="C147" s="267"/>
+      <c r="D147" s="341"/>
+      <c r="E147" s="338"/>
+      <c r="F147" s="264"/>
+      <c r="G147" s="207"/>
+      <c r="H147" s="207"/>
+      <c r="I147" s="207"/>
+      <c r="J147" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K147" s="257">
+        <v>100</v>
+      </c>
+      <c r="L147" s="257"/>
+      <c r="M147" s="344"/>
+      <c r="N147" s="257"/>
+    </row>
+    <row r="148" spans="1:14" ht="15">
+      <c r="A148" s="309"/>
+      <c r="B148" s="312"/>
+      <c r="C148" s="267"/>
+      <c r="D148" s="341"/>
+      <c r="E148" s="338"/>
+      <c r="F148" s="264"/>
+      <c r="G148" s="207"/>
+      <c r="H148" s="207"/>
+      <c r="I148" s="207"/>
+      <c r="J148" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" s="257">
+        <v>100</v>
+      </c>
+      <c r="L148" s="257"/>
+      <c r="M148" s="344"/>
+      <c r="N148" s="257"/>
+    </row>
+    <row r="149" spans="1:14" ht="15">
+      <c r="A149" s="309"/>
+      <c r="B149" s="312"/>
+      <c r="C149" s="267"/>
+      <c r="D149" s="341"/>
+      <c r="E149" s="338"/>
+      <c r="F149" s="264"/>
+      <c r="G149" s="207"/>
+      <c r="H149" s="207"/>
+      <c r="I149" s="207"/>
+      <c r="J149" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" s="257">
+        <v>100</v>
+      </c>
+      <c r="L149" s="257"/>
+      <c r="M149" s="344"/>
+      <c r="N149" s="257"/>
+    </row>
+    <row r="150" spans="1:14" ht="15">
+      <c r="A150" s="309"/>
+      <c r="B150" s="312"/>
+      <c r="C150" s="267"/>
+      <c r="D150" s="341"/>
+      <c r="E150" s="338"/>
+      <c r="F150" s="264"/>
+      <c r="G150" s="207"/>
+      <c r="H150" s="207"/>
+      <c r="I150" s="207"/>
+      <c r="J150" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="257">
+        <v>100</v>
+      </c>
+      <c r="L150" s="257"/>
+      <c r="M150" s="344"/>
+      <c r="N150" s="257"/>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A151" s="310"/>
+      <c r="B151" s="313"/>
+      <c r="C151" s="268"/>
+      <c r="D151" s="342"/>
+      <c r="E151" s="339"/>
+      <c r="F151" s="265"/>
+      <c r="G151" s="210"/>
+      <c r="H151" s="210"/>
+      <c r="I151" s="210"/>
+      <c r="J151" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L151" s="258"/>
+      <c r="M151" s="345"/>
+      <c r="N151" s="258"/>
+    </row>
+    <row r="152" spans="1:14" ht="15" customHeight="1">
+      <c r="A152" s="308">
+        <v>25</v>
+      </c>
+      <c r="B152" s="311" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152" s="296" t="s">
+        <v>217</v>
+      </c>
+      <c r="D152" s="340" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152" s="335"/>
+      <c r="F152" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G152" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H152" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I152" s="337"/>
+      <c r="J152" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="K152" s="256">
+        <v>100</v>
+      </c>
+      <c r="L152" s="256"/>
+      <c r="M152" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N152" s="256"/>
+    </row>
+    <row r="153" spans="1:14" ht="15">
+      <c r="A153" s="309"/>
+      <c r="B153" s="312"/>
+      <c r="C153" s="267"/>
+      <c r="D153" s="341"/>
+      <c r="E153" s="338"/>
+      <c r="F153" s="264"/>
+      <c r="G153" s="207"/>
+      <c r="H153" s="207"/>
+      <c r="I153" s="207"/>
+      <c r="J153" s="205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L153" s="257"/>
+      <c r="M153" s="264"/>
+      <c r="N153" s="207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15">
+      <c r="A154" s="309"/>
+      <c r="B154" s="312"/>
+      <c r="C154" s="267"/>
+      <c r="D154" s="341"/>
+      <c r="E154" s="338"/>
+      <c r="F154" s="264"/>
+      <c r="G154" s="207"/>
+      <c r="H154" s="207"/>
+      <c r="I154" s="207"/>
+      <c r="J154" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" s="257">
+        <v>100</v>
+      </c>
+      <c r="L154" s="257"/>
+      <c r="M154" s="264"/>
+      <c r="N154" s="257"/>
+    </row>
+    <row r="155" spans="1:14" ht="15">
+      <c r="A155" s="309"/>
+      <c r="B155" s="312"/>
+      <c r="C155" s="267"/>
+      <c r="D155" s="341"/>
+      <c r="E155" s="338"/>
+      <c r="F155" s="264"/>
+      <c r="G155" s="207"/>
+      <c r="H155" s="207"/>
+      <c r="I155" s="207"/>
+      <c r="J155" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" s="257">
+        <v>100</v>
+      </c>
+      <c r="L155" s="257"/>
+      <c r="M155" s="264"/>
+      <c r="N155" s="257"/>
+    </row>
+    <row r="156" spans="1:14" ht="15">
+      <c r="A156" s="309"/>
+      <c r="B156" s="312"/>
+      <c r="C156" s="267"/>
+      <c r="D156" s="341"/>
+      <c r="E156" s="338"/>
+      <c r="F156" s="264"/>
+      <c r="G156" s="207"/>
+      <c r="H156" s="207"/>
+      <c r="I156" s="207"/>
+      <c r="J156" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="257">
+        <v>100</v>
+      </c>
+      <c r="L156" s="257"/>
+      <c r="M156" s="264"/>
+      <c r="N156" s="257"/>
+    </row>
+    <row r="157" spans="1:14" ht="15">
+      <c r="A157" s="309"/>
+      <c r="B157" s="312"/>
+      <c r="C157" s="267"/>
+      <c r="D157" s="341"/>
+      <c r="E157" s="338"/>
+      <c r="F157" s="264"/>
+      <c r="G157" s="207"/>
+      <c r="H157" s="207"/>
+      <c r="I157" s="207"/>
+      <c r="J157" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" s="257">
+        <v>100</v>
+      </c>
+      <c r="L157" s="257"/>
+      <c r="M157" s="264"/>
+      <c r="N157" s="257"/>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A158" s="310"/>
+      <c r="B158" s="313"/>
+      <c r="C158" s="268"/>
+      <c r="D158" s="342"/>
+      <c r="E158" s="339"/>
+      <c r="F158" s="265"/>
+      <c r="G158" s="210"/>
+      <c r="H158" s="210"/>
+      <c r="I158" s="210"/>
+      <c r="J158" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K158" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L158" s="258"/>
+      <c r="M158" s="265"/>
+      <c r="N158" s="258"/>
+    </row>
+    <row r="159" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A159" s="308">
+        <v>26</v>
+      </c>
+      <c r="B159" s="311" t="s">
+        <v>218</v>
+      </c>
+      <c r="C159" s="296" t="s">
+        <v>219</v>
+      </c>
+      <c r="D159" s="296" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="335"/>
+      <c r="F159" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G159" s="336">
+        <v>44694</v>
+      </c>
+      <c r="H159" s="336">
+        <v>45059</v>
+      </c>
+      <c r="I159" s="337"/>
+      <c r="J159" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" s="257">
+        <v>100</v>
+      </c>
+      <c r="L159" s="256"/>
+      <c r="M159" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N159" s="256"/>
+    </row>
+    <row r="160" spans="1:14" ht="15">
+      <c r="A160" s="309"/>
+      <c r="B160" s="312"/>
+      <c r="C160" s="267"/>
+      <c r="D160" s="267"/>
+      <c r="E160" s="338"/>
+      <c r="F160" s="264"/>
+      <c r="G160" s="207"/>
+      <c r="H160" s="207"/>
+      <c r="I160" s="207"/>
+      <c r="J160" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K160" s="257">
+        <v>100</v>
+      </c>
+      <c r="L160" s="257"/>
+      <c r="M160" s="264"/>
+      <c r="N160" s="257"/>
+    </row>
+    <row r="161" spans="1:14" ht="15">
+      <c r="A161" s="309"/>
+      <c r="B161" s="312"/>
+      <c r="C161" s="267"/>
+      <c r="D161" s="267"/>
+      <c r="E161" s="338"/>
+      <c r="F161" s="264"/>
+      <c r="G161" s="207"/>
+      <c r="H161" s="207"/>
+      <c r="I161" s="207"/>
+      <c r="J161" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" s="257">
+        <v>100</v>
+      </c>
+      <c r="L161" s="257"/>
+      <c r="M161" s="264"/>
+      <c r="N161" s="257"/>
+    </row>
+    <row r="162" spans="1:14" ht="15">
+      <c r="A162" s="309"/>
+      <c r="B162" s="312"/>
+      <c r="C162" s="267"/>
+      <c r="D162" s="267"/>
+      <c r="E162" s="338"/>
+      <c r="F162" s="264"/>
+      <c r="G162" s="207"/>
+      <c r="H162" s="207"/>
+      <c r="I162" s="207"/>
+      <c r="J162" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K162" s="257">
+        <v>100</v>
+      </c>
+      <c r="L162" s="257"/>
+      <c r="M162" s="264"/>
+      <c r="N162" s="257"/>
+    </row>
+    <row r="163" spans="1:14" ht="15">
+      <c r="A163" s="309"/>
+      <c r="B163" s="312"/>
+      <c r="C163" s="267"/>
+      <c r="D163" s="267"/>
+      <c r="E163" s="338"/>
+      <c r="F163" s="264"/>
+      <c r="G163" s="207"/>
+      <c r="H163" s="207"/>
+      <c r="I163" s="207"/>
+      <c r="J163" s="205" t="s">
+        <v>23</v>
+      </c>
+      <c r="K163" s="257" t="s">
+        <v>130</v>
+      </c>
+      <c r="L163" s="257"/>
+      <c r="M163" s="264"/>
+      <c r="N163" s="257"/>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A164" s="309"/>
+      <c r="B164" s="312"/>
+      <c r="C164" s="267"/>
+      <c r="D164" s="267"/>
+      <c r="E164" s="338"/>
+      <c r="F164" s="264"/>
+      <c r="G164" s="210"/>
+      <c r="H164" s="210"/>
+      <c r="I164" s="210"/>
+      <c r="J164" s="209" t="s">
+        <v>220</v>
+      </c>
+      <c r="K164" s="258" t="s">
+        <v>130</v>
+      </c>
+      <c r="L164" s="258"/>
+      <c r="M164" s="264"/>
+      <c r="N164" s="258"/>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A165" s="308">
+        <v>27</v>
+      </c>
+      <c r="B165" s="311" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" s="296" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" s="296" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165" s="296"/>
+      <c r="F165" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="G165" s="212">
+        <v>44694</v>
+      </c>
+      <c r="H165" s="346"/>
+      <c r="I165" s="337" t="s">
         <v>203</v>
       </c>
-      <c r="J113" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="211">
+      <c r="J165" s="200" t="s">
+        <v>7</v>
+      </c>
+      <c r="K165" s="199">
         <v>1000</v>
       </c>
-      <c r="L113" s="214"/>
-      <c r="M113" s="214"/>
-      <c r="N113" s="214" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="15">
-      <c r="A114" s="314"/>
-      <c r="B114" s="315"/>
-      <c r="C114" s="316"/>
-      <c r="D114" s="316"/>
-      <c r="E114" s="317"/>
-      <c r="F114" s="314"/>
-      <c r="G114" s="211"/>
-      <c r="H114" s="211"/>
-      <c r="I114" s="211"/>
-      <c r="J114" s="212" t="s">
-        <v>10</v>
-      </c>
-      <c r="K114" s="211">
-        <v>100</v>
-      </c>
-      <c r="L114" s="214"/>
-      <c r="M114" s="214"/>
-      <c r="N114" s="214"/>
-    </row>
-    <row r="115" spans="1:14" ht="15">
-      <c r="A115" s="314"/>
-      <c r="B115" s="315"/>
-      <c r="C115" s="316"/>
-      <c r="D115" s="316"/>
-      <c r="E115" s="317"/>
-      <c r="F115" s="314"/>
-      <c r="G115" s="211"/>
-      <c r="H115" s="211"/>
-      <c r="I115" s="211"/>
-      <c r="J115" s="212" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" s="211">
-        <v>100</v>
-      </c>
-      <c r="L115" s="214"/>
-      <c r="M115" s="214"/>
-      <c r="N115" s="214"/>
-    </row>
-    <row r="116" spans="1:14" ht="15">
-      <c r="A116" s="314"/>
-      <c r="B116" s="315"/>
-      <c r="C116" s="316"/>
-      <c r="D116" s="316"/>
-      <c r="E116" s="317"/>
-      <c r="F116" s="314"/>
-      <c r="G116" s="211"/>
-      <c r="H116" s="211"/>
-      <c r="I116" s="211"/>
-      <c r="J116" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="K116" s="211">
-        <v>100</v>
-      </c>
-      <c r="L116" s="214"/>
-      <c r="M116" s="214"/>
-      <c r="N116" s="214"/>
-    </row>
-    <row r="117" spans="1:14" ht="15">
-      <c r="A117" s="314"/>
-      <c r="B117" s="315"/>
-      <c r="C117" s="316"/>
-      <c r="D117" s="316"/>
-      <c r="E117" s="317"/>
-      <c r="F117" s="314"/>
-      <c r="G117" s="211"/>
-      <c r="H117" s="211"/>
-      <c r="I117" s="211"/>
-      <c r="J117" s="212" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="211">
-        <v>100</v>
-      </c>
-      <c r="L117" s="214"/>
-      <c r="M117" s="214"/>
-      <c r="N117" s="214"/>
-    </row>
-    <row r="118" spans="1:14" ht="15">
-      <c r="A118" s="314"/>
-      <c r="B118" s="315"/>
-      <c r="C118" s="316"/>
-      <c r="D118" s="316"/>
-      <c r="E118" s="317"/>
-      <c r="F118" s="314"/>
-      <c r="G118" s="211"/>
-      <c r="H118" s="211"/>
-      <c r="I118" s="211"/>
-      <c r="J118" s="212" t="s">
-        <v>80</v>
-      </c>
-      <c r="K118" s="211">
-        <v>10</v>
-      </c>
-      <c r="L118" s="214"/>
-      <c r="M118" s="214"/>
-      <c r="N118" s="214"/>
-    </row>
-    <row r="119" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A119" s="318"/>
-      <c r="B119" s="319"/>
-      <c r="C119" s="320"/>
-      <c r="D119" s="320"/>
-      <c r="E119" s="321"/>
-      <c r="F119" s="318"/>
-      <c r="G119" s="219"/>
-      <c r="H119" s="219"/>
-      <c r="I119" s="219"/>
-      <c r="J119" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="K119" s="219" t="s">
-        <v>130</v>
-      </c>
-      <c r="L119" s="221"/>
-      <c r="M119" s="221"/>
-      <c r="N119" s="221"/>
-    </row>
-    <row r="120" spans="1:14" ht="30" customHeight="1">
-      <c r="A120" s="223">
-        <v>20</v>
-      </c>
-      <c r="B120" s="224" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="225" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" s="225" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="239" t="s">
-        <v>231</v>
-      </c>
-      <c r="F120" s="296" t="s">
-        <v>230</v>
-      </c>
-      <c r="G120" s="235"/>
-      <c r="H120" s="227"/>
-      <c r="I120" s="227"/>
-      <c r="J120" s="236" t="s">
-        <v>8</v>
-      </c>
-      <c r="K120" s="237"/>
-      <c r="L120" s="204"/>
-      <c r="M120" s="205"/>
-      <c r="N120" s="205"/>
-    </row>
-    <row r="121" spans="1:14" ht="15">
-      <c r="A121" s="229"/>
-      <c r="B121" s="230"/>
-      <c r="C121" s="209"/>
-      <c r="D121" s="209"/>
-      <c r="E121" s="240"/>
-      <c r="F121" s="207"/>
-      <c r="G121" s="211"/>
-      <c r="H121" s="211"/>
-      <c r="I121" s="211"/>
-      <c r="J121" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="K121" s="211"/>
-      <c r="L121" s="213"/>
-      <c r="M121" s="214"/>
-      <c r="N121" s="214" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15">
-      <c r="A122" s="229"/>
-      <c r="B122" s="230"/>
-      <c r="C122" s="209"/>
-      <c r="D122" s="209"/>
-      <c r="E122" s="240"/>
-      <c r="F122" s="207"/>
-      <c r="G122" s="211"/>
-      <c r="H122" s="211"/>
-      <c r="I122" s="211"/>
-      <c r="J122" s="212" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" s="211"/>
-      <c r="L122" s="213"/>
-      <c r="M122" s="214"/>
-      <c r="N122" s="214"/>
-    </row>
-    <row r="123" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A123" s="233"/>
-      <c r="B123" s="234"/>
-      <c r="C123" s="217"/>
-      <c r="D123" s="217"/>
-      <c r="E123" s="241"/>
-      <c r="F123" s="215"/>
-      <c r="G123" s="322"/>
-      <c r="H123" s="219"/>
-      <c r="I123" s="219"/>
-      <c r="J123" s="220" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" s="219"/>
-      <c r="L123" s="238"/>
-      <c r="M123" s="221"/>
-      <c r="N123" s="221" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="K124" s="5"/>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="K125" s="5"/>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="K126" s="5"/>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="K127" s="5"/>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="C128" s="112"/>
-      <c r="D128" s="112"/>
-      <c r="E128" s="112"/>
-      <c r="K128" s="5"/>
-    </row>
-    <row r="129" spans="3:11">
-      <c r="C129" s="112"/>
-      <c r="D129" s="112"/>
-      <c r="E129" s="112"/>
-      <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="3:11">
-      <c r="C130" s="112"/>
-      <c r="D130" s="112"/>
-      <c r="E130" s="112"/>
-      <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="3:11">
-      <c r="C131" s="112"/>
-      <c r="D131" s="112"/>
-      <c r="E131" s="112"/>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="3:11">
-      <c r="C132" s="112"/>
-      <c r="D132" s="112"/>
-      <c r="E132" s="112"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="3:11">
-      <c r="C133" s="112"/>
-      <c r="D133" s="112"/>
-      <c r="E133" s="112"/>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="3:11">
-      <c r="C134" s="112"/>
-      <c r="D134" s="112"/>
-      <c r="E134" s="112"/>
-      <c r="K134" s="5"/>
-    </row>
-    <row r="135" spans="3:11">
-      <c r="C135" s="112"/>
-      <c r="D135" s="112"/>
-      <c r="E135" s="112"/>
-      <c r="K135" s="5"/>
-    </row>
-    <row r="136" spans="3:11">
-      <c r="C136" s="112"/>
-      <c r="D136" s="112"/>
-      <c r="E136" s="112"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="3:11">
-      <c r="C137" s="112"/>
-      <c r="D137" s="112"/>
-      <c r="E137" s="112"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="3:11">
-      <c r="C138" s="112"/>
-      <c r="D138" s="112"/>
-      <c r="E138" s="112"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="3:11">
-      <c r="C139" s="112"/>
-      <c r="D139" s="112"/>
-      <c r="E139" s="112"/>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="3:11">
-      <c r="C140" s="112"/>
-      <c r="D140" s="112"/>
-      <c r="E140" s="112"/>
-      <c r="K140" s="5"/>
+      <c r="L165" s="199"/>
+      <c r="M165" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="N165" s="347"/>
+    </row>
+    <row r="166" spans="1:14" ht="15">
+      <c r="A166" s="309"/>
+      <c r="B166" s="312"/>
+      <c r="C166" s="267"/>
+      <c r="D166" s="267"/>
+      <c r="E166" s="267"/>
+      <c r="F166" s="264"/>
+      <c r="G166" s="257"/>
+      <c r="H166" s="257"/>
+      <c r="I166" s="257"/>
+      <c r="J166" s="205" t="s">
+        <v>70</v>
+      </c>
+      <c r="K166" s="257">
+        <v>1000</v>
+      </c>
+      <c r="L166" s="257"/>
+      <c r="M166" s="264"/>
+      <c r="N166" s="257"/>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A167" s="310"/>
+      <c r="B167" s="313"/>
+      <c r="C167" s="268"/>
+      <c r="D167" s="268"/>
+      <c r="E167" s="268"/>
+      <c r="F167" s="265"/>
+      <c r="G167" s="258"/>
+      <c r="H167" s="258"/>
+      <c r="I167" s="258"/>
+      <c r="J167" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="K167" s="258">
+        <v>1000</v>
+      </c>
+      <c r="L167" s="258"/>
+      <c r="M167" s="265"/>
+      <c r="N167" s="258"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="182">
+    <mergeCell ref="F124:F130"/>
+    <mergeCell ref="F131:F137"/>
+    <mergeCell ref="F138:F144"/>
+    <mergeCell ref="F145:F151"/>
+    <mergeCell ref="F152:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="M145:M151"/>
+    <mergeCell ref="M124:M130"/>
+    <mergeCell ref="M131:M137"/>
+    <mergeCell ref="M138:M144"/>
+    <mergeCell ref="M152:M158"/>
+    <mergeCell ref="M159:M164"/>
+    <mergeCell ref="M165:M167"/>
     <mergeCell ref="F120:F123"/>
     <mergeCell ref="A120:A123"/>
     <mergeCell ref="B120:B123"/>
@@ -15395,7 +16512,6 @@
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="D56:D62"/>
     <mergeCell ref="E56:E62"/>
-    <mergeCell ref="F42:F48"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="C49:C55"/>
@@ -15407,8 +16523,6 @@
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E42:E48"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C41"/>
@@ -15417,10 +16531,7 @@
     <mergeCell ref="F35:F41"/>
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="C27:C34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F42:F48"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="F20:F26"/>
@@ -15441,6 +16552,8 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
@@ -15451,9 +16564,49 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="C124:C130"/>
+    <mergeCell ref="D124:D130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A138:A144"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="E145:E151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="D138:D144"/>
+    <mergeCell ref="E138:E144"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="E165:E167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
+++ b/Phòng kỹ thuật/Bluesign/KEY 2022/Key 495/CONTROL IMPURITY OF MATERIAL& TESTING SCHEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Bluesign\KEY 2022\Key 495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8872379A-132B-4812-91BE-EEC9BD127C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EAC9E-24CF-4655-A3F7-1AE57C02F293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="20115" windowHeight="7455" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="TESTING SCHEME 2021-2022" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="235">
   <si>
     <t>No.</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>TÜV SÜD LAB</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2611,6 +2614,56 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2635,12 +2688,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2653,18 +2700,6 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2722,9 +2757,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2732,6 +2764,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2746,7 +2787,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2758,22 +2799,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,26 +2865,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2868,9 +2874,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7171,7 +7179,7 @@
   <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A121" sqref="A121:O165"/>
     </sheetView>
   </sheetViews>
@@ -12246,8 +12254,8 @@
   <dimension ref="A1:AM167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12269,31 +12277,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="196" customFormat="1" ht="71.25">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="269" t="s">
+      <c r="D1" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="269" t="s">
+      <c r="E1" s="285" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="269" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="269" t="s">
+      <c r="F1" s="285" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="259" t="s">
+      <c r="H1" s="277" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="259"/>
+      <c r="I1" s="277"/>
       <c r="J1" s="252" t="s">
         <v>65</v>
       </c>
@@ -12314,13 +12322,13 @@
       <c r="Q1" s="195"/>
     </row>
     <row r="2" spans="1:39" ht="15">
-      <c r="A2" s="272"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
       <c r="H2" s="253" t="s">
         <v>201</v>
       </c>
@@ -12360,20 +12368,20 @@
       <c r="Q3" s="92"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1">
-      <c r="A4" s="263">
+      <c r="A4" s="281">
         <v>1</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="266" t="s">
+      <c r="D4" s="284" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="266"/>
-      <c r="F4" s="263" t="s">
+      <c r="E4" s="284"/>
+      <c r="F4" s="281" t="s">
         <v>229</v>
       </c>
       <c r="G4" s="199"/>
@@ -12415,12 +12423,12 @@
       <c r="AM4" s="235"/>
     </row>
     <row r="5" spans="1:39" ht="15">
-      <c r="A5" s="264"/>
-      <c r="B5" s="261"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="279"/>
       <c r="C5" s="267"/>
       <c r="D5" s="267"/>
       <c r="E5" s="267"/>
-      <c r="F5" s="264"/>
+      <c r="F5" s="282"/>
       <c r="G5" s="204" t="s">
         <v>109</v>
       </c>
@@ -12466,12 +12474,12 @@
       <c r="AM5" s="235"/>
     </row>
     <row r="6" spans="1:39" ht="15">
-      <c r="A6" s="264"/>
-      <c r="B6" s="261"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="279"/>
       <c r="C6" s="267"/>
       <c r="D6" s="267"/>
       <c r="E6" s="267"/>
-      <c r="F6" s="264"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="204"/>
       <c r="H6" s="204"/>
       <c r="I6" s="204" t="s">
@@ -12513,12 +12521,12 @@
       <c r="AM6" s="235"/>
     </row>
     <row r="7" spans="1:39" s="129" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="265"/>
-      <c r="B7" s="262"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="265"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="283"/>
       <c r="G7" s="208"/>
       <c r="H7" s="208"/>
       <c r="I7" s="208"/>
@@ -12558,22 +12566,22 @@
       <c r="AM7" s="235"/>
     </row>
     <row r="8" spans="1:39" ht="30" customHeight="1">
-      <c r="A8" s="273">
+      <c r="A8" s="311">
         <v>2</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="296" t="s">
+      <c r="C8" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="296" t="s">
+      <c r="E8" s="266" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="295" t="s">
+      <c r="F8" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G8" s="212" t="s">
@@ -12619,12 +12627,12 @@
       <c r="AM8" s="235"/>
     </row>
     <row r="9" spans="1:39" ht="15">
-      <c r="A9" s="274"/>
-      <c r="B9" s="298"/>
+      <c r="A9" s="312"/>
+      <c r="B9" s="309"/>
       <c r="C9" s="267"/>
       <c r="D9" s="267"/>
       <c r="E9" s="267"/>
-      <c r="F9" s="264"/>
+      <c r="F9" s="282"/>
       <c r="G9" s="204"/>
       <c r="H9" s="204"/>
       <c r="I9" s="204" t="s">
@@ -12668,12 +12676,12 @@
       <c r="AM9" s="235"/>
     </row>
     <row r="10" spans="1:39" ht="15">
-      <c r="A10" s="274"/>
-      <c r="B10" s="298"/>
+      <c r="A10" s="312"/>
+      <c r="B10" s="309"/>
       <c r="C10" s="267"/>
       <c r="D10" s="267"/>
       <c r="E10" s="267"/>
-      <c r="F10" s="264"/>
+      <c r="F10" s="282"/>
       <c r="G10" s="204"/>
       <c r="H10" s="204"/>
       <c r="I10" s="204"/>
@@ -12713,12 +12721,12 @@
       <c r="AM10" s="235"/>
     </row>
     <row r="11" spans="1:39" ht="15">
-      <c r="A11" s="274"/>
-      <c r="B11" s="298"/>
+      <c r="A11" s="312"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="267"/>
       <c r="D11" s="267"/>
       <c r="E11" s="267"/>
-      <c r="F11" s="264"/>
+      <c r="F11" s="282"/>
       <c r="G11" s="204"/>
       <c r="H11" s="204"/>
       <c r="I11" s="204"/>
@@ -12758,12 +12766,12 @@
       <c r="AM11" s="235"/>
     </row>
     <row r="12" spans="1:39" ht="15">
-      <c r="A12" s="274"/>
-      <c r="B12" s="298"/>
+      <c r="A12" s="312"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="267"/>
       <c r="D12" s="267"/>
       <c r="E12" s="267"/>
-      <c r="F12" s="264"/>
+      <c r="F12" s="282"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
@@ -12778,12 +12786,12 @@
       <c r="N12" s="203"/>
     </row>
     <row r="13" spans="1:39" ht="15">
-      <c r="A13" s="274"/>
-      <c r="B13" s="298"/>
+      <c r="A13" s="312"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="267"/>
       <c r="D13" s="267"/>
       <c r="E13" s="267"/>
-      <c r="F13" s="264"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="204"/>
       <c r="H13" s="204"/>
       <c r="I13" s="204"/>
@@ -12798,12 +12806,12 @@
       <c r="N13" s="203"/>
     </row>
     <row r="14" spans="1:39" ht="15">
-      <c r="A14" s="274"/>
-      <c r="B14" s="298"/>
+      <c r="A14" s="312"/>
+      <c r="B14" s="309"/>
       <c r="C14" s="267"/>
       <c r="D14" s="267"/>
       <c r="E14" s="267"/>
-      <c r="F14" s="264"/>
+      <c r="F14" s="282"/>
       <c r="G14" s="214"/>
       <c r="H14" s="214"/>
       <c r="I14" s="214"/>
@@ -12818,12 +12826,12 @@
       <c r="N14" s="203"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A15" s="275"/>
-      <c r="B15" s="299"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="265"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="283"/>
       <c r="G15" s="208"/>
       <c r="H15" s="208"/>
       <c r="I15" s="208"/>
@@ -12838,22 +12846,22 @@
       <c r="N15" s="211"/>
     </row>
     <row r="16" spans="1:39" ht="15">
-      <c r="A16" s="273">
+      <c r="A16" s="311">
         <v>3</v>
       </c>
-      <c r="B16" s="297" t="s">
+      <c r="B16" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="296" t="s">
+      <c r="C16" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="296" t="s">
+      <c r="D16" s="266" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="301" t="s">
+      <c r="E16" s="315" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="295" t="s">
+      <c r="F16" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G16" s="216" t="s">
@@ -12874,12 +12882,12 @@
       <c r="N16" s="202"/>
     </row>
     <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="274"/>
-      <c r="B17" s="298"/>
+      <c r="A17" s="312"/>
+      <c r="B17" s="309"/>
       <c r="C17" s="267"/>
       <c r="D17" s="267"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="264"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="282"/>
       <c r="G17" s="204"/>
       <c r="H17" s="204"/>
       <c r="I17" s="204" t="s">
@@ -12893,17 +12901,15 @@
       </c>
       <c r="L17" s="206"/>
       <c r="M17" s="207"/>
-      <c r="N17" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="1:15" ht="15">
-      <c r="A18" s="274"/>
-      <c r="B18" s="298"/>
+      <c r="A18" s="312"/>
+      <c r="B18" s="309"/>
       <c r="C18" s="267"/>
       <c r="D18" s="267"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="264"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="204"/>
       <c r="H18" s="204"/>
       <c r="I18" s="204"/>
@@ -12918,12 +12924,12 @@
       <c r="N18" s="207"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="268"/>
-      <c r="D19" s="268"/>
-      <c r="E19" s="303"/>
-      <c r="F19" s="300"/>
+      <c r="A19" s="313"/>
+      <c r="B19" s="310"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="314"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214"/>
       <c r="I19" s="214"/>
@@ -12940,22 +12946,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15">
-      <c r="A20" s="289">
+      <c r="A20" s="301">
         <v>4</v>
       </c>
-      <c r="B20" s="286" t="s">
+      <c r="B20" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="283" t="s">
+      <c r="C20" s="295" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="280" t="s">
+      <c r="D20" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="292" t="s">
+      <c r="E20" s="304" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="277" t="s">
+      <c r="F20" s="289" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="220" t="s">
@@ -12978,12 +12984,12 @@
       <c r="N20" s="224"/>
     </row>
     <row r="21" spans="1:15" ht="15">
-      <c r="A21" s="290"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="293"/>
-      <c r="F21" s="278"/>
+      <c r="A21" s="302"/>
+      <c r="B21" s="299"/>
+      <c r="C21" s="296"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="290"/>
       <c r="G21" s="225"/>
       <c r="H21" s="225"/>
       <c r="I21" s="225" t="s">
@@ -12999,17 +13005,15 @@
       <c r="M21" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="229" t="s">
-        <v>129</v>
-      </c>
+      <c r="N21" s="229"/>
     </row>
     <row r="22" spans="1:15" ht="15">
-      <c r="A22" s="290"/>
-      <c r="B22" s="287"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="281"/>
-      <c r="E22" s="293"/>
-      <c r="F22" s="278"/>
+      <c r="A22" s="302"/>
+      <c r="B22" s="299"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="293"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="290"/>
       <c r="G22" s="230"/>
       <c r="H22" s="230"/>
       <c r="I22" s="230"/>
@@ -13026,12 +13030,12 @@
       <c r="N22" s="229"/>
     </row>
     <row r="23" spans="1:15" ht="15">
-      <c r="A23" s="290"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="278"/>
+      <c r="A23" s="302"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="293"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="290"/>
       <c r="G23" s="230"/>
       <c r="H23" s="230"/>
       <c r="I23" s="230"/>
@@ -13048,12 +13052,12 @@
       <c r="N23" s="229"/>
     </row>
     <row r="24" spans="1:15" ht="15">
-      <c r="A24" s="290"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="281"/>
-      <c r="E24" s="293"/>
-      <c r="F24" s="278"/>
+      <c r="A24" s="302"/>
+      <c r="B24" s="299"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="290"/>
       <c r="G24" s="230"/>
       <c r="H24" s="230"/>
       <c r="I24" s="230"/>
@@ -13070,12 +13074,12 @@
       <c r="N24" s="229"/>
     </row>
     <row r="25" spans="1:15" ht="15">
-      <c r="A25" s="290"/>
-      <c r="B25" s="287"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="278"/>
+      <c r="A25" s="302"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="290"/>
       <c r="G25" s="230"/>
       <c r="H25" s="230"/>
       <c r="I25" s="230"/>
@@ -13092,12 +13096,12 @@
       <c r="N25" s="229"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A26" s="291"/>
-      <c r="B26" s="288"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="279"/>
+      <c r="A26" s="303"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="291"/>
       <c r="G26" s="232"/>
       <c r="H26" s="232"/>
       <c r="I26" s="232"/>
@@ -13115,22 +13119,22 @@
       <c r="O26" s="235"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A27" s="273">
+      <c r="A27" s="311">
         <v>5</v>
       </c>
-      <c r="B27" s="276" t="s">
+      <c r="B27" s="318" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="305" t="s">
+      <c r="C27" s="319" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="296" t="s">
+      <c r="D27" s="266" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="292" t="s">
+      <c r="E27" s="304" t="s">
         <v>230</v>
       </c>
-      <c r="F27" s="304" t="s">
+      <c r="F27" s="322" t="s">
         <v>229</v>
       </c>
       <c r="G27" s="218" t="s">
@@ -13154,12 +13158,12 @@
       <c r="O27" s="236"/>
     </row>
     <row r="28" spans="1:15" ht="15">
-      <c r="A28" s="274"/>
-      <c r="B28" s="261"/>
-      <c r="C28" s="306"/>
+      <c r="A28" s="312"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="320"/>
       <c r="D28" s="267"/>
-      <c r="E28" s="293"/>
-      <c r="F28" s="264"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="282"/>
       <c r="G28" s="238"/>
       <c r="H28" s="238"/>
       <c r="I28" s="238" t="s">
@@ -13175,17 +13179,15 @@
       <c r="M28" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N28" s="207"/>
     </row>
     <row r="29" spans="1:15" ht="15">
-      <c r="A29" s="274"/>
-      <c r="B29" s="261"/>
-      <c r="C29" s="306"/>
+      <c r="A29" s="312"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="320"/>
       <c r="D29" s="267"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="264"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="282"/>
       <c r="G29" s="204"/>
       <c r="H29" s="204"/>
       <c r="I29" s="204"/>
@@ -13202,12 +13204,12 @@
       <c r="N29" s="207"/>
     </row>
     <row r="30" spans="1:15" ht="15">
-      <c r="A30" s="274"/>
-      <c r="B30" s="261"/>
-      <c r="C30" s="306"/>
+      <c r="A30" s="312"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="320"/>
       <c r="D30" s="267"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="264"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="282"/>
       <c r="G30" s="204"/>
       <c r="H30" s="204"/>
       <c r="I30" s="204"/>
@@ -13224,12 +13226,12 @@
       <c r="N30" s="207"/>
     </row>
     <row r="31" spans="1:15" ht="15">
-      <c r="A31" s="274"/>
-      <c r="B31" s="261"/>
-      <c r="C31" s="306"/>
+      <c r="A31" s="312"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="320"/>
       <c r="D31" s="267"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="264"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="282"/>
       <c r="G31" s="204"/>
       <c r="H31" s="204"/>
       <c r="I31" s="204"/>
@@ -13246,12 +13248,12 @@
       <c r="N31" s="207"/>
     </row>
     <row r="32" spans="1:15" ht="15">
-      <c r="A32" s="274"/>
-      <c r="B32" s="261"/>
-      <c r="C32" s="306"/>
+      <c r="A32" s="312"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="320"/>
       <c r="D32" s="267"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="264"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="282"/>
       <c r="G32" s="204"/>
       <c r="H32" s="204"/>
       <c r="I32" s="204"/>
@@ -13268,12 +13270,12 @@
       <c r="N32" s="207"/>
     </row>
     <row r="33" spans="1:14" ht="15">
-      <c r="A33" s="274"/>
-      <c r="B33" s="261"/>
-      <c r="C33" s="306"/>
+      <c r="A33" s="312"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="320"/>
       <c r="D33" s="267"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="264"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="282"/>
       <c r="G33" s="214"/>
       <c r="H33" s="204"/>
       <c r="I33" s="204"/>
@@ -13292,12 +13294,12 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A34" s="275"/>
-      <c r="B34" s="262"/>
-      <c r="C34" s="307"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="265"/>
+      <c r="A34" s="313"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="306"/>
+      <c r="F34" s="283"/>
       <c r="G34" s="208"/>
       <c r="H34" s="208"/>
       <c r="I34" s="208"/>
@@ -13314,20 +13316,20 @@
       <c r="N34" s="210"/>
     </row>
     <row r="35" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A35" s="273">
+      <c r="A35" s="311">
         <v>6</v>
       </c>
-      <c r="B35" s="276" t="s">
+      <c r="B35" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="296" t="s">
+      <c r="D35" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="296"/>
-      <c r="F35" s="295" t="s">
+      <c r="E35" s="266"/>
+      <c r="F35" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="218" t="s">
@@ -13350,12 +13352,12 @@
       <c r="N35" s="202"/>
     </row>
     <row r="36" spans="1:14" ht="15">
-      <c r="A36" s="274"/>
-      <c r="B36" s="261"/>
-      <c r="C36" s="306"/>
+      <c r="A36" s="312"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="320"/>
       <c r="D36" s="267"/>
       <c r="E36" s="267"/>
-      <c r="F36" s="264"/>
+      <c r="F36" s="282"/>
       <c r="G36" s="238"/>
       <c r="H36" s="197">
         <v>44218</v>
@@ -13371,17 +13373,15 @@
       <c r="M36" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N36" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N36" s="207"/>
     </row>
     <row r="37" spans="1:14" ht="15">
-      <c r="A37" s="274"/>
-      <c r="B37" s="261"/>
-      <c r="C37" s="306"/>
+      <c r="A37" s="312"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="320"/>
       <c r="D37" s="267"/>
       <c r="E37" s="267"/>
-      <c r="F37" s="264"/>
+      <c r="F37" s="282"/>
       <c r="G37" s="204"/>
       <c r="H37" s="198" t="s">
         <v>202</v>
@@ -13400,12 +13400,12 @@
       <c r="N37" s="207"/>
     </row>
     <row r="38" spans="1:14" ht="15">
-      <c r="A38" s="274"/>
-      <c r="B38" s="261"/>
-      <c r="C38" s="306"/>
+      <c r="A38" s="312"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="320"/>
       <c r="D38" s="267"/>
       <c r="E38" s="267"/>
-      <c r="F38" s="264"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="204"/>
       <c r="H38" s="204"/>
       <c r="I38" s="204"/>
@@ -13422,12 +13422,12 @@
       <c r="N38" s="207"/>
     </row>
     <row r="39" spans="1:14" ht="15">
-      <c r="A39" s="274"/>
-      <c r="B39" s="261"/>
-      <c r="C39" s="306"/>
+      <c r="A39" s="312"/>
+      <c r="B39" s="279"/>
+      <c r="C39" s="320"/>
       <c r="D39" s="267"/>
       <c r="E39" s="267"/>
-      <c r="F39" s="264"/>
+      <c r="F39" s="282"/>
       <c r="G39" s="204"/>
       <c r="H39" s="204"/>
       <c r="I39" s="204"/>
@@ -13444,12 +13444,12 @@
       <c r="N39" s="207"/>
     </row>
     <row r="40" spans="1:14" ht="15">
-      <c r="A40" s="274"/>
-      <c r="B40" s="261"/>
-      <c r="C40" s="306"/>
+      <c r="A40" s="312"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="320"/>
       <c r="D40" s="267"/>
       <c r="E40" s="267"/>
-      <c r="F40" s="264"/>
+      <c r="F40" s="282"/>
       <c r="G40" s="204"/>
       <c r="H40" s="204"/>
       <c r="I40" s="204"/>
@@ -13466,12 +13466,12 @@
       <c r="N40" s="207"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A41" s="275"/>
-      <c r="B41" s="262"/>
-      <c r="C41" s="307"/>
-      <c r="D41" s="268"/>
-      <c r="E41" s="268"/>
-      <c r="F41" s="265"/>
+      <c r="A41" s="313"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="321"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="283"/>
       <c r="G41" s="208"/>
       <c r="H41" s="208"/>
       <c r="I41" s="208"/>
@@ -13488,20 +13488,20 @@
       <c r="N41" s="210"/>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="273">
+      <c r="A42" s="311">
         <v>7</v>
       </c>
-      <c r="B42" s="276" t="s">
+      <c r="B42" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="296" t="s">
+      <c r="C42" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="296" t="s">
+      <c r="D42" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="296"/>
-      <c r="F42" s="295" t="s">
+      <c r="E42" s="266"/>
+      <c r="F42" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G42" s="242" t="s">
@@ -13524,12 +13524,12 @@
       <c r="N42" s="202"/>
     </row>
     <row r="43" spans="1:14" ht="15">
-      <c r="A43" s="274"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="312"/>
+      <c r="B43" s="279"/>
       <c r="C43" s="267"/>
       <c r="D43" s="267"/>
       <c r="E43" s="267"/>
-      <c r="F43" s="264"/>
+      <c r="F43" s="282"/>
       <c r="G43" s="238"/>
       <c r="H43" s="197">
         <v>44218</v>
@@ -13545,17 +13545,15 @@
       <c r="M43" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N43" s="207"/>
     </row>
     <row r="44" spans="1:14" ht="15">
-      <c r="A44" s="274"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="312"/>
+      <c r="B44" s="279"/>
       <c r="C44" s="267"/>
       <c r="D44" s="267"/>
       <c r="E44" s="267"/>
-      <c r="F44" s="264"/>
+      <c r="F44" s="282"/>
       <c r="G44" s="204"/>
       <c r="H44" s="198" t="s">
         <v>202</v>
@@ -13574,12 +13572,12 @@
       <c r="N44" s="207"/>
     </row>
     <row r="45" spans="1:14" ht="15">
-      <c r="A45" s="274"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="312"/>
+      <c r="B45" s="279"/>
       <c r="C45" s="267"/>
       <c r="D45" s="267"/>
       <c r="E45" s="267"/>
-      <c r="F45" s="264"/>
+      <c r="F45" s="282"/>
       <c r="G45" s="204"/>
       <c r="H45" s="204"/>
       <c r="I45" s="204"/>
@@ -13596,12 +13594,12 @@
       <c r="N45" s="207"/>
     </row>
     <row r="46" spans="1:14" ht="15">
-      <c r="A46" s="274"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="312"/>
+      <c r="B46" s="279"/>
       <c r="C46" s="267"/>
       <c r="D46" s="267"/>
       <c r="E46" s="267"/>
-      <c r="F46" s="264"/>
+      <c r="F46" s="282"/>
       <c r="G46" s="204"/>
       <c r="H46" s="204"/>
       <c r="I46" s="204"/>
@@ -13618,12 +13616,12 @@
       <c r="N46" s="207"/>
     </row>
     <row r="47" spans="1:14" ht="15">
-      <c r="A47" s="274"/>
-      <c r="B47" s="261"/>
+      <c r="A47" s="312"/>
+      <c r="B47" s="279"/>
       <c r="C47" s="267"/>
       <c r="D47" s="267"/>
       <c r="E47" s="267"/>
-      <c r="F47" s="264"/>
+      <c r="F47" s="282"/>
       <c r="G47" s="204"/>
       <c r="H47" s="204"/>
       <c r="I47" s="204"/>
@@ -13640,12 +13638,12 @@
       <c r="N47" s="207"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A48" s="275"/>
-      <c r="B48" s="262"/>
-      <c r="C48" s="268"/>
-      <c r="D48" s="268"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="265"/>
+      <c r="A48" s="313"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="272"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="272"/>
+      <c r="F48" s="283"/>
       <c r="G48" s="204"/>
       <c r="H48" s="204"/>
       <c r="I48" s="204"/>
@@ -13662,20 +13660,20 @@
       <c r="N48" s="210"/>
     </row>
     <row r="49" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A49" s="273">
+      <c r="A49" s="311">
         <v>8</v>
       </c>
-      <c r="B49" s="276" t="s">
+      <c r="B49" s="318" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="305" t="s">
+      <c r="C49" s="319" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="296" t="s">
+      <c r="D49" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="296"/>
-      <c r="F49" s="295" t="s">
+      <c r="E49" s="266"/>
+      <c r="F49" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G49" s="218" t="s">
@@ -13698,12 +13696,12 @@
       <c r="N49" s="202"/>
     </row>
     <row r="50" spans="1:14" ht="15">
-      <c r="A50" s="274"/>
-      <c r="B50" s="261"/>
-      <c r="C50" s="306"/>
+      <c r="A50" s="312"/>
+      <c r="B50" s="279"/>
+      <c r="C50" s="320"/>
       <c r="D50" s="267"/>
       <c r="E50" s="267"/>
-      <c r="F50" s="264"/>
+      <c r="F50" s="282"/>
       <c r="G50" s="238"/>
       <c r="H50" s="197">
         <v>44218</v>
@@ -13719,17 +13717,15 @@
       <c r="M50" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N50" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N50" s="207"/>
     </row>
     <row r="51" spans="1:14" ht="15">
-      <c r="A51" s="274"/>
-      <c r="B51" s="261"/>
-      <c r="C51" s="306"/>
+      <c r="A51" s="312"/>
+      <c r="B51" s="279"/>
+      <c r="C51" s="320"/>
       <c r="D51" s="267"/>
       <c r="E51" s="267"/>
-      <c r="F51" s="264"/>
+      <c r="F51" s="282"/>
       <c r="G51" s="204"/>
       <c r="H51" s="198" t="s">
         <v>202</v>
@@ -13748,12 +13744,12 @@
       <c r="N51" s="207"/>
     </row>
     <row r="52" spans="1:14" ht="15">
-      <c r="A52" s="274"/>
-      <c r="B52" s="261"/>
-      <c r="C52" s="306"/>
+      <c r="A52" s="312"/>
+      <c r="B52" s="279"/>
+      <c r="C52" s="320"/>
       <c r="D52" s="267"/>
       <c r="E52" s="267"/>
-      <c r="F52" s="264"/>
+      <c r="F52" s="282"/>
       <c r="G52" s="204"/>
       <c r="H52" s="204"/>
       <c r="I52" s="204"/>
@@ -13770,12 +13766,12 @@
       <c r="N52" s="207"/>
     </row>
     <row r="53" spans="1:14" ht="15">
-      <c r="A53" s="274"/>
-      <c r="B53" s="261"/>
-      <c r="C53" s="306"/>
+      <c r="A53" s="312"/>
+      <c r="B53" s="279"/>
+      <c r="C53" s="320"/>
       <c r="D53" s="267"/>
       <c r="E53" s="267"/>
-      <c r="F53" s="264"/>
+      <c r="F53" s="282"/>
       <c r="G53" s="204"/>
       <c r="H53" s="204"/>
       <c r="I53" s="204"/>
@@ -13792,12 +13788,12 @@
       <c r="N53" s="207"/>
     </row>
     <row r="54" spans="1:14" ht="15">
-      <c r="A54" s="274"/>
-      <c r="B54" s="261"/>
-      <c r="C54" s="306"/>
+      <c r="A54" s="312"/>
+      <c r="B54" s="279"/>
+      <c r="C54" s="320"/>
       <c r="D54" s="267"/>
       <c r="E54" s="267"/>
-      <c r="F54" s="264"/>
+      <c r="F54" s="282"/>
       <c r="G54" s="204"/>
       <c r="H54" s="204"/>
       <c r="I54" s="204"/>
@@ -13814,12 +13810,12 @@
       <c r="N54" s="207"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A55" s="275"/>
-      <c r="B55" s="262"/>
-      <c r="C55" s="307"/>
-      <c r="D55" s="268"/>
-      <c r="E55" s="268"/>
-      <c r="F55" s="265"/>
+      <c r="A55" s="313"/>
+      <c r="B55" s="280"/>
+      <c r="C55" s="321"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="272"/>
+      <c r="F55" s="283"/>
       <c r="G55" s="208"/>
       <c r="H55" s="208"/>
       <c r="I55" s="208"/>
@@ -13836,20 +13832,20 @@
       <c r="N55" s="210"/>
     </row>
     <row r="56" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A56" s="273">
+      <c r="A56" s="311">
         <v>9</v>
       </c>
-      <c r="B56" s="276" t="s">
+      <c r="B56" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="305" t="s">
+      <c r="C56" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="296" t="s">
+      <c r="D56" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="296"/>
-      <c r="F56" s="295" t="s">
+      <c r="E56" s="266"/>
+      <c r="F56" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G56" s="218" t="s">
@@ -13872,12 +13868,12 @@
       <c r="N56" s="202"/>
     </row>
     <row r="57" spans="1:14" ht="15">
-      <c r="A57" s="274"/>
-      <c r="B57" s="261"/>
-      <c r="C57" s="306"/>
+      <c r="A57" s="312"/>
+      <c r="B57" s="279"/>
+      <c r="C57" s="320"/>
       <c r="D57" s="267"/>
       <c r="E57" s="267"/>
-      <c r="F57" s="264"/>
+      <c r="F57" s="282"/>
       <c r="G57" s="238"/>
       <c r="H57" s="197">
         <v>44219</v>
@@ -13893,17 +13889,15 @@
       <c r="M57" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N57" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N57" s="207"/>
     </row>
     <row r="58" spans="1:14" ht="15">
-      <c r="A58" s="274"/>
-      <c r="B58" s="261"/>
-      <c r="C58" s="306"/>
+      <c r="A58" s="312"/>
+      <c r="B58" s="279"/>
+      <c r="C58" s="320"/>
       <c r="D58" s="267"/>
       <c r="E58" s="267"/>
-      <c r="F58" s="264"/>
+      <c r="F58" s="282"/>
       <c r="G58" s="204"/>
       <c r="H58" s="198" t="s">
         <v>202</v>
@@ -13922,12 +13916,12 @@
       <c r="N58" s="207"/>
     </row>
     <row r="59" spans="1:14" ht="15">
-      <c r="A59" s="274"/>
-      <c r="B59" s="261"/>
-      <c r="C59" s="306"/>
+      <c r="A59" s="312"/>
+      <c r="B59" s="279"/>
+      <c r="C59" s="320"/>
       <c r="D59" s="267"/>
       <c r="E59" s="267"/>
-      <c r="F59" s="264"/>
+      <c r="F59" s="282"/>
       <c r="G59" s="204"/>
       <c r="H59" s="204"/>
       <c r="I59" s="204"/>
@@ -13944,12 +13938,12 @@
       <c r="N59" s="207"/>
     </row>
     <row r="60" spans="1:14" ht="15">
-      <c r="A60" s="274"/>
-      <c r="B60" s="261"/>
-      <c r="C60" s="306"/>
+      <c r="A60" s="312"/>
+      <c r="B60" s="279"/>
+      <c r="C60" s="320"/>
       <c r="D60" s="267"/>
       <c r="E60" s="267"/>
-      <c r="F60" s="264"/>
+      <c r="F60" s="282"/>
       <c r="G60" s="204"/>
       <c r="H60" s="204"/>
       <c r="I60" s="204"/>
@@ -13966,12 +13960,12 @@
       <c r="N60" s="207"/>
     </row>
     <row r="61" spans="1:14" ht="15">
-      <c r="A61" s="274"/>
-      <c r="B61" s="261"/>
-      <c r="C61" s="306"/>
+      <c r="A61" s="312"/>
+      <c r="B61" s="279"/>
+      <c r="C61" s="320"/>
       <c r="D61" s="267"/>
       <c r="E61" s="267"/>
-      <c r="F61" s="264"/>
+      <c r="F61" s="282"/>
       <c r="G61" s="204"/>
       <c r="H61" s="204"/>
       <c r="I61" s="204"/>
@@ -13988,12 +13982,12 @@
       <c r="N61" s="207"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="275"/>
-      <c r="B62" s="262"/>
-      <c r="C62" s="307"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="265"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="280"/>
+      <c r="C62" s="321"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="272"/>
+      <c r="F62" s="283"/>
       <c r="G62" s="208"/>
       <c r="H62" s="208"/>
       <c r="I62" s="208"/>
@@ -14010,20 +14004,20 @@
       <c r="N62" s="210"/>
     </row>
     <row r="63" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A63" s="308">
+      <c r="A63" s="262">
         <v>10</v>
       </c>
-      <c r="B63" s="311" t="s">
+      <c r="B63" s="264" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="296" t="s">
+      <c r="C63" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="296" t="s">
+      <c r="D63" s="266" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="296"/>
-      <c r="F63" s="295" t="s">
+      <c r="E63" s="266"/>
+      <c r="F63" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G63" s="242" t="s">
@@ -14044,12 +14038,12 @@
       <c r="N63" s="202"/>
     </row>
     <row r="64" spans="1:14" ht="15">
-      <c r="A64" s="309"/>
-      <c r="B64" s="312"/>
+      <c r="A64" s="263"/>
+      <c r="B64" s="265"/>
       <c r="C64" s="267"/>
       <c r="D64" s="267"/>
       <c r="E64" s="267"/>
-      <c r="F64" s="264"/>
+      <c r="F64" s="282"/>
       <c r="G64" s="238"/>
       <c r="H64" s="238"/>
       <c r="I64" s="238" t="s">
@@ -14066,12 +14060,12 @@
       <c r="N64" s="207"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A65" s="310"/>
-      <c r="B65" s="313"/>
-      <c r="C65" s="268"/>
-      <c r="D65" s="268"/>
-      <c r="E65" s="268"/>
-      <c r="F65" s="265"/>
+      <c r="A65" s="270"/>
+      <c r="B65" s="271"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="272"/>
+      <c r="F65" s="283"/>
       <c r="G65" s="243"/>
       <c r="H65" s="243"/>
       <c r="I65" s="243"/>
@@ -14086,20 +14080,20 @@
       <c r="N65" s="210"/>
     </row>
     <row r="66" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A66" s="273">
+      <c r="A66" s="311">
         <v>11</v>
       </c>
-      <c r="B66" s="276" t="s">
+      <c r="B66" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="305" t="s">
+      <c r="C66" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="296" t="s">
+      <c r="D66" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="296"/>
-      <c r="F66" s="295" t="s">
+      <c r="E66" s="266"/>
+      <c r="F66" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G66" s="242">
@@ -14120,12 +14114,12 @@
       <c r="N66" s="202"/>
     </row>
     <row r="67" spans="1:14" ht="15">
-      <c r="A67" s="274"/>
-      <c r="B67" s="261"/>
-      <c r="C67" s="306"/>
+      <c r="A67" s="312"/>
+      <c r="B67" s="279"/>
+      <c r="C67" s="320"/>
       <c r="D67" s="267"/>
       <c r="E67" s="267"/>
-      <c r="F67" s="264"/>
+      <c r="F67" s="282"/>
       <c r="G67" s="238"/>
       <c r="H67" s="238"/>
       <c r="I67" s="238" t="s">
@@ -14139,17 +14133,15 @@
       </c>
       <c r="L67" s="206"/>
       <c r="M67" s="207"/>
-      <c r="N67" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N67" s="207"/>
     </row>
     <row r="68" spans="1:14" ht="15">
-      <c r="A68" s="274"/>
-      <c r="B68" s="261"/>
-      <c r="C68" s="306"/>
+      <c r="A68" s="312"/>
+      <c r="B68" s="279"/>
+      <c r="C68" s="320"/>
       <c r="D68" s="267"/>
       <c r="E68" s="267"/>
-      <c r="F68" s="264"/>
+      <c r="F68" s="282"/>
       <c r="G68" s="204"/>
       <c r="H68" s="204"/>
       <c r="I68" s="204"/>
@@ -14164,12 +14156,12 @@
       <c r="N68" s="207"/>
     </row>
     <row r="69" spans="1:14" ht="15">
-      <c r="A69" s="274"/>
-      <c r="B69" s="261"/>
-      <c r="C69" s="306"/>
+      <c r="A69" s="312"/>
+      <c r="B69" s="279"/>
+      <c r="C69" s="320"/>
       <c r="D69" s="267"/>
       <c r="E69" s="267"/>
-      <c r="F69" s="264"/>
+      <c r="F69" s="282"/>
       <c r="G69" s="204"/>
       <c r="H69" s="204"/>
       <c r="I69" s="204"/>
@@ -14184,12 +14176,12 @@
       <c r="N69" s="207"/>
     </row>
     <row r="70" spans="1:14" ht="15">
-      <c r="A70" s="274"/>
-      <c r="B70" s="261"/>
-      <c r="C70" s="306"/>
+      <c r="A70" s="312"/>
+      <c r="B70" s="279"/>
+      <c r="C70" s="320"/>
       <c r="D70" s="267"/>
       <c r="E70" s="267"/>
-      <c r="F70" s="264"/>
+      <c r="F70" s="282"/>
       <c r="G70" s="204"/>
       <c r="H70" s="204"/>
       <c r="I70" s="204"/>
@@ -14204,12 +14196,12 @@
       <c r="N70" s="207"/>
     </row>
     <row r="71" spans="1:14" ht="15">
-      <c r="A71" s="274"/>
-      <c r="B71" s="261"/>
-      <c r="C71" s="306"/>
+      <c r="A71" s="312"/>
+      <c r="B71" s="279"/>
+      <c r="C71" s="320"/>
       <c r="D71" s="267"/>
       <c r="E71" s="267"/>
-      <c r="F71" s="264"/>
+      <c r="F71" s="282"/>
       <c r="G71" s="204"/>
       <c r="H71" s="204"/>
       <c r="I71" s="204"/>
@@ -14224,12 +14216,12 @@
       <c r="N71" s="207"/>
     </row>
     <row r="72" spans="1:14" ht="15">
-      <c r="A72" s="274"/>
-      <c r="B72" s="261"/>
-      <c r="C72" s="306"/>
+      <c r="A72" s="312"/>
+      <c r="B72" s="279"/>
+      <c r="C72" s="320"/>
       <c r="D72" s="267"/>
       <c r="E72" s="267"/>
-      <c r="F72" s="264"/>
+      <c r="F72" s="282"/>
       <c r="G72" s="204"/>
       <c r="H72" s="204"/>
       <c r="I72" s="204"/>
@@ -14246,12 +14238,12 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15">
-      <c r="A73" s="274"/>
-      <c r="B73" s="261"/>
-      <c r="C73" s="306"/>
+      <c r="A73" s="312"/>
+      <c r="B73" s="279"/>
+      <c r="C73" s="320"/>
       <c r="D73" s="267"/>
       <c r="E73" s="267"/>
-      <c r="F73" s="264"/>
+      <c r="F73" s="282"/>
       <c r="G73" s="204"/>
       <c r="H73" s="204"/>
       <c r="I73" s="204"/>
@@ -14268,12 +14260,12 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A74" s="275"/>
-      <c r="B74" s="262"/>
-      <c r="C74" s="307"/>
-      <c r="D74" s="268"/>
-      <c r="E74" s="268"/>
-      <c r="F74" s="265"/>
+      <c r="A74" s="313"/>
+      <c r="B74" s="280"/>
+      <c r="C74" s="321"/>
+      <c r="D74" s="272"/>
+      <c r="E74" s="272"/>
+      <c r="F74" s="283"/>
       <c r="G74" s="208"/>
       <c r="H74" s="208"/>
       <c r="I74" s="208"/>
@@ -14288,20 +14280,20 @@
       <c r="N74" s="210"/>
     </row>
     <row r="75" spans="1:14" ht="15">
-      <c r="A75" s="273">
+      <c r="A75" s="311">
         <v>12</v>
       </c>
-      <c r="B75" s="276" t="s">
+      <c r="B75" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="305" t="s">
+      <c r="C75" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="296" t="s">
+      <c r="D75" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="296"/>
-      <c r="F75" s="295" t="s">
+      <c r="E75" s="266"/>
+      <c r="F75" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G75" s="218" t="s">
@@ -14324,12 +14316,12 @@
       <c r="N75" s="202"/>
     </row>
     <row r="76" spans="1:14" ht="15">
-      <c r="A76" s="274"/>
-      <c r="B76" s="261"/>
-      <c r="C76" s="306"/>
+      <c r="A76" s="312"/>
+      <c r="B76" s="279"/>
+      <c r="C76" s="320"/>
       <c r="D76" s="267"/>
       <c r="E76" s="267"/>
-      <c r="F76" s="264"/>
+      <c r="F76" s="282"/>
       <c r="G76" s="238"/>
       <c r="H76" s="197">
         <v>44218</v>
@@ -14348,12 +14340,12 @@
       <c r="N76" s="207"/>
     </row>
     <row r="77" spans="1:14" ht="15">
-      <c r="A77" s="274"/>
-      <c r="B77" s="261"/>
-      <c r="C77" s="306"/>
+      <c r="A77" s="312"/>
+      <c r="B77" s="279"/>
+      <c r="C77" s="320"/>
       <c r="D77" s="267"/>
       <c r="E77" s="267"/>
-      <c r="F77" s="264"/>
+      <c r="F77" s="282"/>
       <c r="G77" s="204"/>
       <c r="H77" s="198" t="s">
         <v>202</v>
@@ -14372,12 +14364,12 @@
       <c r="N77" s="207"/>
     </row>
     <row r="78" spans="1:14" ht="15">
-      <c r="A78" s="274"/>
-      <c r="B78" s="261"/>
-      <c r="C78" s="306"/>
+      <c r="A78" s="312"/>
+      <c r="B78" s="279"/>
+      <c r="C78" s="320"/>
       <c r="D78" s="267"/>
       <c r="E78" s="267"/>
-      <c r="F78" s="264"/>
+      <c r="F78" s="282"/>
       <c r="G78" s="204"/>
       <c r="H78" s="204"/>
       <c r="I78" s="204"/>
@@ -14394,12 +14386,12 @@
       <c r="N78" s="207"/>
     </row>
     <row r="79" spans="1:14" ht="15">
-      <c r="A79" s="274"/>
-      <c r="B79" s="261"/>
-      <c r="C79" s="306"/>
+      <c r="A79" s="312"/>
+      <c r="B79" s="279"/>
+      <c r="C79" s="320"/>
       <c r="D79" s="267"/>
       <c r="E79" s="267"/>
-      <c r="F79" s="264"/>
+      <c r="F79" s="282"/>
       <c r="G79" s="204"/>
       <c r="H79" s="204"/>
       <c r="I79" s="204"/>
@@ -14416,12 +14408,12 @@
       <c r="N79" s="207"/>
     </row>
     <row r="80" spans="1:14" ht="15">
-      <c r="A80" s="274"/>
-      <c r="B80" s="261"/>
-      <c r="C80" s="306"/>
+      <c r="A80" s="312"/>
+      <c r="B80" s="279"/>
+      <c r="C80" s="320"/>
       <c r="D80" s="267"/>
       <c r="E80" s="267"/>
-      <c r="F80" s="264"/>
+      <c r="F80" s="282"/>
       <c r="G80" s="204"/>
       <c r="H80" s="204"/>
       <c r="I80" s="204"/>
@@ -14438,12 +14430,12 @@
       <c r="N80" s="207"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A81" s="275"/>
-      <c r="B81" s="262"/>
-      <c r="C81" s="307"/>
-      <c r="D81" s="268"/>
-      <c r="E81" s="268"/>
-      <c r="F81" s="265"/>
+      <c r="A81" s="313"/>
+      <c r="B81" s="280"/>
+      <c r="C81" s="321"/>
+      <c r="D81" s="272"/>
+      <c r="E81" s="272"/>
+      <c r="F81" s="283"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214"/>
       <c r="I81" s="214"/>
@@ -14460,20 +14452,20 @@
       <c r="N81" s="210"/>
     </row>
     <row r="82" spans="1:14" ht="15">
-      <c r="A82" s="273">
+      <c r="A82" s="311">
         <v>13</v>
       </c>
-      <c r="B82" s="276" t="s">
+      <c r="B82" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="305" t="s">
+      <c r="C82" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="305" t="s">
+      <c r="D82" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="296"/>
-      <c r="F82" s="295" t="s">
+      <c r="E82" s="266"/>
+      <c r="F82" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G82" s="242" t="s">
@@ -14496,12 +14488,12 @@
       <c r="N82" s="202"/>
     </row>
     <row r="83" spans="1:14" ht="15">
-      <c r="A83" s="274"/>
-      <c r="B83" s="261"/>
-      <c r="C83" s="306"/>
-      <c r="D83" s="306"/>
+      <c r="A83" s="312"/>
+      <c r="B83" s="279"/>
+      <c r="C83" s="320"/>
+      <c r="D83" s="320"/>
       <c r="E83" s="267"/>
-      <c r="F83" s="264"/>
+      <c r="F83" s="282"/>
       <c r="G83" s="238"/>
       <c r="H83" s="197">
         <v>44219</v>
@@ -14517,17 +14509,15 @@
       <c r="M83" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="N83" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N83" s="207"/>
     </row>
     <row r="84" spans="1:14" ht="15">
-      <c r="A84" s="274"/>
-      <c r="B84" s="261"/>
-      <c r="C84" s="306"/>
-      <c r="D84" s="306"/>
+      <c r="A84" s="312"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="320"/>
+      <c r="D84" s="320"/>
       <c r="E84" s="267"/>
-      <c r="F84" s="264"/>
+      <c r="F84" s="282"/>
       <c r="G84" s="204"/>
       <c r="H84" s="198" t="s">
         <v>202</v>
@@ -14546,12 +14536,12 @@
       <c r="N84" s="207"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A85" s="275"/>
-      <c r="B85" s="262"/>
-      <c r="C85" s="307"/>
-      <c r="D85" s="307"/>
-      <c r="E85" s="268"/>
-      <c r="F85" s="265"/>
+      <c r="A85" s="313"/>
+      <c r="B85" s="280"/>
+      <c r="C85" s="321"/>
+      <c r="D85" s="321"/>
+      <c r="E85" s="272"/>
+      <c r="F85" s="283"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
@@ -14566,20 +14556,20 @@
       <c r="N85" s="210"/>
     </row>
     <row r="86" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A86" s="273">
+      <c r="A86" s="311">
         <v>14</v>
       </c>
-      <c r="B86" s="276" t="s">
+      <c r="B86" s="318" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="296" t="s">
+      <c r="C86" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="296" t="s">
+      <c r="D86" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="296"/>
-      <c r="F86" s="295" t="s">
+      <c r="E86" s="266"/>
+      <c r="F86" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G86" s="212">
@@ -14600,12 +14590,12 @@
       <c r="N86" s="202"/>
     </row>
     <row r="87" spans="1:14" ht="15">
-      <c r="A87" s="274"/>
-      <c r="B87" s="261"/>
+      <c r="A87" s="312"/>
+      <c r="B87" s="279"/>
       <c r="C87" s="267"/>
       <c r="D87" s="267"/>
       <c r="E87" s="267"/>
-      <c r="F87" s="264"/>
+      <c r="F87" s="282"/>
       <c r="G87" s="199"/>
       <c r="H87" s="199"/>
       <c r="I87" s="199" t="s">
@@ -14619,17 +14609,15 @@
       </c>
       <c r="L87" s="206"/>
       <c r="M87" s="207"/>
-      <c r="N87" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N87" s="207"/>
     </row>
     <row r="88" spans="1:14" ht="15">
-      <c r="A88" s="274"/>
-      <c r="B88" s="261"/>
+      <c r="A88" s="312"/>
+      <c r="B88" s="279"/>
       <c r="C88" s="267"/>
       <c r="D88" s="267"/>
       <c r="E88" s="267"/>
-      <c r="F88" s="264"/>
+      <c r="F88" s="282"/>
       <c r="G88" s="204"/>
       <c r="H88" s="204"/>
       <c r="I88" s="204"/>
@@ -14644,12 +14632,12 @@
       <c r="N88" s="207"/>
     </row>
     <row r="89" spans="1:14" ht="15">
-      <c r="A89" s="274"/>
-      <c r="B89" s="261"/>
+      <c r="A89" s="312"/>
+      <c r="B89" s="279"/>
       <c r="C89" s="267"/>
       <c r="D89" s="267"/>
       <c r="E89" s="267"/>
-      <c r="F89" s="264"/>
+      <c r="F89" s="282"/>
       <c r="G89" s="204"/>
       <c r="H89" s="204"/>
       <c r="I89" s="204"/>
@@ -14664,12 +14652,12 @@
       <c r="N89" s="207"/>
     </row>
     <row r="90" spans="1:14" ht="15">
-      <c r="A90" s="274"/>
-      <c r="B90" s="261"/>
+      <c r="A90" s="312"/>
+      <c r="B90" s="279"/>
       <c r="C90" s="267"/>
       <c r="D90" s="267"/>
       <c r="E90" s="267"/>
-      <c r="F90" s="264"/>
+      <c r="F90" s="282"/>
       <c r="G90" s="204"/>
       <c r="H90" s="204"/>
       <c r="I90" s="204"/>
@@ -14684,12 +14672,12 @@
       <c r="N90" s="207"/>
     </row>
     <row r="91" spans="1:14" ht="15">
-      <c r="A91" s="274"/>
-      <c r="B91" s="261"/>
+      <c r="A91" s="312"/>
+      <c r="B91" s="279"/>
       <c r="C91" s="267"/>
       <c r="D91" s="267"/>
       <c r="E91" s="267"/>
-      <c r="F91" s="264"/>
+      <c r="F91" s="282"/>
       <c r="G91" s="204"/>
       <c r="H91" s="204"/>
       <c r="I91" s="204"/>
@@ -14704,12 +14692,12 @@
       <c r="N91" s="207"/>
     </row>
     <row r="92" spans="1:14" ht="15">
-      <c r="A92" s="274"/>
-      <c r="B92" s="261"/>
+      <c r="A92" s="312"/>
+      <c r="B92" s="279"/>
       <c r="C92" s="267"/>
       <c r="D92" s="267"/>
       <c r="E92" s="267"/>
-      <c r="F92" s="264"/>
+      <c r="F92" s="282"/>
       <c r="G92" s="214"/>
       <c r="H92" s="214"/>
       <c r="I92" s="214"/>
@@ -14726,12 +14714,12 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15">
-      <c r="A93" s="274"/>
-      <c r="B93" s="261"/>
+      <c r="A93" s="312"/>
+      <c r="B93" s="279"/>
       <c r="C93" s="267"/>
       <c r="D93" s="267"/>
       <c r="E93" s="267"/>
-      <c r="F93" s="264"/>
+      <c r="F93" s="282"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214"/>
       <c r="I93" s="214"/>
@@ -14746,12 +14734,12 @@
       <c r="N93" s="207"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A94" s="275"/>
-      <c r="B94" s="262"/>
-      <c r="C94" s="268"/>
-      <c r="D94" s="268"/>
-      <c r="E94" s="268"/>
-      <c r="F94" s="265"/>
+      <c r="A94" s="313"/>
+      <c r="B94" s="280"/>
+      <c r="C94" s="272"/>
+      <c r="D94" s="272"/>
+      <c r="E94" s="272"/>
+      <c r="F94" s="283"/>
       <c r="G94" s="208"/>
       <c r="H94" s="208"/>
       <c r="I94" s="208"/>
@@ -14766,20 +14754,20 @@
       <c r="N94" s="210"/>
     </row>
     <row r="95" spans="1:14" ht="15">
-      <c r="A95" s="273">
+      <c r="A95" s="311">
         <v>15</v>
       </c>
-      <c r="B95" s="276" t="s">
+      <c r="B95" s="318" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="305" t="s">
+      <c r="C95" s="319" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="305" t="s">
+      <c r="D95" s="319" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="296"/>
-      <c r="F95" s="295" t="s">
+      <c r="E95" s="266"/>
+      <c r="F95" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G95" s="242" t="s">
@@ -14800,12 +14788,12 @@
       <c r="N95" s="202"/>
     </row>
     <row r="96" spans="1:14" ht="15">
-      <c r="A96" s="274"/>
-      <c r="B96" s="261"/>
-      <c r="C96" s="306"/>
-      <c r="D96" s="306"/>
+      <c r="A96" s="312"/>
+      <c r="B96" s="279"/>
+      <c r="C96" s="320"/>
+      <c r="D96" s="320"/>
       <c r="E96" s="267"/>
-      <c r="F96" s="264"/>
+      <c r="F96" s="282"/>
       <c r="G96" s="204"/>
       <c r="H96" s="204"/>
       <c r="I96" s="204" t="s">
@@ -14819,17 +14807,15 @@
       </c>
       <c r="L96" s="206"/>
       <c r="M96" s="207"/>
-      <c r="N96" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N96" s="207"/>
     </row>
     <row r="97" spans="1:14" ht="15">
-      <c r="A97" s="274"/>
-      <c r="B97" s="261"/>
-      <c r="C97" s="306"/>
-      <c r="D97" s="306"/>
+      <c r="A97" s="312"/>
+      <c r="B97" s="279"/>
+      <c r="C97" s="320"/>
+      <c r="D97" s="320"/>
       <c r="E97" s="267"/>
-      <c r="F97" s="264"/>
+      <c r="F97" s="282"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
       <c r="I97" s="214"/>
@@ -14844,12 +14830,12 @@
       <c r="N97" s="207"/>
     </row>
     <row r="98" spans="1:14" ht="15">
-      <c r="A98" s="274"/>
-      <c r="B98" s="261"/>
-      <c r="C98" s="306"/>
-      <c r="D98" s="306"/>
+      <c r="A98" s="312"/>
+      <c r="B98" s="279"/>
+      <c r="C98" s="320"/>
+      <c r="D98" s="320"/>
       <c r="E98" s="267"/>
-      <c r="F98" s="264"/>
+      <c r="F98" s="282"/>
       <c r="G98" s="214"/>
       <c r="H98" s="214"/>
       <c r="I98" s="214"/>
@@ -14864,12 +14850,12 @@
       <c r="N98" s="207"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A99" s="275"/>
-      <c r="B99" s="262"/>
-      <c r="C99" s="307"/>
-      <c r="D99" s="307"/>
-      <c r="E99" s="268"/>
-      <c r="F99" s="265"/>
+      <c r="A99" s="313"/>
+      <c r="B99" s="280"/>
+      <c r="C99" s="321"/>
+      <c r="D99" s="321"/>
+      <c r="E99" s="272"/>
+      <c r="F99" s="283"/>
       <c r="G99" s="214"/>
       <c r="H99" s="214"/>
       <c r="I99" s="214"/>
@@ -14884,20 +14870,20 @@
       <c r="N99" s="245"/>
     </row>
     <row r="100" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A100" s="273">
+      <c r="A100" s="311">
         <v>16</v>
       </c>
-      <c r="B100" s="276" t="s">
+      <c r="B100" s="318" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="296" t="s">
+      <c r="C100" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="296" t="s">
+      <c r="D100" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="296"/>
-      <c r="F100" s="295" t="s">
+      <c r="E100" s="266"/>
+      <c r="F100" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G100" s="246" t="s">
@@ -14907,69 +14893,69 @@
         <v>182</v>
       </c>
       <c r="I100" s="246"/>
-      <c r="J100" s="317" t="s">
+      <c r="J100" s="326" t="s">
         <v>46</v>
       </c>
-      <c r="K100" s="295">
+      <c r="K100" s="307">
         <v>1000</v>
       </c>
-      <c r="L100" s="314"/>
-      <c r="M100" s="295" t="s">
+      <c r="L100" s="323"/>
+      <c r="M100" s="307" t="s">
         <v>116</v>
       </c>
-      <c r="N100" s="314"/>
+      <c r="N100" s="323"/>
     </row>
     <row r="101" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A101" s="274"/>
-      <c r="B101" s="261"/>
+      <c r="A101" s="312"/>
+      <c r="B101" s="279"/>
       <c r="C101" s="267"/>
       <c r="D101" s="267"/>
       <c r="E101" s="267"/>
-      <c r="F101" s="264"/>
+      <c r="F101" s="282"/>
       <c r="G101" s="247"/>
       <c r="H101" s="247">
         <v>44221</v>
       </c>
       <c r="I101" s="247"/>
-      <c r="J101" s="318"/>
-      <c r="K101" s="264"/>
-      <c r="L101" s="315"/>
-      <c r="M101" s="264"/>
-      <c r="N101" s="315"/>
+      <c r="J101" s="327"/>
+      <c r="K101" s="282"/>
+      <c r="L101" s="324"/>
+      <c r="M101" s="282"/>
+      <c r="N101" s="324"/>
     </row>
     <row r="102" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A102" s="275"/>
-      <c r="B102" s="262"/>
-      <c r="C102" s="268"/>
-      <c r="D102" s="268"/>
-      <c r="E102" s="268"/>
-      <c r="F102" s="265"/>
+      <c r="A102" s="313"/>
+      <c r="B102" s="280"/>
+      <c r="C102" s="272"/>
+      <c r="D102" s="272"/>
+      <c r="E102" s="272"/>
+      <c r="F102" s="283"/>
       <c r="G102" s="248"/>
       <c r="H102" s="248" t="s">
         <v>202</v>
       </c>
       <c r="I102" s="248"/>
-      <c r="J102" s="319"/>
-      <c r="K102" s="265"/>
-      <c r="L102" s="316"/>
-      <c r="M102" s="265"/>
-      <c r="N102" s="316"/>
+      <c r="J102" s="328"/>
+      <c r="K102" s="283"/>
+      <c r="L102" s="325"/>
+      <c r="M102" s="283"/>
+      <c r="N102" s="325"/>
     </row>
     <row r="103" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A103" s="308">
+      <c r="A103" s="262">
         <v>17</v>
       </c>
-      <c r="B103" s="276" t="s">
+      <c r="B103" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="296" t="s">
+      <c r="C103" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="296" t="s">
+      <c r="D103" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="296"/>
-      <c r="F103" s="295" t="s">
+      <c r="E103" s="266"/>
+      <c r="F103" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G103" s="212" t="s">
@@ -14986,12 +14972,12 @@
       <c r="N103" s="213"/>
     </row>
     <row r="104" spans="1:14" ht="15">
-      <c r="A104" s="309"/>
-      <c r="B104" s="261"/>
+      <c r="A104" s="263"/>
+      <c r="B104" s="279"/>
       <c r="C104" s="267"/>
       <c r="D104" s="267"/>
       <c r="E104" s="267"/>
-      <c r="F104" s="264"/>
+      <c r="F104" s="282"/>
       <c r="G104" s="204"/>
       <c r="H104" s="204"/>
       <c r="I104" s="204" t="s">
@@ -15008,12 +14994,12 @@
       <c r="N104" s="203"/>
     </row>
     <row r="105" spans="1:14" ht="15">
-      <c r="A105" s="309"/>
-      <c r="B105" s="261"/>
+      <c r="A105" s="263"/>
+      <c r="B105" s="279"/>
       <c r="C105" s="267"/>
       <c r="D105" s="267"/>
       <c r="E105" s="267"/>
-      <c r="F105" s="264"/>
+      <c r="F105" s="282"/>
       <c r="G105" s="204"/>
       <c r="H105" s="204"/>
       <c r="I105" s="204"/>
@@ -15028,12 +15014,12 @@
       <c r="N105" s="203"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A106" s="310"/>
-      <c r="B106" s="262"/>
-      <c r="C106" s="268"/>
-      <c r="D106" s="268"/>
-      <c r="E106" s="268"/>
-      <c r="F106" s="265"/>
+      <c r="A106" s="270"/>
+      <c r="B106" s="280"/>
+      <c r="C106" s="272"/>
+      <c r="D106" s="272"/>
+      <c r="E106" s="272"/>
+      <c r="F106" s="283"/>
       <c r="G106" s="208"/>
       <c r="H106" s="208"/>
       <c r="I106" s="208"/>
@@ -15048,20 +15034,20 @@
       <c r="N106" s="211"/>
     </row>
     <row r="107" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A107" s="273">
+      <c r="A107" s="311">
         <v>18</v>
       </c>
-      <c r="B107" s="311" t="s">
+      <c r="B107" s="264" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="296" t="s">
+      <c r="C107" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="296" t="s">
+      <c r="D107" s="266" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="332"/>
-      <c r="F107" s="264" t="s">
+      <c r="E107" s="341"/>
+      <c r="F107" s="282" t="s">
         <v>229</v>
       </c>
       <c r="G107" s="249">
@@ -15084,12 +15070,12 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15">
-      <c r="A108" s="274"/>
-      <c r="B108" s="312"/>
+      <c r="A108" s="312"/>
+      <c r="B108" s="265"/>
       <c r="C108" s="267"/>
       <c r="D108" s="267"/>
-      <c r="E108" s="333"/>
-      <c r="F108" s="264"/>
+      <c r="E108" s="342"/>
+      <c r="F108" s="282"/>
       <c r="G108" s="204"/>
       <c r="H108" s="197">
         <v>44694</v>
@@ -15102,12 +15088,12 @@
       <c r="N108" s="207"/>
     </row>
     <row r="109" spans="1:14" ht="15">
-      <c r="A109" s="274"/>
-      <c r="B109" s="312"/>
+      <c r="A109" s="312"/>
+      <c r="B109" s="265"/>
       <c r="C109" s="267"/>
       <c r="D109" s="267"/>
-      <c r="E109" s="333"/>
-      <c r="F109" s="264"/>
+      <c r="E109" s="342"/>
+      <c r="F109" s="282"/>
       <c r="G109" s="204"/>
       <c r="H109" s="198" t="s">
         <v>202</v>
@@ -15120,12 +15106,12 @@
       <c r="N109" s="207"/>
     </row>
     <row r="110" spans="1:14" ht="15">
-      <c r="A110" s="274"/>
-      <c r="B110" s="312"/>
+      <c r="A110" s="312"/>
+      <c r="B110" s="265"/>
       <c r="C110" s="267"/>
       <c r="D110" s="267"/>
-      <c r="E110" s="333"/>
-      <c r="F110" s="264"/>
+      <c r="E110" s="342"/>
+      <c r="F110" s="282"/>
       <c r="G110" s="204"/>
       <c r="H110" s="204"/>
       <c r="I110" s="204"/>
@@ -15136,12 +15122,12 @@
       <c r="N110" s="207"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A111" s="275"/>
-      <c r="B111" s="313"/>
-      <c r="C111" s="268"/>
-      <c r="D111" s="268"/>
-      <c r="E111" s="334"/>
-      <c r="F111" s="265"/>
+      <c r="A111" s="313"/>
+      <c r="B111" s="271"/>
+      <c r="C111" s="272"/>
+      <c r="D111" s="272"/>
+      <c r="E111" s="343"/>
+      <c r="F111" s="283"/>
       <c r="G111" s="208"/>
       <c r="H111" s="208"/>
       <c r="I111" s="208"/>
@@ -15152,20 +15138,20 @@
       <c r="N111" s="210"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1">
-      <c r="A112" s="320">
+      <c r="A112" s="329">
         <v>19</v>
       </c>
-      <c r="B112" s="323" t="s">
+      <c r="B112" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="C112" s="326" t="s">
+      <c r="C112" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="D112" s="326" t="s">
+      <c r="D112" s="335" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="329"/>
-      <c r="F112" s="320" t="s">
+      <c r="E112" s="338"/>
+      <c r="F112" s="329" t="s">
         <v>229</v>
       </c>
       <c r="G112" s="242" t="s">
@@ -15186,12 +15172,12 @@
       <c r="N112" s="250"/>
     </row>
     <row r="113" spans="1:14" ht="15">
-      <c r="A113" s="321"/>
-      <c r="B113" s="324"/>
-      <c r="C113" s="327"/>
-      <c r="D113" s="327"/>
-      <c r="E113" s="330"/>
-      <c r="F113" s="321"/>
+      <c r="A113" s="330"/>
+      <c r="B113" s="333"/>
+      <c r="C113" s="336"/>
+      <c r="D113" s="336"/>
+      <c r="E113" s="339"/>
+      <c r="F113" s="330"/>
       <c r="G113" s="204"/>
       <c r="H113" s="238"/>
       <c r="I113" s="204" t="s">
@@ -15205,17 +15191,15 @@
       </c>
       <c r="L113" s="207"/>
       <c r="M113" s="207"/>
-      <c r="N113" s="207" t="s">
-        <v>129</v>
-      </c>
+      <c r="N113" s="207"/>
     </row>
     <row r="114" spans="1:14" ht="15">
-      <c r="A114" s="321"/>
-      <c r="B114" s="324"/>
-      <c r="C114" s="327"/>
-      <c r="D114" s="327"/>
-      <c r="E114" s="330"/>
-      <c r="F114" s="321"/>
+      <c r="A114" s="330"/>
+      <c r="B114" s="333"/>
+      <c r="C114" s="336"/>
+      <c r="D114" s="336"/>
+      <c r="E114" s="339"/>
+      <c r="F114" s="330"/>
       <c r="G114" s="204"/>
       <c r="H114" s="204"/>
       <c r="I114" s="204"/>
@@ -15230,12 +15214,12 @@
       <c r="N114" s="207"/>
     </row>
     <row r="115" spans="1:14" ht="15">
-      <c r="A115" s="321"/>
-      <c r="B115" s="324"/>
-      <c r="C115" s="327"/>
-      <c r="D115" s="327"/>
-      <c r="E115" s="330"/>
-      <c r="F115" s="321"/>
+      <c r="A115" s="330"/>
+      <c r="B115" s="333"/>
+      <c r="C115" s="336"/>
+      <c r="D115" s="336"/>
+      <c r="E115" s="339"/>
+      <c r="F115" s="330"/>
       <c r="G115" s="204"/>
       <c r="H115" s="204"/>
       <c r="I115" s="204"/>
@@ -15250,12 +15234,12 @@
       <c r="N115" s="207"/>
     </row>
     <row r="116" spans="1:14" ht="15">
-      <c r="A116" s="321"/>
-      <c r="B116" s="324"/>
-      <c r="C116" s="327"/>
-      <c r="D116" s="327"/>
-      <c r="E116" s="330"/>
-      <c r="F116" s="321"/>
+      <c r="A116" s="330"/>
+      <c r="B116" s="333"/>
+      <c r="C116" s="336"/>
+      <c r="D116" s="336"/>
+      <c r="E116" s="339"/>
+      <c r="F116" s="330"/>
       <c r="G116" s="204"/>
       <c r="H116" s="204"/>
       <c r="I116" s="204"/>
@@ -15270,12 +15254,12 @@
       <c r="N116" s="207"/>
     </row>
     <row r="117" spans="1:14" ht="15">
-      <c r="A117" s="321"/>
-      <c r="B117" s="324"/>
-      <c r="C117" s="327"/>
-      <c r="D117" s="327"/>
-      <c r="E117" s="330"/>
-      <c r="F117" s="321"/>
+      <c r="A117" s="330"/>
+      <c r="B117" s="333"/>
+      <c r="C117" s="336"/>
+      <c r="D117" s="336"/>
+      <c r="E117" s="339"/>
+      <c r="F117" s="330"/>
       <c r="G117" s="204"/>
       <c r="H117" s="204"/>
       <c r="I117" s="204"/>
@@ -15290,12 +15274,12 @@
       <c r="N117" s="207"/>
     </row>
     <row r="118" spans="1:14" ht="15">
-      <c r="A118" s="321"/>
-      <c r="B118" s="324"/>
-      <c r="C118" s="327"/>
-      <c r="D118" s="327"/>
-      <c r="E118" s="330"/>
-      <c r="F118" s="321"/>
+      <c r="A118" s="330"/>
+      <c r="B118" s="333"/>
+      <c r="C118" s="336"/>
+      <c r="D118" s="336"/>
+      <c r="E118" s="339"/>
+      <c r="F118" s="330"/>
       <c r="G118" s="204"/>
       <c r="H118" s="204"/>
       <c r="I118" s="204"/>
@@ -15310,12 +15294,12 @@
       <c r="N118" s="207"/>
     </row>
     <row r="119" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A119" s="322"/>
-      <c r="B119" s="325"/>
-      <c r="C119" s="328"/>
-      <c r="D119" s="328"/>
-      <c r="E119" s="331"/>
-      <c r="F119" s="322"/>
+      <c r="A119" s="331"/>
+      <c r="B119" s="334"/>
+      <c r="C119" s="337"/>
+      <c r="D119" s="337"/>
+      <c r="E119" s="340"/>
+      <c r="F119" s="331"/>
       <c r="G119" s="208"/>
       <c r="H119" s="208"/>
       <c r="I119" s="208"/>
@@ -15330,22 +15314,22 @@
       <c r="N119" s="210"/>
     </row>
     <row r="120" spans="1:14" ht="30" customHeight="1">
-      <c r="A120" s="273">
+      <c r="A120" s="311">
         <v>20</v>
       </c>
-      <c r="B120" s="297" t="s">
+      <c r="B120" s="308" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="296" t="s">
+      <c r="C120" s="266" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="296" t="s">
+      <c r="D120" s="266" t="s">
         <v>103</v>
       </c>
-      <c r="E120" s="301" t="s">
+      <c r="E120" s="315" t="s">
         <v>230</v>
       </c>
-      <c r="F120" s="295" t="s">
+      <c r="F120" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G120" s="216"/>
@@ -15360,12 +15344,12 @@
       <c r="N120" s="202"/>
     </row>
     <row r="121" spans="1:14" ht="15">
-      <c r="A121" s="274"/>
-      <c r="B121" s="298"/>
+      <c r="A121" s="312"/>
+      <c r="B121" s="309"/>
       <c r="C121" s="267"/>
       <c r="D121" s="267"/>
-      <c r="E121" s="302"/>
-      <c r="F121" s="264"/>
+      <c r="E121" s="316"/>
+      <c r="F121" s="282"/>
       <c r="G121" s="204"/>
       <c r="H121" s="204"/>
       <c r="I121" s="204"/>
@@ -15375,17 +15359,15 @@
       <c r="K121" s="204"/>
       <c r="L121" s="206"/>
       <c r="M121" s="207"/>
-      <c r="N121" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="N121" s="207"/>
     </row>
     <row r="122" spans="1:14" ht="15">
-      <c r="A122" s="274"/>
-      <c r="B122" s="298"/>
+      <c r="A122" s="312"/>
+      <c r="B122" s="309"/>
       <c r="C122" s="267"/>
       <c r="D122" s="267"/>
-      <c r="E122" s="302"/>
-      <c r="F122" s="264"/>
+      <c r="E122" s="316"/>
+      <c r="F122" s="282"/>
       <c r="G122" s="204"/>
       <c r="H122" s="204"/>
       <c r="I122" s="204"/>
@@ -15398,12 +15380,12 @@
       <c r="N122" s="207"/>
     </row>
     <row r="123" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A123" s="275"/>
-      <c r="B123" s="299"/>
-      <c r="C123" s="268"/>
-      <c r="D123" s="268"/>
-      <c r="E123" s="303"/>
-      <c r="F123" s="265"/>
+      <c r="A123" s="313"/>
+      <c r="B123" s="310"/>
+      <c r="C123" s="272"/>
+      <c r="D123" s="272"/>
+      <c r="E123" s="317"/>
+      <c r="F123" s="283"/>
       <c r="G123" s="251"/>
       <c r="H123" s="208"/>
       <c r="I123" s="208"/>
@@ -15418,29 +15400,29 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15">
-      <c r="A124" s="308">
+      <c r="A124" s="262">
         <v>21</v>
       </c>
-      <c r="B124" s="311" t="s">
+      <c r="B124" s="264" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="296" t="s">
+      <c r="C124" s="266" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="296" t="s">
+      <c r="D124" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E124" s="335"/>
-      <c r="F124" s="295" t="s">
+      <c r="E124" s="268"/>
+      <c r="F124" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G124" s="336">
+      <c r="G124" s="242">
         <v>44694</v>
       </c>
-      <c r="H124" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I124" s="337"/>
+      <c r="H124" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I124" s="259"/>
       <c r="J124" s="217" t="s">
         <v>8</v>
       </c>
@@ -15448,18 +15430,18 @@
         <v>100</v>
       </c>
       <c r="L124" s="256"/>
-      <c r="M124" s="295" t="s">
+      <c r="M124" s="307" t="s">
         <v>233</v>
       </c>
       <c r="N124" s="256"/>
     </row>
     <row r="125" spans="1:14" ht="15">
-      <c r="A125" s="309"/>
-      <c r="B125" s="312"/>
+      <c r="A125" s="263"/>
+      <c r="B125" s="265"/>
       <c r="C125" s="267"/>
       <c r="D125" s="267"/>
-      <c r="E125" s="338"/>
-      <c r="F125" s="264"/>
+      <c r="E125" s="269"/>
+      <c r="F125" s="282"/>
       <c r="G125" s="207"/>
       <c r="H125" s="207"/>
       <c r="I125" s="207"/>
@@ -15470,18 +15452,16 @@
         <v>1000</v>
       </c>
       <c r="L125" s="257"/>
-      <c r="M125" s="264"/>
-      <c r="N125" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="M125" s="282"/>
+      <c r="N125" s="207"/>
     </row>
     <row r="126" spans="1:14" ht="15">
-      <c r="A126" s="309"/>
-      <c r="B126" s="312"/>
+      <c r="A126" s="263"/>
+      <c r="B126" s="265"/>
       <c r="C126" s="267"/>
       <c r="D126" s="267"/>
-      <c r="E126" s="338"/>
-      <c r="F126" s="264"/>
+      <c r="E126" s="269"/>
+      <c r="F126" s="282"/>
       <c r="G126" s="207"/>
       <c r="H126" s="207"/>
       <c r="I126" s="207"/>
@@ -15492,16 +15472,16 @@
         <v>100</v>
       </c>
       <c r="L126" s="257"/>
-      <c r="M126" s="264"/>
+      <c r="M126" s="282"/>
       <c r="N126" s="257"/>
     </row>
     <row r="127" spans="1:14" ht="15">
-      <c r="A127" s="309"/>
-      <c r="B127" s="312"/>
+      <c r="A127" s="263"/>
+      <c r="B127" s="265"/>
       <c r="C127" s="267"/>
       <c r="D127" s="267"/>
-      <c r="E127" s="338"/>
-      <c r="F127" s="264"/>
+      <c r="E127" s="269"/>
+      <c r="F127" s="282"/>
       <c r="G127" s="207"/>
       <c r="H127" s="207"/>
       <c r="I127" s="207"/>
@@ -15512,16 +15492,16 @@
         <v>100</v>
       </c>
       <c r="L127" s="257"/>
-      <c r="M127" s="264"/>
+      <c r="M127" s="282"/>
       <c r="N127" s="257"/>
     </row>
     <row r="128" spans="1:14" ht="15">
-      <c r="A128" s="309"/>
-      <c r="B128" s="312"/>
+      <c r="A128" s="263"/>
+      <c r="B128" s="265"/>
       <c r="C128" s="267"/>
       <c r="D128" s="267"/>
-      <c r="E128" s="338"/>
-      <c r="F128" s="264"/>
+      <c r="E128" s="269"/>
+      <c r="F128" s="282"/>
       <c r="G128" s="207"/>
       <c r="H128" s="207"/>
       <c r="I128" s="207"/>
@@ -15532,16 +15512,16 @@
         <v>100</v>
       </c>
       <c r="L128" s="257"/>
-      <c r="M128" s="264"/>
+      <c r="M128" s="282"/>
       <c r="N128" s="257"/>
     </row>
     <row r="129" spans="1:14" ht="15">
-      <c r="A129" s="309"/>
-      <c r="B129" s="312"/>
+      <c r="A129" s="263"/>
+      <c r="B129" s="265"/>
       <c r="C129" s="267"/>
       <c r="D129" s="267"/>
-      <c r="E129" s="338"/>
-      <c r="F129" s="264"/>
+      <c r="E129" s="269"/>
+      <c r="F129" s="282"/>
       <c r="G129" s="207"/>
       <c r="H129" s="207"/>
       <c r="I129" s="207"/>
@@ -15552,16 +15532,16 @@
         <v>100</v>
       </c>
       <c r="L129" s="257"/>
-      <c r="M129" s="264"/>
+      <c r="M129" s="282"/>
       <c r="N129" s="257"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A130" s="310"/>
-      <c r="B130" s="313"/>
-      <c r="C130" s="268"/>
-      <c r="D130" s="268"/>
-      <c r="E130" s="339"/>
-      <c r="F130" s="265"/>
+      <c r="A130" s="270"/>
+      <c r="B130" s="271"/>
+      <c r="C130" s="272"/>
+      <c r="D130" s="272"/>
+      <c r="E130" s="276"/>
+      <c r="F130" s="283"/>
       <c r="G130" s="210"/>
       <c r="H130" s="210"/>
       <c r="I130" s="210"/>
@@ -15572,33 +15552,33 @@
         <v>130</v>
       </c>
       <c r="L130" s="258"/>
-      <c r="M130" s="265"/>
+      <c r="M130" s="283"/>
       <c r="N130" s="258"/>
     </row>
     <row r="131" spans="1:14" ht="15" customHeight="1">
-      <c r="A131" s="308">
+      <c r="A131" s="262">
         <v>22</v>
       </c>
-      <c r="B131" s="311" t="s">
+      <c r="B131" s="264" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="296" t="s">
+      <c r="C131" s="266" t="s">
         <v>211</v>
       </c>
-      <c r="D131" s="296" t="s">
+      <c r="D131" s="266" t="s">
         <v>224</v>
       </c>
-      <c r="E131" s="335"/>
-      <c r="F131" s="295" t="s">
+      <c r="E131" s="268"/>
+      <c r="F131" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G131" s="336">
+      <c r="G131" s="347">
         <v>44694</v>
       </c>
-      <c r="H131" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I131" s="337"/>
+      <c r="H131" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="259"/>
       <c r="J131" s="217" t="s">
         <v>8</v>
       </c>
@@ -15606,18 +15586,18 @@
         <v>100</v>
       </c>
       <c r="L131" s="256"/>
-      <c r="M131" s="295" t="s">
+      <c r="M131" s="307" t="s">
         <v>233</v>
       </c>
       <c r="N131" s="256"/>
     </row>
     <row r="132" spans="1:14" ht="15">
-      <c r="A132" s="309"/>
-      <c r="B132" s="312"/>
+      <c r="A132" s="263"/>
+      <c r="B132" s="265"/>
       <c r="C132" s="267"/>
       <c r="D132" s="267"/>
-      <c r="E132" s="338"/>
-      <c r="F132" s="264"/>
+      <c r="E132" s="269"/>
+      <c r="F132" s="282"/>
       <c r="G132" s="207"/>
       <c r="H132" s="207"/>
       <c r="I132" s="207"/>
@@ -15628,18 +15608,16 @@
         <v>1000</v>
       </c>
       <c r="L132" s="257"/>
-      <c r="M132" s="264"/>
-      <c r="N132" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="M132" s="282"/>
+      <c r="N132" s="207"/>
     </row>
     <row r="133" spans="1:14" ht="15">
-      <c r="A133" s="309"/>
-      <c r="B133" s="312"/>
+      <c r="A133" s="263"/>
+      <c r="B133" s="265"/>
       <c r="C133" s="267"/>
       <c r="D133" s="267"/>
-      <c r="E133" s="338"/>
-      <c r="F133" s="264"/>
+      <c r="E133" s="269"/>
+      <c r="F133" s="282"/>
       <c r="G133" s="207"/>
       <c r="H133" s="207"/>
       <c r="I133" s="207"/>
@@ -15650,16 +15628,16 @@
         <v>100</v>
       </c>
       <c r="L133" s="257"/>
-      <c r="M133" s="264"/>
+      <c r="M133" s="282"/>
       <c r="N133" s="257"/>
     </row>
     <row r="134" spans="1:14" ht="15">
-      <c r="A134" s="309"/>
-      <c r="B134" s="312"/>
+      <c r="A134" s="263"/>
+      <c r="B134" s="265"/>
       <c r="C134" s="267"/>
       <c r="D134" s="267"/>
-      <c r="E134" s="338"/>
-      <c r="F134" s="264"/>
+      <c r="E134" s="269"/>
+      <c r="F134" s="282"/>
       <c r="G134" s="207"/>
       <c r="H134" s="207"/>
       <c r="I134" s="207"/>
@@ -15670,16 +15648,16 @@
         <v>100</v>
       </c>
       <c r="L134" s="257"/>
-      <c r="M134" s="264"/>
+      <c r="M134" s="282"/>
       <c r="N134" s="257"/>
     </row>
     <row r="135" spans="1:14" ht="15">
-      <c r="A135" s="309"/>
-      <c r="B135" s="312"/>
+      <c r="A135" s="263"/>
+      <c r="B135" s="265"/>
       <c r="C135" s="267"/>
       <c r="D135" s="267"/>
-      <c r="E135" s="338"/>
-      <c r="F135" s="264"/>
+      <c r="E135" s="269"/>
+      <c r="F135" s="282"/>
       <c r="G135" s="207"/>
       <c r="H135" s="207"/>
       <c r="I135" s="207"/>
@@ -15690,16 +15668,16 @@
         <v>100</v>
       </c>
       <c r="L135" s="257"/>
-      <c r="M135" s="264"/>
+      <c r="M135" s="282"/>
       <c r="N135" s="257"/>
     </row>
     <row r="136" spans="1:14" ht="15">
-      <c r="A136" s="309"/>
-      <c r="B136" s="312"/>
+      <c r="A136" s="263"/>
+      <c r="B136" s="265"/>
       <c r="C136" s="267"/>
       <c r="D136" s="267"/>
-      <c r="E136" s="338"/>
-      <c r="F136" s="264"/>
+      <c r="E136" s="269"/>
+      <c r="F136" s="282"/>
       <c r="G136" s="207"/>
       <c r="H136" s="207"/>
       <c r="I136" s="207"/>
@@ -15710,16 +15688,16 @@
         <v>100</v>
       </c>
       <c r="L136" s="257"/>
-      <c r="M136" s="264"/>
+      <c r="M136" s="282"/>
       <c r="N136" s="257"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A137" s="310"/>
-      <c r="B137" s="313"/>
-      <c r="C137" s="268"/>
-      <c r="D137" s="268"/>
-      <c r="E137" s="339"/>
-      <c r="F137" s="265"/>
+      <c r="A137" s="270"/>
+      <c r="B137" s="271"/>
+      <c r="C137" s="272"/>
+      <c r="D137" s="272"/>
+      <c r="E137" s="276"/>
+      <c r="F137" s="283"/>
       <c r="G137" s="210"/>
       <c r="H137" s="210"/>
       <c r="I137" s="210"/>
@@ -15730,33 +15708,33 @@
         <v>130</v>
       </c>
       <c r="L137" s="258"/>
-      <c r="M137" s="265"/>
+      <c r="M137" s="283"/>
       <c r="N137" s="258"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A138" s="308">
+      <c r="A138" s="262">
         <v>23</v>
       </c>
-      <c r="B138" s="311" t="s">
+      <c r="B138" s="264" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="296" t="s">
+      <c r="C138" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="D138" s="296" t="s">
+      <c r="D138" s="266" t="s">
         <v>103</v>
       </c>
-      <c r="E138" s="335"/>
-      <c r="F138" s="295" t="s">
+      <c r="E138" s="268"/>
+      <c r="F138" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G138" s="336">
+      <c r="G138" s="347">
         <v>44694</v>
       </c>
-      <c r="H138" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I138" s="337"/>
+      <c r="H138" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I138" s="259"/>
       <c r="J138" s="217" t="s">
         <v>8</v>
       </c>
@@ -15764,18 +15742,18 @@
         <v>100</v>
       </c>
       <c r="L138" s="256"/>
-      <c r="M138" s="295" t="s">
+      <c r="M138" s="307" t="s">
         <v>233</v>
       </c>
       <c r="N138" s="256"/>
     </row>
     <row r="139" spans="1:14" ht="15">
-      <c r="A139" s="309"/>
-      <c r="B139" s="312"/>
+      <c r="A139" s="263"/>
+      <c r="B139" s="265"/>
       <c r="C139" s="267"/>
       <c r="D139" s="267"/>
-      <c r="E139" s="338"/>
-      <c r="F139" s="264"/>
+      <c r="E139" s="269"/>
+      <c r="F139" s="282"/>
       <c r="G139" s="207"/>
       <c r="H139" s="207"/>
       <c r="I139" s="207"/>
@@ -15786,18 +15764,16 @@
         <v>1000</v>
       </c>
       <c r="L139" s="257"/>
-      <c r="M139" s="264"/>
-      <c r="N139" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="M139" s="282"/>
+      <c r="N139" s="207"/>
     </row>
     <row r="140" spans="1:14" ht="15">
-      <c r="A140" s="309"/>
-      <c r="B140" s="312"/>
+      <c r="A140" s="263"/>
+      <c r="B140" s="265"/>
       <c r="C140" s="267"/>
       <c r="D140" s="267"/>
-      <c r="E140" s="338"/>
-      <c r="F140" s="264"/>
+      <c r="E140" s="269"/>
+      <c r="F140" s="282"/>
       <c r="G140" s="207"/>
       <c r="H140" s="207"/>
       <c r="I140" s="207"/>
@@ -15808,16 +15784,16 @@
         <v>100</v>
       </c>
       <c r="L140" s="257"/>
-      <c r="M140" s="264"/>
+      <c r="M140" s="282"/>
       <c r="N140" s="257"/>
     </row>
     <row r="141" spans="1:14" ht="15">
-      <c r="A141" s="309"/>
-      <c r="B141" s="312"/>
+      <c r="A141" s="263"/>
+      <c r="B141" s="265"/>
       <c r="C141" s="267"/>
       <c r="D141" s="267"/>
-      <c r="E141" s="338"/>
-      <c r="F141" s="264"/>
+      <c r="E141" s="269"/>
+      <c r="F141" s="282"/>
       <c r="G141" s="207"/>
       <c r="H141" s="207"/>
       <c r="I141" s="207"/>
@@ -15828,16 +15804,16 @@
         <v>100</v>
       </c>
       <c r="L141" s="257"/>
-      <c r="M141" s="264"/>
+      <c r="M141" s="282"/>
       <c r="N141" s="257"/>
     </row>
     <row r="142" spans="1:14" ht="15">
-      <c r="A142" s="309"/>
-      <c r="B142" s="312"/>
+      <c r="A142" s="263"/>
+      <c r="B142" s="265"/>
       <c r="C142" s="267"/>
       <c r="D142" s="267"/>
-      <c r="E142" s="338"/>
-      <c r="F142" s="264"/>
+      <c r="E142" s="269"/>
+      <c r="F142" s="282"/>
       <c r="G142" s="207"/>
       <c r="H142" s="207"/>
       <c r="I142" s="207"/>
@@ -15848,16 +15824,16 @@
         <v>100</v>
       </c>
       <c r="L142" s="257"/>
-      <c r="M142" s="264"/>
+      <c r="M142" s="282"/>
       <c r="N142" s="257"/>
     </row>
     <row r="143" spans="1:14" ht="15">
-      <c r="A143" s="309"/>
-      <c r="B143" s="312"/>
+      <c r="A143" s="263"/>
+      <c r="B143" s="265"/>
       <c r="C143" s="267"/>
       <c r="D143" s="267"/>
-      <c r="E143" s="338"/>
-      <c r="F143" s="264"/>
+      <c r="E143" s="269"/>
+      <c r="F143" s="282"/>
       <c r="G143" s="207"/>
       <c r="H143" s="207"/>
       <c r="I143" s="207"/>
@@ -15868,16 +15844,16 @@
         <v>100</v>
       </c>
       <c r="L143" s="257"/>
-      <c r="M143" s="264"/>
+      <c r="M143" s="282"/>
       <c r="N143" s="257"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A144" s="310"/>
-      <c r="B144" s="313"/>
-      <c r="C144" s="268"/>
-      <c r="D144" s="268"/>
-      <c r="E144" s="339"/>
-      <c r="F144" s="265"/>
+      <c r="A144" s="270"/>
+      <c r="B144" s="271"/>
+      <c r="C144" s="272"/>
+      <c r="D144" s="272"/>
+      <c r="E144" s="276"/>
+      <c r="F144" s="283"/>
       <c r="G144" s="210"/>
       <c r="H144" s="210"/>
       <c r="I144" s="210"/>
@@ -15888,33 +15864,33 @@
         <v>130</v>
       </c>
       <c r="L144" s="258"/>
-      <c r="M144" s="265"/>
+      <c r="M144" s="283"/>
       <c r="N144" s="258"/>
     </row>
     <row r="145" spans="1:14" ht="15">
-      <c r="A145" s="308">
+      <c r="A145" s="262">
         <v>24</v>
       </c>
-      <c r="B145" s="311" t="s">
+      <c r="B145" s="264" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="296" t="s">
+      <c r="C145" s="266" t="s">
         <v>215</v>
       </c>
-      <c r="D145" s="340" t="s">
+      <c r="D145" s="273" t="s">
         <v>104</v>
       </c>
-      <c r="E145" s="335"/>
-      <c r="F145" s="295" t="s">
+      <c r="E145" s="268"/>
+      <c r="F145" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G145" s="336">
+      <c r="G145" s="347">
         <v>44694</v>
       </c>
-      <c r="H145" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I145" s="337"/>
+      <c r="H145" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I145" s="259"/>
       <c r="J145" s="217" t="s">
         <v>8</v>
       </c>
@@ -15922,18 +15898,18 @@
         <v>100</v>
       </c>
       <c r="L145" s="256"/>
-      <c r="M145" s="343" t="s">
+      <c r="M145" s="344" t="s">
         <v>233</v>
       </c>
       <c r="N145" s="256"/>
     </row>
     <row r="146" spans="1:14" ht="15">
-      <c r="A146" s="309"/>
-      <c r="B146" s="312"/>
+      <c r="A146" s="263"/>
+      <c r="B146" s="265"/>
       <c r="C146" s="267"/>
-      <c r="D146" s="341"/>
-      <c r="E146" s="338"/>
-      <c r="F146" s="264"/>
+      <c r="D146" s="274"/>
+      <c r="E146" s="269"/>
+      <c r="F146" s="282"/>
       <c r="G146" s="207"/>
       <c r="H146" s="207"/>
       <c r="I146" s="207"/>
@@ -15944,18 +15920,16 @@
         <v>1000</v>
       </c>
       <c r="L146" s="257"/>
-      <c r="M146" s="344"/>
-      <c r="N146" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="M146" s="345"/>
+      <c r="N146" s="207"/>
     </row>
     <row r="147" spans="1:14" ht="15">
-      <c r="A147" s="309"/>
-      <c r="B147" s="312"/>
+      <c r="A147" s="263"/>
+      <c r="B147" s="265"/>
       <c r="C147" s="267"/>
-      <c r="D147" s="341"/>
-      <c r="E147" s="338"/>
-      <c r="F147" s="264"/>
+      <c r="D147" s="274"/>
+      <c r="E147" s="269"/>
+      <c r="F147" s="282"/>
       <c r="G147" s="207"/>
       <c r="H147" s="207"/>
       <c r="I147" s="207"/>
@@ -15966,16 +15940,16 @@
         <v>100</v>
       </c>
       <c r="L147" s="257"/>
-      <c r="M147" s="344"/>
+      <c r="M147" s="345"/>
       <c r="N147" s="257"/>
     </row>
     <row r="148" spans="1:14" ht="15">
-      <c r="A148" s="309"/>
-      <c r="B148" s="312"/>
+      <c r="A148" s="263"/>
+      <c r="B148" s="265"/>
       <c r="C148" s="267"/>
-      <c r="D148" s="341"/>
-      <c r="E148" s="338"/>
-      <c r="F148" s="264"/>
+      <c r="D148" s="274"/>
+      <c r="E148" s="269"/>
+      <c r="F148" s="282"/>
       <c r="G148" s="207"/>
       <c r="H148" s="207"/>
       <c r="I148" s="207"/>
@@ -15986,16 +15960,16 @@
         <v>100</v>
       </c>
       <c r="L148" s="257"/>
-      <c r="M148" s="344"/>
+      <c r="M148" s="345"/>
       <c r="N148" s="257"/>
     </row>
     <row r="149" spans="1:14" ht="15">
-      <c r="A149" s="309"/>
-      <c r="B149" s="312"/>
+      <c r="A149" s="263"/>
+      <c r="B149" s="265"/>
       <c r="C149" s="267"/>
-      <c r="D149" s="341"/>
-      <c r="E149" s="338"/>
-      <c r="F149" s="264"/>
+      <c r="D149" s="274"/>
+      <c r="E149" s="269"/>
+      <c r="F149" s="282"/>
       <c r="G149" s="207"/>
       <c r="H149" s="207"/>
       <c r="I149" s="207"/>
@@ -16006,16 +15980,16 @@
         <v>100</v>
       </c>
       <c r="L149" s="257"/>
-      <c r="M149" s="344"/>
+      <c r="M149" s="345"/>
       <c r="N149" s="257"/>
     </row>
     <row r="150" spans="1:14" ht="15">
-      <c r="A150" s="309"/>
-      <c r="B150" s="312"/>
+      <c r="A150" s="263"/>
+      <c r="B150" s="265"/>
       <c r="C150" s="267"/>
-      <c r="D150" s="341"/>
-      <c r="E150" s="338"/>
-      <c r="F150" s="264"/>
+      <c r="D150" s="274"/>
+      <c r="E150" s="269"/>
+      <c r="F150" s="282"/>
       <c r="G150" s="207"/>
       <c r="H150" s="207"/>
       <c r="I150" s="207"/>
@@ -16026,16 +16000,16 @@
         <v>100</v>
       </c>
       <c r="L150" s="257"/>
-      <c r="M150" s="344"/>
+      <c r="M150" s="345"/>
       <c r="N150" s="257"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" s="310"/>
-      <c r="B151" s="313"/>
-      <c r="C151" s="268"/>
-      <c r="D151" s="342"/>
-      <c r="E151" s="339"/>
-      <c r="F151" s="265"/>
+      <c r="A151" s="270"/>
+      <c r="B151" s="271"/>
+      <c r="C151" s="272"/>
+      <c r="D151" s="275"/>
+      <c r="E151" s="276"/>
+      <c r="F151" s="283"/>
       <c r="G151" s="210"/>
       <c r="H151" s="210"/>
       <c r="I151" s="210"/>
@@ -16046,33 +16020,33 @@
         <v>130</v>
       </c>
       <c r="L151" s="258"/>
-      <c r="M151" s="345"/>
+      <c r="M151" s="346"/>
       <c r="N151" s="258"/>
     </row>
     <row r="152" spans="1:14" ht="15" customHeight="1">
-      <c r="A152" s="308">
+      <c r="A152" s="262">
         <v>25</v>
       </c>
-      <c r="B152" s="311" t="s">
+      <c r="B152" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="296" t="s">
+      <c r="C152" s="266" t="s">
         <v>217</v>
       </c>
-      <c r="D152" s="340" t="s">
+      <c r="D152" s="273" t="s">
         <v>104</v>
       </c>
-      <c r="E152" s="335"/>
-      <c r="F152" s="295" t="s">
+      <c r="E152" s="268"/>
+      <c r="F152" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G152" s="336">
+      <c r="G152" s="347">
         <v>44694</v>
       </c>
-      <c r="H152" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I152" s="337"/>
+      <c r="H152" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I152" s="259"/>
       <c r="J152" s="217" t="s">
         <v>8</v>
       </c>
@@ -16080,18 +16054,18 @@
         <v>100</v>
       </c>
       <c r="L152" s="256"/>
-      <c r="M152" s="295" t="s">
+      <c r="M152" s="307" t="s">
         <v>233</v>
       </c>
       <c r="N152" s="256"/>
     </row>
     <row r="153" spans="1:14" ht="15">
-      <c r="A153" s="309"/>
-      <c r="B153" s="312"/>
+      <c r="A153" s="263"/>
+      <c r="B153" s="265"/>
       <c r="C153" s="267"/>
-      <c r="D153" s="341"/>
-      <c r="E153" s="338"/>
-      <c r="F153" s="264"/>
+      <c r="D153" s="274"/>
+      <c r="E153" s="269"/>
+      <c r="F153" s="282"/>
       <c r="G153" s="207"/>
       <c r="H153" s="207"/>
       <c r="I153" s="207"/>
@@ -16102,18 +16076,16 @@
         <v>1000</v>
       </c>
       <c r="L153" s="257"/>
-      <c r="M153" s="264"/>
-      <c r="N153" s="207" t="s">
-        <v>142</v>
-      </c>
+      <c r="M153" s="282"/>
+      <c r="N153" s="207"/>
     </row>
     <row r="154" spans="1:14" ht="15">
-      <c r="A154" s="309"/>
-      <c r="B154" s="312"/>
+      <c r="A154" s="263"/>
+      <c r="B154" s="265"/>
       <c r="C154" s="267"/>
-      <c r="D154" s="341"/>
-      <c r="E154" s="338"/>
-      <c r="F154" s="264"/>
+      <c r="D154" s="274"/>
+      <c r="E154" s="269"/>
+      <c r="F154" s="282"/>
       <c r="G154" s="207"/>
       <c r="H154" s="207"/>
       <c r="I154" s="207"/>
@@ -16124,16 +16096,16 @@
         <v>100</v>
       </c>
       <c r="L154" s="257"/>
-      <c r="M154" s="264"/>
+      <c r="M154" s="282"/>
       <c r="N154" s="257"/>
     </row>
     <row r="155" spans="1:14" ht="15">
-      <c r="A155" s="309"/>
-      <c r="B155" s="312"/>
+      <c r="A155" s="263"/>
+      <c r="B155" s="265"/>
       <c r="C155" s="267"/>
-      <c r="D155" s="341"/>
-      <c r="E155" s="338"/>
-      <c r="F155" s="264"/>
+      <c r="D155" s="274"/>
+      <c r="E155" s="269"/>
+      <c r="F155" s="282"/>
       <c r="G155" s="207"/>
       <c r="H155" s="207"/>
       <c r="I155" s="207"/>
@@ -16144,16 +16116,16 @@
         <v>100</v>
       </c>
       <c r="L155" s="257"/>
-      <c r="M155" s="264"/>
+      <c r="M155" s="282"/>
       <c r="N155" s="257"/>
     </row>
     <row r="156" spans="1:14" ht="15">
-      <c r="A156" s="309"/>
-      <c r="B156" s="312"/>
+      <c r="A156" s="263"/>
+      <c r="B156" s="265"/>
       <c r="C156" s="267"/>
-      <c r="D156" s="341"/>
-      <c r="E156" s="338"/>
-      <c r="F156" s="264"/>
+      <c r="D156" s="274"/>
+      <c r="E156" s="269"/>
+      <c r="F156" s="282"/>
       <c r="G156" s="207"/>
       <c r="H156" s="207"/>
       <c r="I156" s="207"/>
@@ -16164,16 +16136,16 @@
         <v>100</v>
       </c>
       <c r="L156" s="257"/>
-      <c r="M156" s="264"/>
+      <c r="M156" s="282"/>
       <c r="N156" s="257"/>
     </row>
     <row r="157" spans="1:14" ht="15">
-      <c r="A157" s="309"/>
-      <c r="B157" s="312"/>
+      <c r="A157" s="263"/>
+      <c r="B157" s="265"/>
       <c r="C157" s="267"/>
-      <c r="D157" s="341"/>
-      <c r="E157" s="338"/>
-      <c r="F157" s="264"/>
+      <c r="D157" s="274"/>
+      <c r="E157" s="269"/>
+      <c r="F157" s="282"/>
       <c r="G157" s="207"/>
       <c r="H157" s="207"/>
       <c r="I157" s="207"/>
@@ -16184,16 +16156,16 @@
         <v>100</v>
       </c>
       <c r="L157" s="257"/>
-      <c r="M157" s="264"/>
+      <c r="M157" s="282"/>
       <c r="N157" s="257"/>
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A158" s="310"/>
-      <c r="B158" s="313"/>
-      <c r="C158" s="268"/>
-      <c r="D158" s="342"/>
-      <c r="E158" s="339"/>
-      <c r="F158" s="265"/>
+      <c r="A158" s="270"/>
+      <c r="B158" s="271"/>
+      <c r="C158" s="272"/>
+      <c r="D158" s="275"/>
+      <c r="E158" s="276"/>
+      <c r="F158" s="283"/>
       <c r="G158" s="210"/>
       <c r="H158" s="210"/>
       <c r="I158" s="210"/>
@@ -16204,33 +16176,33 @@
         <v>130</v>
       </c>
       <c r="L158" s="258"/>
-      <c r="M158" s="265"/>
+      <c r="M158" s="283"/>
       <c r="N158" s="258"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A159" s="308">
+      <c r="A159" s="262">
         <v>26</v>
       </c>
-      <c r="B159" s="311" t="s">
+      <c r="B159" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="C159" s="296" t="s">
+      <c r="C159" s="266" t="s">
         <v>219</v>
       </c>
-      <c r="D159" s="296" t="s">
+      <c r="D159" s="266" t="s">
         <v>225</v>
       </c>
-      <c r="E159" s="335"/>
-      <c r="F159" s="295" t="s">
+      <c r="E159" s="268"/>
+      <c r="F159" s="307" t="s">
         <v>229</v>
       </c>
-      <c r="G159" s="336">
+      <c r="G159" s="347">
         <v>44694</v>
       </c>
-      <c r="H159" s="336">
-        <v>45059</v>
-      </c>
-      <c r="I159" s="337"/>
+      <c r="H159" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="I159" s="259"/>
       <c r="J159" s="205" t="s">
         <v>10</v>
       </c>
@@ -16238,18 +16210,18 @@
         <v>100</v>
       </c>
       <c r="L159" s="256"/>
-      <c r="M159" s="295" t="s">
+      <c r="M159" s="307" t="s">
         <v>233</v>
       </c>
       <c r="N159" s="256"/>
     </row>
     <row r="160" spans="1:14" ht="15">
-      <c r="A160" s="309"/>
-      <c r="B160" s="312"/>
+      <c r="A160" s="263"/>
+      <c r="B160" s="265"/>
       <c r="C160" s="267"/>
       <c r="D160" s="267"/>
-      <c r="E160" s="338"/>
-      <c r="F160" s="264"/>
+      <c r="E160" s="269"/>
+      <c r="F160" s="282"/>
       <c r="G160" s="207"/>
       <c r="H160" s="207"/>
       <c r="I160" s="207"/>
@@ -16260,16 +16232,16 @@
         <v>100</v>
       </c>
       <c r="L160" s="257"/>
-      <c r="M160" s="264"/>
+      <c r="M160" s="282"/>
       <c r="N160" s="257"/>
     </row>
     <row r="161" spans="1:14" ht="15">
-      <c r="A161" s="309"/>
-      <c r="B161" s="312"/>
+      <c r="A161" s="263"/>
+      <c r="B161" s="265"/>
       <c r="C161" s="267"/>
       <c r="D161" s="267"/>
-      <c r="E161" s="338"/>
-      <c r="F161" s="264"/>
+      <c r="E161" s="269"/>
+      <c r="F161" s="282"/>
       <c r="G161" s="207"/>
       <c r="H161" s="207"/>
       <c r="I161" s="207"/>
@@ -16280,16 +16252,16 @@
         <v>100</v>
       </c>
       <c r="L161" s="257"/>
-      <c r="M161" s="264"/>
+      <c r="M161" s="282"/>
       <c r="N161" s="257"/>
     </row>
     <row r="162" spans="1:14" ht="15">
-      <c r="A162" s="309"/>
-      <c r="B162" s="312"/>
+      <c r="A162" s="263"/>
+      <c r="B162" s="265"/>
       <c r="C162" s="267"/>
       <c r="D162" s="267"/>
-      <c r="E162" s="338"/>
-      <c r="F162" s="264"/>
+      <c r="E162" s="269"/>
+      <c r="F162" s="282"/>
       <c r="G162" s="207"/>
       <c r="H162" s="207"/>
       <c r="I162" s="207"/>
@@ -16300,16 +16272,16 @@
         <v>100</v>
       </c>
       <c r="L162" s="257"/>
-      <c r="M162" s="264"/>
+      <c r="M162" s="282"/>
       <c r="N162" s="257"/>
     </row>
     <row r="163" spans="1:14" ht="15">
-      <c r="A163" s="309"/>
-      <c r="B163" s="312"/>
+      <c r="A163" s="263"/>
+      <c r="B163" s="265"/>
       <c r="C163" s="267"/>
       <c r="D163" s="267"/>
-      <c r="E163" s="338"/>
-      <c r="F163" s="264"/>
+      <c r="E163" s="269"/>
+      <c r="F163" s="282"/>
       <c r="G163" s="207"/>
       <c r="H163" s="207"/>
       <c r="I163" s="207"/>
@@ -16320,16 +16292,16 @@
         <v>130</v>
       </c>
       <c r="L163" s="257"/>
-      <c r="M163" s="264"/>
+      <c r="M163" s="282"/>
       <c r="N163" s="257"/>
     </row>
     <row r="164" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A164" s="309"/>
-      <c r="B164" s="312"/>
+      <c r="A164" s="263"/>
+      <c r="B164" s="265"/>
       <c r="C164" s="267"/>
       <c r="D164" s="267"/>
-      <c r="E164" s="338"/>
-      <c r="F164" s="264"/>
+      <c r="E164" s="269"/>
+      <c r="F164" s="282"/>
       <c r="G164" s="210"/>
       <c r="H164" s="210"/>
       <c r="I164" s="210"/>
@@ -16340,32 +16312,32 @@
         <v>130</v>
       </c>
       <c r="L164" s="258"/>
-      <c r="M164" s="264"/>
+      <c r="M164" s="282"/>
       <c r="N164" s="258"/>
     </row>
     <row r="165" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A165" s="308">
+      <c r="A165" s="262">
         <v>27</v>
       </c>
-      <c r="B165" s="311" t="s">
+      <c r="B165" s="264" t="s">
         <v>221</v>
       </c>
-      <c r="C165" s="296" t="s">
+      <c r="C165" s="266" t="s">
         <v>222</v>
       </c>
-      <c r="D165" s="296" t="s">
+      <c r="D165" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E165" s="296"/>
-      <c r="F165" s="295" t="s">
+      <c r="E165" s="266"/>
+      <c r="F165" s="307" t="s">
         <v>229</v>
       </c>
       <c r="G165" s="212">
         <v>44694</v>
       </c>
-      <c r="H165" s="346"/>
-      <c r="I165" s="337" t="s">
-        <v>203</v>
+      <c r="H165" s="260"/>
+      <c r="I165" s="348" t="s">
+        <v>204</v>
       </c>
       <c r="J165" s="200" t="s">
         <v>7</v>
@@ -16374,18 +16346,18 @@
         <v>1000</v>
       </c>
       <c r="L165" s="199"/>
-      <c r="M165" s="295" t="s">
+      <c r="M165" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="N165" s="347"/>
+      <c r="N165" s="261"/>
     </row>
     <row r="166" spans="1:14" ht="15">
-      <c r="A166" s="309"/>
-      <c r="B166" s="312"/>
+      <c r="A166" s="263"/>
+      <c r="B166" s="265"/>
       <c r="C166" s="267"/>
       <c r="D166" s="267"/>
       <c r="E166" s="267"/>
-      <c r="F166" s="264"/>
+      <c r="F166" s="282"/>
       <c r="G166" s="257"/>
       <c r="H166" s="257"/>
       <c r="I166" s="257"/>
@@ -16396,16 +16368,16 @@
         <v>1000</v>
       </c>
       <c r="L166" s="257"/>
-      <c r="M166" s="264"/>
+      <c r="M166" s="282"/>
       <c r="N166" s="257"/>
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A167" s="310"/>
-      <c r="B167" s="313"/>
-      <c r="C167" s="268"/>
-      <c r="D167" s="268"/>
-      <c r="E167" s="268"/>
-      <c r="F167" s="265"/>
+      <c r="A167" s="270"/>
+      <c r="B167" s="271"/>
+      <c r="C167" s="272"/>
+      <c r="D167" s="272"/>
+      <c r="E167" s="272"/>
+      <c r="F167" s="283"/>
       <c r="G167" s="258"/>
       <c r="H167" s="258"/>
       <c r="I167" s="258"/>
@@ -16416,7 +16388,7 @@
         <v>1000</v>
       </c>
       <c r="L167" s="258"/>
-      <c r="M167" s="265"/>
+      <c r="M167" s="283"/>
       <c r="N167" s="258"/>
     </row>
   </sheetData>
@@ -16534,6 +16506,8 @@
     <mergeCell ref="F42:F48"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B27:B34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
     <mergeCell ref="F20:F26"/>
     <mergeCell ref="D20:D26"/>
     <mergeCell ref="C20:C26"/>
@@ -16552,8 +16526,6 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
